--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C71FCE-D8AD-4C6C-B29D-8AF5D585B7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F695136-DDD2-47AF-8C55-D42D2CB2C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="5235" windowWidth="24225" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="3780" windowWidth="24165" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH61_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>操作可能判定に用いる鍵名称</t>
         </r>
       </text>
     </comment>
@@ -130,11 +130,24 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -285,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -359,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -391,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="200">
   <si>
     <t>Type</t>
   </si>
@@ -430,6 +443,9 @@
     <t>PointValue</t>
   </si>
   <si>
+    <t>KeyName</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -982,25 +998,25 @@
     <t>列番高見沢2番線</t>
   </si>
   <si>
-    <t>列番上り第2接近</t>
-  </si>
-  <si>
-    <t>列番上り第1接近</t>
-  </si>
-  <si>
-    <t>列番1番線</t>
-  </si>
-  <si>
-    <t>列番2番線</t>
-  </si>
-  <si>
-    <t>列番3番線</t>
-  </si>
-  <si>
-    <t>列番下り第1接近</t>
-  </si>
-  <si>
-    <t>列番下り第2接近</t>
+    <t>列番日野森上り第2接近</t>
+  </si>
+  <si>
+    <t>列番日野森上り第1接近</t>
+  </si>
+  <si>
+    <t>列番日野森1番線</t>
+  </si>
+  <si>
+    <t>列番日野森2番線</t>
+  </si>
+  <si>
+    <t>列番日野森3番線</t>
+  </si>
+  <si>
+    <t>列番日野森下り第1接近</t>
+  </si>
+  <si>
+    <t>列番日野森下り第2接近</t>
   </si>
   <si>
     <t>Button</t>
@@ -1033,6 +1049,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Yu Gothic&quot;"/>
     </font>
@@ -1048,12 +1069,6 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1089,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1097,44 +1112,45 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1355,7 +1371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE120"/>
+  <dimension ref="A1:AF120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1368,14 +1384,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="20" width="15.140625" customWidth="1"/>
-    <col min="21" max="21" width="37.5703125" customWidth="1"/>
-    <col min="22" max="22" width="100.140625" customWidth="1"/>
-    <col min="23" max="23" width="62.5703125" customWidth="1"/>
-    <col min="24" max="31" width="15.42578125" customWidth="1"/>
+    <col min="3" max="21" width="15.140625" customWidth="1"/>
+    <col min="22" max="22" width="37.5703125" customWidth="1"/>
+    <col min="23" max="23" width="100.140625" customWidth="1"/>
+    <col min="24" max="24" width="62.5703125" customWidth="1"/>
+    <col min="25" max="32" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,13 +1455,15 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3"/>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
@@ -1453,25 +1471,26 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" s="3"/>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
+      <c r="G2" s="4"/>
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1484,180 +1503,184 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="V2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="5" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6">
         <v>900</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="6">
         <v>78</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="6">
         <v>79</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="6">
         <v>110</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+    </row>
+    <row r="4" spans="1:32" ht="25.5">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-    </row>
-    <row r="4" spans="1:31" ht="25.5">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <v>6</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="6">
         <v>37</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="6">
         <v>63</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="6">
         <v>63</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
       <c r="V4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="W4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5">
-        <f>G3+11</f>
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6">
+        <f>H3+11</f>
         <v>911</v>
       </c>
-      <c r="H5" s="5">
-        <f>H3-68</f>
+      <c r="I5" s="6">
+        <f>I3-68</f>
         <v>10</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="8" t="s">
         <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>368</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>302</v>
       </c>
-      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1666,108 +1689,110 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S6" s="5" t="s">
+      <c r="R6" s="4"/>
+      <c r="S6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="6">
         <v>-1</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-    </row>
-    <row r="7" spans="1:31" ht="16.5">
+      <c r="X6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="1:32" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5">
+      <c r="D7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="6">
         <v>14</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="6">
         <v>20</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="6">
         <v>11</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="6">
         <v>11</v>
       </c>
-      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="5">
+      <c r="N7" s="4"/>
+      <c r="O7" s="6">
         <v>1</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="6">
         <v>10</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="4"/>
+      <c r="R7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="V7" s="4"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <v>433</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>302</v>
       </c>
-      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -1776,51 +1801,52 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S8" s="5" t="s">
+      <c r="R8" s="4"/>
+      <c r="S8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
-      <c r="U8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="X8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <v>491</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>358</v>
       </c>
-      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1830,46 +1856,47 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-      <c r="U9" s="6"/>
-      <c r="V9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="9" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7"/>
+      <c r="W9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="X9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>499</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>376</v>
       </c>
-      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -1879,101 +1906,103 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="6">
+        <v>0</v>
+      </c>
+      <c r="V10" s="7"/>
+      <c r="W10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="5">
-        <v>0</v>
-      </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W10" s="12"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <v>14</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="6">
         <v>20</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="6">
         <v>11</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="6">
         <v>11</v>
       </c>
-      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="5">
+      <c r="N11" s="4"/>
+      <c r="O11" s="6">
         <v>2</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="6">
         <v>10</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="4"/>
+      <c r="S11" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="V11" s="4"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>55</v>
+        <v>36</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
         <v>825</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>182</v>
       </c>
-      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -1982,49 +2011,50 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="S12" s="5" t="s">
+      <c r="R12" s="4"/>
+      <c r="S12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="T12" s="5">
-        <v>0</v>
-      </c>
-      <c r="U12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="12"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="W12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>59</v>
+        <v>27</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
         <v>789</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>218</v>
       </c>
-      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2034,101 +2064,103 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" s="5">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6"/>
-      <c r="V13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W13" s="12"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="S13" s="4"/>
+      <c r="T13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7"/>
+      <c r="W13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>14</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="6">
         <v>20</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="6">
         <v>11</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="6">
         <v>11</v>
       </c>
-      <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="5">
+      <c r="N14" s="4"/>
+      <c r="O14" s="6">
         <v>3</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="6">
         <v>10</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14" s="4"/>
+      <c r="R14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="V14" s="4"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>61</v>
+        <v>36</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
         <v>825</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>362</v>
       </c>
-      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2137,49 +2169,50 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
-      <c r="R15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0</v>
-      </c>
-      <c r="U15" s="6" t="s">
+      <c r="R15" s="4"/>
+      <c r="S15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="U15" s="6">
+        <v>0</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="12"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="W15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>62</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4">
         <v>789</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>398</v>
       </c>
-      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2189,101 +2222,103 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="6"/>
-      <c r="V16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W16" s="12"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="S16" s="4"/>
+      <c r="T16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7"/>
+      <c r="W16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
+      <c r="D17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>14</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="6">
         <v>20</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="6">
         <v>11</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="6">
         <v>11</v>
       </c>
-      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="5">
+      <c r="N17" s="4"/>
+      <c r="O17" s="6">
         <v>4</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="6">
         <v>10</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S17" s="4"/>
+      <c r="R17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="V17" s="4"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
         <v>1121</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>302</v>
       </c>
-      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2292,49 +2327,50 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6" t="s">
+      <c r="R18" s="4"/>
+      <c r="S18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="T18" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="W18" s="12"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="W18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
         <v>1187</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>300</v>
       </c>
-      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2344,101 +2380,103 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="6"/>
-      <c r="V19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W19" s="12"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="1:31" ht="16.5">
+      <c r="S19" s="4"/>
+      <c r="T19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7"/>
+      <c r="W19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+    </row>
+    <row r="20" spans="1:32" ht="16.5">
       <c r="A20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="5">
+      <c r="D20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="6">
         <v>14</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="6">
         <v>20</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="6">
         <v>11</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="6">
         <v>11</v>
       </c>
-      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="5">
+      <c r="N20" s="4"/>
+      <c r="O20" s="6">
         <v>5</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="6">
         <v>10</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="S20" s="4"/>
+      <c r="R20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="V20" s="4"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
         <v>1179</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>362</v>
       </c>
-      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2447,49 +2485,50 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T21" s="5">
-        <v>0</v>
-      </c>
-      <c r="U21" s="6" t="s">
+      <c r="R21" s="4"/>
+      <c r="S21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T21" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="12"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="W21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
         <v>1143</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>398</v>
       </c>
-      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -2499,101 +2538,103 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="6"/>
-      <c r="V22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="W22" s="12"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="S22" s="4"/>
+      <c r="T22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0</v>
+      </c>
+      <c r="V22" s="7"/>
+      <c r="W22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5">
+      <c r="D23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
         <v>14</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="6">
         <v>20</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="6">
         <v>11</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="6">
         <v>11</v>
       </c>
-      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="5">
+      <c r="N23" s="4"/>
+      <c r="O23" s="6">
         <v>6</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="6">
         <v>10</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="S23" s="4"/>
+      <c r="R23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="V23" s="4"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="8" t="s">
         <v>71</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
         <v>509</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>315</v>
       </c>
-      <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -2602,106 +2643,108 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="S24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="6" t="s">
+      <c r="R24" s="4"/>
+      <c r="S24" s="9" t="s">
         <v>72</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
       </c>
       <c r="V24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="W24" s="12"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-    </row>
-    <row r="25" spans="1:31" ht="16.5">
+      <c r="W24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+    </row>
+    <row r="25" spans="1:32" ht="16.5">
       <c r="A25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="5">
+      <c r="D25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="6">
         <v>5</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="6">
         <v>23</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="6">
         <v>15</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="6">
         <v>12</v>
       </c>
-      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O25" s="5">
+      <c r="N25" s="4"/>
+      <c r="O25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="6">
         <v>10</v>
       </c>
-      <c r="P25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="S25" s="4"/>
+      <c r="R25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="V25" s="4"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
         <v>1077</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>195</v>
       </c>
-      <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -2710,106 +2753,108 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="S26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T26" s="5">
-        <v>0</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>72</v>
+      <c r="R26" s="4"/>
+      <c r="S26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0</v>
       </c>
       <c r="V26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="W26" s="12"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-    </row>
-    <row r="27" spans="1:31" ht="16.5">
+      <c r="W26" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+    </row>
+    <row r="27" spans="1:32" ht="16.5">
       <c r="A27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="5">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="6">
         <v>5</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="6">
         <v>23</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="6">
         <v>15</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="6">
         <v>12</v>
       </c>
-      <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="O27" s="5">
+      <c r="N27" s="4"/>
+      <c r="O27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="6">
         <v>10</v>
       </c>
-      <c r="P27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="S27" s="4"/>
+      <c r="R27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="V27" s="4"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4">
         <v>1077</v>
       </c>
-      <c r="H28" s="4">
+      <c r="I28" s="4">
         <v>315</v>
       </c>
-      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2818,106 +2863,108 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T28" s="5">
-        <v>0</v>
-      </c>
-      <c r="U28" s="6" t="s">
-        <v>72</v>
+      <c r="R28" s="4"/>
+      <c r="S28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U28" s="6">
+        <v>0</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="W28" s="12"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-    </row>
-    <row r="29" spans="1:31" ht="16.5">
+      <c r="W28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+    </row>
+    <row r="29" spans="1:32" ht="16.5">
       <c r="A29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="5">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="6">
         <v>5</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="6">
         <v>23</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="6">
         <v>15</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="6">
         <v>12</v>
       </c>
-      <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O29" s="5">
+      <c r="N29" s="4"/>
+      <c r="O29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="6">
         <v>10</v>
       </c>
-      <c r="P29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="S29" s="4"/>
+      <c r="R29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="V29" s="4"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4">
         <v>1077</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
         <v>375</v>
       </c>
-      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2926,106 +2973,108 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T30" s="5">
-        <v>0</v>
-      </c>
-      <c r="U30" s="6" t="s">
-        <v>72</v>
+      <c r="R30" s="4"/>
+      <c r="S30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U30" s="6">
+        <v>0</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="W30" s="12"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-    </row>
-    <row r="31" spans="1:31" ht="16.5">
+      <c r="W30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31" spans="1:32" ht="16.5">
       <c r="A31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="5">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="6">
         <v>5</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="6">
         <v>23</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="6">
         <v>15</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K31" s="6">
         <v>12</v>
       </c>
-      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O31" s="5">
+      <c r="N31" s="4"/>
+      <c r="O31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" s="6">
         <v>10</v>
       </c>
-      <c r="P31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="S31" s="4"/>
+      <c r="R31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="V31" s="4"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
         <v>1226</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <v>315</v>
       </c>
-      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -3034,106 +3083,108 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T32" s="5">
-        <v>0</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>72</v>
+      <c r="R32" s="4"/>
+      <c r="S32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0</v>
       </c>
       <c r="V32" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="W32" s="12"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-    </row>
-    <row r="33" spans="1:31" ht="16.5">
+      <c r="W32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+    </row>
+    <row r="33" spans="1:32" ht="16.5">
       <c r="A33" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="5">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="6">
         <v>5</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="6">
         <v>23</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="6">
         <v>15</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K33" s="6">
         <v>12</v>
       </c>
-      <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="O33" s="5">
+      <c r="N33" s="4"/>
+      <c r="O33" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" s="6">
         <v>10</v>
       </c>
-      <c r="P33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q33" s="5" t="s">
+      <c r="Q33" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="S33" s="4"/>
+      <c r="R33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="V33" s="4"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
         <v>304</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <v>551</v>
       </c>
-      <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -3142,49 +3193,50 @@
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
-      <c r="R34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="S34" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T34" s="13">
-        <v>0</v>
-      </c>
-      <c r="U34" s="14" t="s">
+      <c r="R34" s="4"/>
+      <c r="S34" s="12" t="s">
         <v>84</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U34" s="14">
+        <v>0</v>
       </c>
       <c r="V34" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="W34" s="12"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="W34" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="4">
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
         <v>1111</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <v>551</v>
       </c>
-      <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -3193,49 +3245,50 @@
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="S35" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T35" s="13">
-        <v>0</v>
-      </c>
-      <c r="U35" s="14" t="s">
-        <v>84</v>
+      <c r="R35" s="4"/>
+      <c r="S35" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="T35" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U35" s="14">
+        <v>0</v>
       </c>
       <c r="V35" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="W35" s="12"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="W35" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>87</v>
+        <v>36</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="4">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
         <v>508</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <v>64</v>
       </c>
-      <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -3244,51 +3297,52 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="S36" s="5" t="s">
+      <c r="R36" s="4"/>
+      <c r="S36" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T36" s="5">
-        <v>0</v>
-      </c>
-      <c r="U36" s="6" t="s">
+      <c r="T36" s="6" t="s">
         <v>89</v>
+      </c>
+      <c r="U36" s="6">
+        <v>0</v>
       </c>
       <c r="V36" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="W36" s="9" t="s">
+      <c r="W36" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="X36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>92</v>
+        <v>27</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
         <v>506</v>
       </c>
-      <c r="H37" s="4">
+      <c r="I37" s="4">
         <v>45</v>
       </c>
-      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
@@ -3298,46 +3352,47 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T37" s="5">
-        <v>0</v>
-      </c>
-      <c r="U37" s="6"/>
-      <c r="V37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="W37" s="9" t="s">
+      <c r="S37" s="4"/>
+      <c r="T37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U37" s="6">
+        <v>0</v>
+      </c>
+      <c r="V37" s="7"/>
+      <c r="W37" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="X37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>95</v>
+        <v>27</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="4">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
         <v>540</v>
       </c>
-      <c r="H38" s="4">
+      <c r="I38" s="4">
         <v>45</v>
       </c>
-      <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
@@ -3347,101 +3402,103 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T38" s="5">
-        <v>0</v>
-      </c>
-      <c r="U38" s="6"/>
-      <c r="V38" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="W38" s="12"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-    </row>
-    <row r="39" spans="1:31" ht="16.5">
+      <c r="S38" s="4"/>
+      <c r="T38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U38" s="6">
+        <v>0</v>
+      </c>
+      <c r="V38" s="7"/>
+      <c r="W38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+    </row>
+    <row r="39" spans="1:32" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>97</v>
+        <v>42</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="5">
+      <c r="D39" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="6">
         <v>14</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="6">
         <v>20</v>
       </c>
-      <c r="I39" s="5">
+      <c r="J39" s="6">
         <v>11</v>
       </c>
-      <c r="J39" s="5">
+      <c r="K39" s="6">
         <v>11</v>
       </c>
-      <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="5">
+      <c r="N39" s="4"/>
+      <c r="O39" s="6">
         <v>21</v>
       </c>
-      <c r="O39" s="5">
+      <c r="P39" s="6">
         <v>10</v>
       </c>
-      <c r="P39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R39" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="S39" s="4"/>
+      <c r="R39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="V39" s="4"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>98</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
         <v>576</v>
       </c>
-      <c r="H40" s="4">
+      <c r="I40" s="4">
         <v>64</v>
       </c>
-      <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -3450,49 +3507,50 @@
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T40" s="5">
-        <v>0</v>
-      </c>
-      <c r="U40" s="6" t="s">
+      <c r="R40" s="4"/>
+      <c r="S40" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="T40" s="6" t="s">
         <v>89</v>
+      </c>
+      <c r="U40" s="6">
+        <v>0</v>
       </c>
       <c r="V40" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="W40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>99</v>
+        <v>27</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
         <v>574</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <v>45</v>
       </c>
-      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -3502,44 +3560,45 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T41" s="5">
-        <v>0</v>
-      </c>
-      <c r="U41" s="6"/>
-      <c r="V41" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="W41" s="12"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="S41" s="4"/>
+      <c r="T41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U41" s="6">
+        <v>0</v>
+      </c>
+      <c r="V41" s="7"/>
+      <c r="W41" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4">
         <v>608</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <v>45</v>
       </c>
-      <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -3549,101 +3608,103 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T42" s="5">
-        <v>0</v>
-      </c>
-      <c r="U42" s="6"/>
-      <c r="V42" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="W42" s="12"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-    </row>
-    <row r="43" spans="1:31" ht="16.5">
+      <c r="S42" s="4"/>
+      <c r="T42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U42" s="6">
+        <v>0</v>
+      </c>
+      <c r="V42" s="7"/>
+      <c r="W42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+    </row>
+    <row r="43" spans="1:32" ht="16.5">
       <c r="A43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="5">
+      <c r="D43" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="6">
         <v>14</v>
       </c>
-      <c r="H43" s="5">
+      <c r="I43" s="6">
         <v>20</v>
       </c>
-      <c r="I43" s="5">
+      <c r="J43" s="6">
         <v>11</v>
       </c>
-      <c r="J43" s="5">
+      <c r="K43" s="6">
         <v>11</v>
       </c>
-      <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="5">
+      <c r="N43" s="4"/>
+      <c r="O43" s="6">
         <v>22</v>
       </c>
-      <c r="O43" s="5">
+      <c r="P43" s="6">
         <v>10</v>
       </c>
-      <c r="P43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q43" s="5" t="s">
+      <c r="Q43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R43" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="S43" s="4"/>
+      <c r="R43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-    </row>
-    <row r="44" spans="1:31" ht="25.5">
+      <c r="V43" s="4"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+    </row>
+    <row r="44" spans="1:32" ht="25.5">
       <c r="A44" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="8" t="s">
         <v>103</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4">
+      <c r="G44" s="4"/>
+      <c r="H44" s="4">
         <v>54</v>
       </c>
-      <c r="H44" s="4">
+      <c r="I44" s="4">
         <v>64</v>
       </c>
-      <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -3652,51 +3713,52 @@
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="S44" s="5" t="s">
+      <c r="R44" s="4"/>
+      <c r="S44" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="T44" s="5">
-        <v>0</v>
-      </c>
-      <c r="U44" s="6" t="s">
-        <v>47</v>
+      <c r="T44" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="U44" s="6">
+        <v>0</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="W44" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W44" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="X44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>107</v>
+        <v>27</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4">
         <v>69</v>
       </c>
-      <c r="H45" s="4">
+      <c r="I45" s="4">
         <v>31</v>
       </c>
-      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -3706,44 +3768,45 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T45" s="5">
-        <v>0</v>
-      </c>
-      <c r="U45" s="6"/>
-      <c r="V45" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="W45" s="12"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-    </row>
-    <row r="46" spans="1:31" ht="25.5">
+      <c r="S45" s="4"/>
+      <c r="T45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U45" s="6">
+        <v>0</v>
+      </c>
+      <c r="V45" s="7"/>
+      <c r="W45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+    </row>
+    <row r="46" spans="1:32" ht="25.5">
       <c r="A46" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4">
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
         <v>1347</v>
       </c>
-      <c r="H46" s="4">
+      <c r="I46" s="4">
         <v>64</v>
       </c>
-      <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -3752,51 +3815,52 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="S46" s="5" t="s">
+      <c r="R46" s="4"/>
+      <c r="S46" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="T46" s="5">
+      <c r="T46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U46" s="6">
         <v>1</v>
       </c>
-      <c r="U46" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="V46" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="W46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W46" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="X46" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>112</v>
+        <v>27</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4">
+      <c r="G47" s="4"/>
+      <c r="H47" s="4">
         <v>1345</v>
       </c>
-      <c r="H47" s="4">
+      <c r="I47" s="4">
         <v>45</v>
       </c>
-      <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -3806,44 +3870,45 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T47" s="5">
-        <v>0</v>
-      </c>
-      <c r="U47" s="6"/>
-      <c r="V47" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="W47" s="12"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="S47" s="4"/>
+      <c r="T47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U47" s="6">
+        <v>0</v>
+      </c>
+      <c r="V47" s="7"/>
+      <c r="W47" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>113</v>
+        <v>27</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
         <v>1379</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>45</v>
       </c>
-      <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -3853,44 +3918,45 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T48" s="5">
-        <v>0</v>
-      </c>
-      <c r="U48" s="6"/>
-      <c r="V48" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="W48" s="12"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="S48" s="4"/>
+      <c r="T48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U48" s="6">
+        <v>0</v>
+      </c>
+      <c r="V48" s="7"/>
+      <c r="W48" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>114</v>
+        <v>27</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4">
+      <c r="G49" s="4"/>
+      <c r="H49" s="4">
         <v>47</v>
       </c>
-      <c r="H49" s="4">
+      <c r="I49" s="4">
         <v>325</v>
       </c>
-      <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -3900,46 +3966,47 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T49" s="5">
-        <v>0</v>
-      </c>
-      <c r="U49" s="6"/>
-      <c r="V49" s="7" t="s">
+      <c r="S49" s="4"/>
+      <c r="T49" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W49" s="12" t="s">
+      <c r="U49" s="6">
+        <v>0</v>
+      </c>
+      <c r="V49" s="7"/>
+      <c r="W49" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="X49" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>118</v>
+        <v>27</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="4">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4">
         <v>77</v>
       </c>
-      <c r="H50" s="4">
+      <c r="I50" s="4">
         <v>325</v>
       </c>
-      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -3949,44 +4016,45 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T50" s="5">
-        <v>0</v>
-      </c>
-      <c r="U50" s="6"/>
-      <c r="V50" s="7" t="s">
+      <c r="S50" s="4"/>
+      <c r="T50" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W50" s="12"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="U50" s="6">
+        <v>0</v>
+      </c>
+      <c r="V50" s="7"/>
+      <c r="W50" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>119</v>
+        <v>27</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-      <c r="G51" s="4">
+      <c r="G51" s="4"/>
+      <c r="H51" s="4">
         <v>47</v>
       </c>
-      <c r="H51" s="4">
+      <c r="I51" s="4">
         <v>325</v>
       </c>
-      <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
@@ -3996,44 +4064,45 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
-      <c r="S51" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T51" s="5">
-        <v>0</v>
-      </c>
-      <c r="U51" s="6"/>
-      <c r="V51" s="7" t="s">
+      <c r="S51" s="4"/>
+      <c r="T51" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W51" s="12"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="U51" s="6">
+        <v>0</v>
+      </c>
+      <c r="V51" s="7"/>
+      <c r="W51" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>120</v>
+        <v>27</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-      <c r="G52" s="4">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4">
         <v>69</v>
       </c>
-      <c r="H52" s="4">
+      <c r="I52" s="4">
         <v>365</v>
       </c>
-      <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -4043,46 +4112,47 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T52" s="13">
-        <v>0</v>
-      </c>
-      <c r="U52" s="14"/>
-      <c r="V52" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="W52" s="12" t="s">
+      <c r="S52" s="4"/>
+      <c r="T52" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U52" s="14">
+        <v>0</v>
+      </c>
+      <c r="V52" s="15"/>
+      <c r="W52" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="X52" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>123</v>
+        <v>27</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4">
         <v>102</v>
       </c>
-      <c r="H53" s="4">
+      <c r="I53" s="4">
         <v>325</v>
       </c>
-      <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -4092,44 +4162,45 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
-      <c r="S53" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T53" s="5">
-        <v>0</v>
-      </c>
-      <c r="U53" s="6"/>
-      <c r="V53" s="7" t="s">
+      <c r="S53" s="4"/>
+      <c r="T53" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W53" s="12"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="U53" s="6">
+        <v>0</v>
+      </c>
+      <c r="V53" s="7"/>
+      <c r="W53" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>124</v>
+        <v>27</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
         <v>102</v>
       </c>
-      <c r="H54" s="4">
+      <c r="I54" s="4">
         <v>385</v>
       </c>
-      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -4139,44 +4210,45 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
-      <c r="S54" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T54" s="5">
-        <v>0</v>
-      </c>
-      <c r="U54" s="6"/>
-      <c r="V54" s="7" t="s">
+      <c r="S54" s="4"/>
+      <c r="T54" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W54" s="12"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="U54" s="6">
+        <v>0</v>
+      </c>
+      <c r="V54" s="7"/>
+      <c r="W54" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>125</v>
+        <v>27</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4">
         <v>131</v>
       </c>
-      <c r="H55" s="4">
+      <c r="I55" s="4">
         <v>325</v>
       </c>
-      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -4186,44 +4258,45 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T55" s="5">
-        <v>0</v>
-      </c>
-      <c r="U55" s="6"/>
-      <c r="V55" s="7" t="s">
+      <c r="S55" s="4"/>
+      <c r="T55" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W55" s="12"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="U55" s="6">
+        <v>0</v>
+      </c>
+      <c r="V55" s="7"/>
+      <c r="W55" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>126</v>
+        <v>27</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4">
         <v>213</v>
       </c>
-      <c r="H56" s="4">
+      <c r="I56" s="4">
         <v>325</v>
       </c>
-      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -4233,44 +4306,45 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
-      <c r="S56" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T56" s="5">
-        <v>0</v>
-      </c>
-      <c r="U56" s="6"/>
-      <c r="V56" s="7" t="s">
+      <c r="S56" s="4"/>
+      <c r="T56" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W56" s="12"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="U56" s="6">
+        <v>0</v>
+      </c>
+      <c r="V56" s="7"/>
+      <c r="W56" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>127</v>
+        <v>27</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4">
         <v>131</v>
       </c>
-      <c r="H57" s="4">
+      <c r="I57" s="4">
         <v>385</v>
       </c>
-      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
@@ -4280,44 +4354,45 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T57" s="5">
-        <v>0</v>
-      </c>
-      <c r="U57" s="6"/>
-      <c r="V57" s="7" t="s">
+      <c r="S57" s="4"/>
+      <c r="T57" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W57" s="12"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="U57" s="6">
+        <v>0</v>
+      </c>
+      <c r="V57" s="7"/>
+      <c r="W57" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>128</v>
+        <v>27</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="4">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4">
         <v>213</v>
       </c>
-      <c r="H58" s="4">
+      <c r="I58" s="4">
         <v>385</v>
       </c>
-      <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -4327,44 +4402,45 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T58" s="5">
-        <v>0</v>
-      </c>
-      <c r="U58" s="6"/>
-      <c r="V58" s="7" t="s">
+      <c r="S58" s="4"/>
+      <c r="T58" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W58" s="12"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="U58" s="6">
+        <v>0</v>
+      </c>
+      <c r="V58" s="7"/>
+      <c r="W58" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>129</v>
+        <v>27</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="4">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4">
         <v>242</v>
       </c>
-      <c r="H59" s="4">
+      <c r="I59" s="4">
         <v>325</v>
       </c>
-      <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -4374,44 +4450,45 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T59" s="5">
-        <v>0</v>
-      </c>
-      <c r="U59" s="6"/>
-      <c r="V59" s="7" t="s">
+      <c r="S59" s="4"/>
+      <c r="T59" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W59" s="12"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="U59" s="6">
+        <v>0</v>
+      </c>
+      <c r="V59" s="7"/>
+      <c r="W59" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>130</v>
+        <v>27</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="4">
+      <c r="G60" s="4"/>
+      <c r="H60" s="4">
         <v>242</v>
       </c>
-      <c r="H60" s="4">
+      <c r="I60" s="4">
         <v>385</v>
       </c>
-      <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -4421,44 +4498,45 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T60" s="5">
-        <v>0</v>
-      </c>
-      <c r="U60" s="6"/>
-      <c r="V60" s="7" t="s">
+      <c r="S60" s="4"/>
+      <c r="T60" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W60" s="12"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="U60" s="6">
+        <v>0</v>
+      </c>
+      <c r="V60" s="7"/>
+      <c r="W60" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>131</v>
+        <v>27</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="4">
+      <c r="G61" s="4"/>
+      <c r="H61" s="4">
         <v>267</v>
       </c>
-      <c r="H61" s="4">
+      <c r="I61" s="4">
         <v>325</v>
       </c>
-      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
@@ -4468,44 +4546,45 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T61" s="5">
-        <v>0</v>
-      </c>
-      <c r="U61" s="6"/>
-      <c r="V61" s="7" t="s">
+      <c r="S61" s="4"/>
+      <c r="T61" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W61" s="12"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="U61" s="6">
+        <v>0</v>
+      </c>
+      <c r="V61" s="7"/>
+      <c r="W61" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X61" s="13"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>132</v>
+        <v>27</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="4">
+      <c r="G62" s="4"/>
+      <c r="H62" s="4">
         <v>297</v>
       </c>
-      <c r="H62" s="4">
+      <c r="I62" s="4">
         <v>325</v>
       </c>
-      <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -4515,44 +4594,45 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T62" s="5">
-        <v>0</v>
-      </c>
-      <c r="U62" s="6"/>
-      <c r="V62" s="7" t="s">
+      <c r="S62" s="4"/>
+      <c r="T62" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W62" s="12"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="U62" s="6">
+        <v>0</v>
+      </c>
+      <c r="V62" s="7"/>
+      <c r="W62" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>133</v>
+        <v>27</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4">
+      <c r="G63" s="4"/>
+      <c r="H63" s="4">
         <v>279</v>
       </c>
-      <c r="H63" s="4">
+      <c r="I63" s="4">
         <v>365</v>
       </c>
-      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -4562,46 +4642,47 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T63" s="13">
-        <v>0</v>
-      </c>
-      <c r="U63" s="14"/>
-      <c r="V63" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="W63" s="12" t="s">
+      <c r="S63" s="4"/>
+      <c r="T63" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U63" s="14">
+        <v>0</v>
+      </c>
+      <c r="V63" s="15"/>
+      <c r="W63" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="X63" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>136</v>
+        <v>27</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="4">
+      <c r="G64" s="4"/>
+      <c r="H64" s="4">
         <v>297</v>
       </c>
-      <c r="H64" s="4">
+      <c r="I64" s="4">
         <v>325</v>
       </c>
-      <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -4611,44 +4692,45 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T64" s="5">
-        <v>0</v>
-      </c>
-      <c r="U64" s="6"/>
-      <c r="V64" s="7" t="s">
+      <c r="S64" s="4"/>
+      <c r="T64" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W64" s="12"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="U64" s="6">
+        <v>0</v>
+      </c>
+      <c r="V64" s="7"/>
+      <c r="W64" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X64" s="13"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>137</v>
+        <v>27</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="4">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4">
         <v>322</v>
       </c>
-      <c r="H65" s="4">
+      <c r="I65" s="4">
         <v>325</v>
       </c>
-      <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
@@ -4658,44 +4740,45 @@
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T65" s="5">
-        <v>0</v>
-      </c>
-      <c r="U65" s="6"/>
-      <c r="V65" s="7" t="s">
+      <c r="S65" s="4"/>
+      <c r="T65" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W65" s="12"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="U65" s="6">
+        <v>0</v>
+      </c>
+      <c r="V65" s="7"/>
+      <c r="W65" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X65" s="13"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>138</v>
+        <v>27</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="4">
+      <c r="G66" s="4"/>
+      <c r="H66" s="4">
         <v>352</v>
       </c>
-      <c r="H66" s="4">
+      <c r="I66" s="4">
         <v>325</v>
       </c>
-      <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
@@ -4705,44 +4788,45 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T66" s="5">
-        <v>0</v>
-      </c>
-      <c r="U66" s="6"/>
-      <c r="V66" s="7" t="s">
+      <c r="S66" s="4"/>
+      <c r="T66" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W66" s="12"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="U66" s="6">
+        <v>0</v>
+      </c>
+      <c r="V66" s="7"/>
+      <c r="W66" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X66" s="13"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>139</v>
+        <v>27</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="4">
+      <c r="G67" s="4"/>
+      <c r="H67" s="4">
         <v>412</v>
       </c>
-      <c r="H67" s="4">
+      <c r="I67" s="4">
         <v>325</v>
       </c>
-      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
@@ -4752,44 +4836,45 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T67" s="5">
-        <v>0</v>
-      </c>
-      <c r="U67" s="6"/>
-      <c r="V67" s="7" t="s">
+      <c r="S67" s="4"/>
+      <c r="T67" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W67" s="12"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="U67" s="6">
+        <v>0</v>
+      </c>
+      <c r="V67" s="7"/>
+      <c r="W67" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X67" s="13"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5"/>
+      <c r="AA67" s="5"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>140</v>
+        <v>27</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="4">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4">
         <v>353</v>
       </c>
-      <c r="H68" s="4">
+      <c r="I68" s="4">
         <v>302</v>
       </c>
-      <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -4799,46 +4884,47 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T68" s="13">
-        <v>0</v>
-      </c>
-      <c r="U68" s="14"/>
-      <c r="V68" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="W68" s="12" t="s">
+      <c r="S68" s="4"/>
+      <c r="T68" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U68" s="14">
+        <v>0</v>
+      </c>
+      <c r="V68" s="15"/>
+      <c r="W68" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="X68" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>143</v>
+        <v>27</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4">
         <v>353</v>
       </c>
-      <c r="H69" s="4">
+      <c r="I69" s="4">
         <v>344</v>
       </c>
-      <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
@@ -4848,46 +4934,47 @@
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-      <c r="S69" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T69" s="13">
-        <v>0</v>
-      </c>
-      <c r="U69" s="14"/>
-      <c r="V69" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="W69" s="12" t="s">
+      <c r="S69" s="4"/>
+      <c r="T69" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U69" s="14">
+        <v>0</v>
+      </c>
+      <c r="V69" s="15"/>
+      <c r="W69" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="X69" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>146</v>
+        <v>27</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
-      <c r="G70" s="4">
+      <c r="G70" s="4"/>
+      <c r="H70" s="4">
         <v>413</v>
       </c>
-      <c r="H70" s="4">
+      <c r="I70" s="4">
         <v>302</v>
       </c>
-      <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -4897,46 +4984,47 @@
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T70" s="13">
-        <v>0</v>
-      </c>
-      <c r="U70" s="14"/>
-      <c r="V70" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="W70" s="12" t="s">
+      <c r="S70" s="4"/>
+      <c r="T70" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U70" s="14">
+        <v>0</v>
+      </c>
+      <c r="V70" s="15"/>
+      <c r="W70" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-      <c r="AA70" s="3"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="X70" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>147</v>
+        <v>27</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
-      <c r="G71" s="4">
+      <c r="G71" s="4"/>
+      <c r="H71" s="4">
         <v>413</v>
       </c>
-      <c r="H71" s="4">
+      <c r="I71" s="4">
         <v>344</v>
       </c>
-      <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -4946,46 +5034,47 @@
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T71" s="13">
-        <v>0</v>
-      </c>
-      <c r="U71" s="14"/>
-      <c r="V71" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="W71" s="12" t="s">
+      <c r="S71" s="4"/>
+      <c r="T71" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U71" s="14">
+        <v>0</v>
+      </c>
+      <c r="V71" s="15"/>
+      <c r="W71" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="X71" s="3"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
-      <c r="AA71" s="3"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
-      <c r="AD71" s="3"/>
-      <c r="AE71" s="3"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="X71" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>148</v>
+        <v>27</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
-      <c r="G72" s="4">
+      <c r="G72" s="4"/>
+      <c r="H72" s="4">
         <v>490</v>
       </c>
-      <c r="H72" s="4">
+      <c r="I72" s="4">
         <v>325</v>
       </c>
-      <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -4995,44 +5084,45 @@
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
-      <c r="S72" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T72" s="5">
-        <v>0</v>
-      </c>
-      <c r="U72" s="6"/>
-      <c r="V72" s="7" t="s">
+      <c r="S72" s="4"/>
+      <c r="T72" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W72" s="12"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="U72" s="6">
+        <v>0</v>
+      </c>
+      <c r="V72" s="7"/>
+      <c r="W72" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>149</v>
+        <v>27</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4">
+      <c r="G73" s="4"/>
+      <c r="H73" s="4">
         <v>542</v>
       </c>
-      <c r="H73" s="4">
+      <c r="I73" s="4">
         <v>325</v>
       </c>
-      <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -5042,44 +5132,45 @@
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-      <c r="S73" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T73" s="5">
-        <v>0</v>
-      </c>
-      <c r="U73" s="6"/>
-      <c r="V73" s="7" t="s">
+      <c r="S73" s="4"/>
+      <c r="T73" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W73" s="12"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="U73" s="6">
+        <v>0</v>
+      </c>
+      <c r="V73" s="7"/>
+      <c r="W73" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X73" s="13"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>150</v>
+        <v>27</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="4">
+      <c r="G74" s="4"/>
+      <c r="H74" s="4">
         <v>570</v>
       </c>
-      <c r="H74" s="4">
+      <c r="I74" s="4">
         <v>325</v>
       </c>
-      <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -5089,44 +5180,45 @@
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
-      <c r="S74" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T74" s="5">
-        <v>0</v>
-      </c>
-      <c r="U74" s="6"/>
-      <c r="V74" s="7" t="s">
+      <c r="S74" s="4"/>
+      <c r="T74" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W74" s="12"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="U74" s="6">
+        <v>0</v>
+      </c>
+      <c r="V74" s="7"/>
+      <c r="W74" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X74" s="13"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>151</v>
+        <v>27</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
-      <c r="G75" s="4">
+      <c r="G75" s="4"/>
+      <c r="H75" s="4">
         <v>612</v>
       </c>
-      <c r="H75" s="4">
+      <c r="I75" s="4">
         <v>325</v>
       </c>
-      <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -5136,44 +5228,45 @@
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
-      <c r="S75" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T75" s="5">
-        <v>0</v>
-      </c>
-      <c r="U75" s="6"/>
-      <c r="V75" s="7" t="s">
+      <c r="S75" s="4"/>
+      <c r="T75" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W75" s="12"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="U75" s="6">
+        <v>0</v>
+      </c>
+      <c r="V75" s="7"/>
+      <c r="W75" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X75" s="13"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>152</v>
+        <v>27</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
-      <c r="G76" s="4">
+      <c r="G76" s="4"/>
+      <c r="H76" s="4">
         <v>570</v>
       </c>
-      <c r="H76" s="4">
+      <c r="I76" s="4">
         <v>325</v>
       </c>
-      <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -5183,44 +5276,45 @@
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
-      <c r="S76" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T76" s="5">
-        <v>0</v>
-      </c>
-      <c r="U76" s="6"/>
-      <c r="V76" s="7" t="s">
+      <c r="S76" s="4"/>
+      <c r="T76" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W76" s="12"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="U76" s="6">
+        <v>0</v>
+      </c>
+      <c r="V76" s="7"/>
+      <c r="W76" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X76" s="13"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>153</v>
+        <v>27</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="4">
+      <c r="G77" s="4"/>
+      <c r="H77" s="4">
         <v>594</v>
       </c>
-      <c r="H77" s="4">
+      <c r="I77" s="4">
         <v>343</v>
       </c>
-      <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
@@ -5230,46 +5324,47 @@
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
-      <c r="S77" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T77" s="13">
-        <v>0</v>
-      </c>
-      <c r="U77" s="14"/>
-      <c r="V77" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="W77" s="12" t="s">
+      <c r="S77" s="4"/>
+      <c r="T77" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U77" s="14">
+        <v>0</v>
+      </c>
+      <c r="V77" s="15"/>
+      <c r="W77" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="X77" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>154</v>
+        <v>27</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="4">
+      <c r="G78" s="4"/>
+      <c r="H78" s="4">
         <v>636</v>
       </c>
-      <c r="H78" s="4">
+      <c r="I78" s="4">
         <v>385</v>
       </c>
-      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -5279,44 +5374,45 @@
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
-      <c r="S78" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T78" s="5">
-        <v>0</v>
-      </c>
-      <c r="U78" s="6"/>
-      <c r="V78" s="7" t="s">
+      <c r="S78" s="4"/>
+      <c r="T78" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W78" s="12"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="U78" s="6">
+        <v>0</v>
+      </c>
+      <c r="V78" s="7"/>
+      <c r="W78" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X78" s="13"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>155</v>
+        <v>27</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
-      <c r="G79" s="4">
+      <c r="G79" s="4"/>
+      <c r="H79" s="4">
         <v>716</v>
       </c>
-      <c r="H79" s="4">
+      <c r="I79" s="4">
         <v>385</v>
       </c>
-      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
@@ -5326,44 +5422,45 @@
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
-      <c r="S79" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T79" s="5">
-        <v>0</v>
-      </c>
-      <c r="U79" s="6"/>
-      <c r="V79" s="7" t="s">
+      <c r="S79" s="4"/>
+      <c r="T79" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W79" s="12"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="U79" s="6">
+        <v>0</v>
+      </c>
+      <c r="V79" s="7"/>
+      <c r="W79" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="5"/>
+      <c r="Z79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5"/>
+      <c r="AC79" s="5"/>
+      <c r="AD79" s="5"/>
+      <c r="AE79" s="5"/>
+      <c r="AF79" s="5"/>
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>156</v>
+        <v>27</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4">
+      <c r="G80" s="4"/>
+      <c r="H80" s="4">
         <v>796</v>
       </c>
-      <c r="H80" s="4">
+      <c r="I80" s="4">
         <v>385</v>
       </c>
-      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -5373,44 +5470,45 @@
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
-      <c r="S80" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T80" s="5">
-        <v>0</v>
-      </c>
-      <c r="U80" s="6"/>
-      <c r="V80" s="7" t="s">
+      <c r="S80" s="4"/>
+      <c r="T80" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W80" s="12"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="U80" s="6">
+        <v>0</v>
+      </c>
+      <c r="V80" s="7"/>
+      <c r="W80" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="5"/>
+      <c r="Z80" s="5"/>
+      <c r="AA80" s="5"/>
+      <c r="AB80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5"/>
+      <c r="AE80" s="5"/>
+      <c r="AF80" s="5"/>
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>157</v>
+        <v>27</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4">
+      <c r="G81" s="4"/>
+      <c r="H81" s="4">
         <v>568</v>
       </c>
-      <c r="H81" s="4">
+      <c r="I81" s="4">
         <v>383</v>
       </c>
-      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -5420,44 +5518,45 @@
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
-      <c r="S81" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T81" s="13">
-        <v>0</v>
-      </c>
-      <c r="U81" s="14"/>
-      <c r="V81" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="W81" s="9"/>
-      <c r="X81" s="3"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
-      <c r="AA81" s="3"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
-      <c r="AD81" s="3"/>
-      <c r="AE81" s="3"/>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="S81" s="4"/>
+      <c r="T81" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U81" s="14">
+        <v>0</v>
+      </c>
+      <c r="V81" s="15"/>
+      <c r="W81" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="5"/>
+      <c r="Z81" s="5"/>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="5"/>
+      <c r="AF81" s="5"/>
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>159</v>
+        <v>27</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4">
+      <c r="G82" s="4"/>
+      <c r="H82" s="4">
         <v>614</v>
       </c>
-      <c r="H82" s="4">
+      <c r="I82" s="4">
         <v>363</v>
       </c>
-      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -5467,46 +5566,47 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
-      <c r="S82" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T82" s="13">
-        <v>0</v>
-      </c>
-      <c r="U82" s="14"/>
-      <c r="V82" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="W82" s="12" t="s">
+      <c r="S82" s="4"/>
+      <c r="T82" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U82" s="14">
+        <v>0</v>
+      </c>
+      <c r="V82" s="15"/>
+      <c r="W82" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="X82" s="3"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
-      <c r="AA82" s="3"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
-      <c r="AD82" s="3"/>
-      <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="X82" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y82" s="5"/>
+      <c r="Z82" s="5"/>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
+      <c r="AC82" s="5"/>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="5"/>
+      <c r="AF82" s="5"/>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>160</v>
+        <v>27</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4">
+      <c r="G83" s="4"/>
+      <c r="H83" s="4">
         <v>636</v>
       </c>
-      <c r="H83" s="4">
+      <c r="I83" s="4">
         <v>385</v>
       </c>
-      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -5516,44 +5616,45 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
-      <c r="S83" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T83" s="5">
-        <v>0</v>
-      </c>
-      <c r="U83" s="6"/>
-      <c r="V83" s="7" t="s">
+      <c r="S83" s="4"/>
+      <c r="T83" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W83" s="12"/>
-      <c r="X83" s="3"/>
-      <c r="Y83" s="3"/>
-      <c r="Z83" s="3"/>
-      <c r="AA83" s="3"/>
-      <c r="AB83" s="3"/>
-      <c r="AC83" s="3"/>
-      <c r="AD83" s="3"/>
-      <c r="AE83" s="3"/>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="U83" s="6">
+        <v>0</v>
+      </c>
+      <c r="V83" s="7"/>
+      <c r="W83" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="5"/>
+      <c r="Z83" s="5"/>
+      <c r="AA83" s="5"/>
+      <c r="AB83" s="5"/>
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5"/>
+      <c r="AE83" s="5"/>
+      <c r="AF83" s="5"/>
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>161</v>
+        <v>27</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4">
+      <c r="G84" s="4"/>
+      <c r="H84" s="4">
         <v>716</v>
       </c>
-      <c r="H84" s="4">
+      <c r="I84" s="4">
         <v>385</v>
       </c>
-      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -5563,44 +5664,45 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
-      <c r="S84" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T84" s="5">
-        <v>0</v>
-      </c>
-      <c r="U84" s="6"/>
-      <c r="V84" s="7" t="s">
+      <c r="S84" s="4"/>
+      <c r="T84" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W84" s="12"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
-      <c r="AA84" s="3"/>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="3"/>
-      <c r="AD84" s="3"/>
-      <c r="AE84" s="3"/>
-    </row>
-    <row r="85" spans="1:31">
+      <c r="U84" s="6">
+        <v>0</v>
+      </c>
+      <c r="V84" s="7"/>
+      <c r="W84" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="5"/>
+      <c r="Z84" s="5"/>
+      <c r="AA84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5"/>
+      <c r="AD84" s="5"/>
+      <c r="AE84" s="5"/>
+      <c r="AF84" s="5"/>
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>162</v>
+        <v>27</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="4">
+      <c r="G85" s="4"/>
+      <c r="H85" s="4">
         <v>796</v>
       </c>
-      <c r="H85" s="4">
+      <c r="I85" s="4">
         <v>385</v>
       </c>
-      <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -5610,44 +5712,45 @@
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
-      <c r="S85" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T85" s="5">
-        <v>0</v>
-      </c>
-      <c r="U85" s="6"/>
-      <c r="V85" s="7" t="s">
+      <c r="S85" s="4"/>
+      <c r="T85" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W85" s="12"/>
-      <c r="X85" s="3"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
-      <c r="AA85" s="3"/>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="3"/>
-      <c r="AD85" s="3"/>
-      <c r="AE85" s="3"/>
-    </row>
-    <row r="86" spans="1:31">
+      <c r="U85" s="6">
+        <v>0</v>
+      </c>
+      <c r="V85" s="7"/>
+      <c r="W85" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5"/>
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>163</v>
+        <v>27</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
-      <c r="G86" s="4">
+      <c r="G86" s="4"/>
+      <c r="H86" s="4">
         <v>640</v>
       </c>
-      <c r="H86" s="4">
+      <c r="I86" s="4">
         <v>325</v>
       </c>
-      <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -5657,44 +5760,45 @@
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
-      <c r="S86" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T86" s="5">
-        <v>0</v>
-      </c>
-      <c r="U86" s="6"/>
-      <c r="V86" s="7" t="s">
+      <c r="S86" s="4"/>
+      <c r="T86" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W86" s="12"/>
-      <c r="X86" s="3"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
-      <c r="AA86" s="3"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3"/>
-      <c r="AD86" s="3"/>
-      <c r="AE86" s="3"/>
-    </row>
-    <row r="87" spans="1:31">
+      <c r="U86" s="6">
+        <v>0</v>
+      </c>
+      <c r="V86" s="7"/>
+      <c r="W86" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X86" s="13"/>
+      <c r="Y86" s="5"/>
+      <c r="Z86" s="5"/>
+      <c r="AA86" s="5"/>
+      <c r="AB86" s="5"/>
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5"/>
+      <c r="AE86" s="5"/>
+      <c r="AF86" s="5"/>
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>164</v>
+        <v>27</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
-      <c r="G87" s="4">
+      <c r="G87" s="4"/>
+      <c r="H87" s="4">
         <v>718</v>
       </c>
-      <c r="H87" s="4">
+      <c r="I87" s="4">
         <v>325</v>
       </c>
-      <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
@@ -5704,44 +5808,45 @@
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
       <c r="R87" s="4"/>
-      <c r="S87" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T87" s="5">
-        <v>0</v>
-      </c>
-      <c r="U87" s="6"/>
-      <c r="V87" s="7" t="s">
+      <c r="S87" s="4"/>
+      <c r="T87" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W87" s="12"/>
-      <c r="X87" s="3"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
-      <c r="AA87" s="3"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
-      <c r="AD87" s="3"/>
-      <c r="AE87" s="3"/>
-    </row>
-    <row r="88" spans="1:31">
+      <c r="U87" s="6">
+        <v>0</v>
+      </c>
+      <c r="V87" s="7"/>
+      <c r="W87" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X87" s="13"/>
+      <c r="Y87" s="5"/>
+      <c r="Z87" s="5"/>
+      <c r="AA87" s="5"/>
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="5"/>
+      <c r="AE87" s="5"/>
+      <c r="AF87" s="5"/>
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>165</v>
+        <v>27</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
-      <c r="G88" s="4">
+      <c r="G88" s="4"/>
+      <c r="H88" s="4">
         <v>796</v>
       </c>
-      <c r="H88" s="4">
+      <c r="I88" s="4">
         <v>325</v>
       </c>
-      <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -5751,44 +5856,45 @@
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
       <c r="R88" s="4"/>
-      <c r="S88" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T88" s="5">
-        <v>0</v>
-      </c>
-      <c r="U88" s="6"/>
-      <c r="V88" s="7" t="s">
+      <c r="S88" s="4"/>
+      <c r="T88" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W88" s="12"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-    </row>
-    <row r="89" spans="1:31">
+      <c r="U88" s="6">
+        <v>0</v>
+      </c>
+      <c r="V88" s="7"/>
+      <c r="W88" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="5"/>
+      <c r="AA88" s="5"/>
+      <c r="AB88" s="5"/>
+      <c r="AC88" s="5"/>
+      <c r="AD88" s="5"/>
+      <c r="AE88" s="5"/>
+      <c r="AF88" s="5"/>
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>166</v>
+        <v>27</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4">
+      <c r="G89" s="4"/>
+      <c r="H89" s="4">
         <v>640</v>
       </c>
-      <c r="H89" s="4">
+      <c r="I89" s="4">
         <v>325</v>
       </c>
-      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
@@ -5798,44 +5904,45 @@
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
-      <c r="S89" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T89" s="5">
-        <v>0</v>
-      </c>
-      <c r="U89" s="6"/>
-      <c r="V89" s="7" t="s">
+      <c r="S89" s="4"/>
+      <c r="T89" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W89" s="12"/>
-      <c r="X89" s="3"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
-      <c r="AA89" s="3"/>
-      <c r="AB89" s="3"/>
-      <c r="AC89" s="3"/>
-      <c r="AD89" s="3"/>
-      <c r="AE89" s="3"/>
-    </row>
-    <row r="90" spans="1:31">
+      <c r="U89" s="6">
+        <v>0</v>
+      </c>
+      <c r="V89" s="7"/>
+      <c r="W89" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X89" s="13"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5"/>
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>167</v>
+        <v>27</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
-      <c r="G90" s="4">
+      <c r="G90" s="4"/>
+      <c r="H90" s="4">
         <v>689</v>
       </c>
-      <c r="H90" s="4">
+      <c r="I90" s="4">
         <v>278</v>
       </c>
-      <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -5845,46 +5952,47 @@
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
-      <c r="S90" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T90" s="13">
-        <v>0</v>
-      </c>
-      <c r="U90" s="14"/>
-      <c r="V90" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="W90" s="12" t="s">
+      <c r="S90" s="4"/>
+      <c r="T90" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U90" s="14">
+        <v>0</v>
+      </c>
+      <c r="V90" s="15"/>
+      <c r="W90" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="X90" s="3"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
-      <c r="AA90" s="3"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="3"/>
-      <c r="AD90" s="3"/>
-      <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="1:31">
+      <c r="X90" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>168</v>
+        <v>27</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
-      <c r="G91" s="4">
+      <c r="G91" s="4"/>
+      <c r="H91" s="4">
         <v>738</v>
       </c>
-      <c r="H91" s="4">
+      <c r="I91" s="4">
         <v>229</v>
       </c>
-      <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
       <c r="L91" s="4"/>
@@ -5894,46 +6002,47 @@
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
-      <c r="S91" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T91" s="13">
-        <v>0</v>
-      </c>
-      <c r="U91" s="14"/>
-      <c r="V91" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="W91" s="12" t="s">
+      <c r="S91" s="4"/>
+      <c r="T91" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="U91" s="14">
+        <v>0</v>
+      </c>
+      <c r="V91" s="15"/>
+      <c r="W91" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="X91" s="3"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
-      <c r="AA91" s="3"/>
-      <c r="AB91" s="3"/>
-      <c r="AC91" s="3"/>
-      <c r="AD91" s="3"/>
-      <c r="AE91" s="3"/>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="X91" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y91" s="5"/>
+      <c r="Z91" s="5"/>
+      <c r="AA91" s="5"/>
+      <c r="AB91" s="5"/>
+      <c r="AC91" s="5"/>
+      <c r="AD91" s="5"/>
+      <c r="AE91" s="5"/>
+      <c r="AF91" s="5"/>
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>169</v>
+        <v>27</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
-      <c r="G92" s="4">
+      <c r="G92" s="4"/>
+      <c r="H92" s="4">
         <v>796</v>
       </c>
-      <c r="H92" s="4">
+      <c r="I92" s="4">
         <v>205</v>
       </c>
-      <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -5943,44 +6052,45 @@
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T92" s="5">
-        <v>0</v>
-      </c>
-      <c r="U92" s="6"/>
-      <c r="V92" s="7" t="s">
+      <c r="S92" s="4"/>
+      <c r="T92" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W92" s="12"/>
-      <c r="X92" s="3"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
-      <c r="AA92" s="3"/>
-      <c r="AB92" s="3"/>
-      <c r="AC92" s="3"/>
-      <c r="AD92" s="3"/>
-      <c r="AE92" s="3"/>
-    </row>
-    <row r="93" spans="1:31">
+      <c r="U92" s="6">
+        <v>0</v>
+      </c>
+      <c r="V92" s="7"/>
+      <c r="W92" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X92" s="13"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5"/>
+      <c r="AC92" s="5"/>
+      <c r="AD92" s="5"/>
+      <c r="AE92" s="5"/>
+      <c r="AF92" s="5"/>
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>170</v>
+        <v>27</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="G93" s="4">
+      <c r="G93" s="4"/>
+      <c r="H93" s="4">
         <v>865</v>
       </c>
-      <c r="H93" s="4">
+      <c r="I93" s="4">
         <v>205</v>
       </c>
-      <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -5990,44 +6100,45 @@
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
-      <c r="S93" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T93" s="5">
-        <v>0</v>
-      </c>
-      <c r="U93" s="6"/>
-      <c r="V93" s="7" t="s">
+      <c r="S93" s="4"/>
+      <c r="T93" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W93" s="12"/>
-      <c r="X93" s="3"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
-      <c r="AA93" s="3"/>
-      <c r="AB93" s="3"/>
-      <c r="AC93" s="3"/>
-      <c r="AD93" s="3"/>
-      <c r="AE93" s="3"/>
-    </row>
-    <row r="94" spans="1:31">
+      <c r="U93" s="6">
+        <v>0</v>
+      </c>
+      <c r="V93" s="7"/>
+      <c r="W93" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X93" s="13"/>
+      <c r="Y93" s="5"/>
+      <c r="Z93" s="5"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="5"/>
+      <c r="AF93" s="5"/>
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>171</v>
+        <v>27</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
-      <c r="G94" s="4">
+      <c r="G94" s="4"/>
+      <c r="H94" s="4">
         <v>1109</v>
       </c>
-      <c r="H94" s="4">
+      <c r="I94" s="4">
         <v>205</v>
       </c>
-      <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -6037,44 +6148,45 @@
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
-      <c r="S94" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T94" s="5">
-        <v>0</v>
-      </c>
-      <c r="U94" s="6"/>
-      <c r="V94" s="7" t="s">
+      <c r="S94" s="4"/>
+      <c r="T94" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W94" s="12"/>
-      <c r="X94" s="3"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
-      <c r="AA94" s="3"/>
-      <c r="AB94" s="3"/>
-      <c r="AC94" s="3"/>
-      <c r="AD94" s="3"/>
-      <c r="AE94" s="3"/>
-    </row>
-    <row r="95" spans="1:31">
+      <c r="U94" s="6">
+        <v>0</v>
+      </c>
+      <c r="V94" s="7"/>
+      <c r="W94" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X94" s="13"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
+      <c r="AA94" s="5"/>
+      <c r="AB94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="5"/>
+      <c r="AF94" s="5"/>
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>172</v>
+        <v>27</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4">
+      <c r="G95" s="4"/>
+      <c r="H95" s="4">
         <v>865</v>
       </c>
-      <c r="H95" s="4">
+      <c r="I95" s="4">
         <v>325</v>
       </c>
-      <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
       <c r="L95" s="4"/>
@@ -6084,44 +6196,45 @@
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
-      <c r="S95" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T95" s="5">
-        <v>0</v>
-      </c>
-      <c r="U95" s="6"/>
-      <c r="V95" s="7" t="s">
+      <c r="S95" s="4"/>
+      <c r="T95" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W95" s="12"/>
-      <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-      <c r="AA95" s="3"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="3"/>
-      <c r="AD95" s="3"/>
-      <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="1:31">
+      <c r="U95" s="6">
+        <v>0</v>
+      </c>
+      <c r="V95" s="7"/>
+      <c r="W95" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X95" s="13"/>
+      <c r="Y95" s="5"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5"/>
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="5"/>
+      <c r="AF95" s="5"/>
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>173</v>
+        <v>27</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
-      <c r="G96" s="4">
+      <c r="G96" s="4"/>
+      <c r="H96" s="4">
         <v>1109</v>
       </c>
-      <c r="H96" s="4">
+      <c r="I96" s="4">
         <v>325</v>
       </c>
-      <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -6131,44 +6244,45 @@
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
-      <c r="S96" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T96" s="5">
-        <v>0</v>
-      </c>
-      <c r="U96" s="6"/>
-      <c r="V96" s="7" t="s">
+      <c r="S96" s="4"/>
+      <c r="T96" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W96" s="12"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="3"/>
-      <c r="AD96" s="3"/>
-      <c r="AE96" s="3"/>
-    </row>
-    <row r="97" spans="1:31">
+      <c r="U96" s="6">
+        <v>0</v>
+      </c>
+      <c r="V96" s="7"/>
+      <c r="W96" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X96" s="13"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5"/>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>174</v>
+        <v>27</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
-      <c r="G97" s="4">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4">
         <v>865</v>
       </c>
-      <c r="H97" s="4">
+      <c r="I97" s="4">
         <v>385</v>
       </c>
-      <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
       <c r="L97" s="4"/>
@@ -6178,44 +6292,45 @@
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
-      <c r="S97" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T97" s="5">
-        <v>0</v>
-      </c>
-      <c r="U97" s="6"/>
-      <c r="V97" s="7" t="s">
+      <c r="S97" s="4"/>
+      <c r="T97" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W97" s="12"/>
-      <c r="X97" s="3"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
-      <c r="AA97" s="3"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="3"/>
-      <c r="AD97" s="3"/>
-      <c r="AE97" s="3"/>
-    </row>
-    <row r="98" spans="1:31">
+      <c r="U97" s="6">
+        <v>0</v>
+      </c>
+      <c r="V97" s="7"/>
+      <c r="W97" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X97" s="13"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5"/>
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>175</v>
+        <v>27</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
-      <c r="G98" s="4">
+      <c r="G98" s="4"/>
+      <c r="H98" s="4">
         <v>1109</v>
       </c>
-      <c r="H98" s="4">
+      <c r="I98" s="4">
         <v>385</v>
       </c>
-      <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -6225,44 +6340,45 @@
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
       <c r="R98" s="4"/>
-      <c r="S98" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T98" s="5">
-        <v>0</v>
-      </c>
-      <c r="U98" s="6"/>
-      <c r="V98" s="7" t="s">
+      <c r="S98" s="4"/>
+      <c r="T98" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W98" s="12"/>
-      <c r="X98" s="3"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
-      <c r="AA98" s="3"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="3"/>
-      <c r="AD98" s="3"/>
-      <c r="AE98" s="3"/>
-    </row>
-    <row r="99" spans="1:31">
+      <c r="U98" s="6">
+        <v>0</v>
+      </c>
+      <c r="V98" s="7"/>
+      <c r="W98" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X98" s="13"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>176</v>
+        <v>27</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="4">
+      <c r="G99" s="4"/>
+      <c r="H99" s="4">
         <v>1199</v>
       </c>
-      <c r="H99" s="4">
+      <c r="I99" s="4">
         <v>325</v>
       </c>
-      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -6272,44 +6388,45 @@
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
-      <c r="S99" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T99" s="5">
-        <v>0</v>
-      </c>
-      <c r="U99" s="6"/>
-      <c r="V99" s="7" t="s">
+      <c r="S99" s="4"/>
+      <c r="T99" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W99" s="12"/>
-      <c r="X99" s="3"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
-      <c r="AA99" s="3"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
-      <c r="AD99" s="3"/>
-      <c r="AE99" s="3"/>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="U99" s="6">
+        <v>0</v>
+      </c>
+      <c r="V99" s="7"/>
+      <c r="W99" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X99" s="13"/>
+      <c r="Y99" s="5"/>
+      <c r="Z99" s="5"/>
+      <c r="AA99" s="5"/>
+      <c r="AB99" s="5"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="5"/>
+      <c r="AE99" s="5"/>
+      <c r="AF99" s="5"/>
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>177</v>
+        <v>27</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="4">
+      <c r="G100" s="4"/>
+      <c r="H100" s="4">
         <v>1267</v>
       </c>
-      <c r="H100" s="4">
+      <c r="I100" s="4">
         <v>325</v>
       </c>
-      <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -6319,44 +6436,45 @@
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
       <c r="R100" s="4"/>
-      <c r="S100" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T100" s="5">
-        <v>0</v>
-      </c>
-      <c r="U100" s="6"/>
-      <c r="V100" s="7" t="s">
+      <c r="S100" s="4"/>
+      <c r="T100" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W100" s="12"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="3"/>
-      <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
-    </row>
-    <row r="101" spans="1:31">
+      <c r="U100" s="6">
+        <v>0</v>
+      </c>
+      <c r="V100" s="7"/>
+      <c r="W100" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X100" s="13"/>
+      <c r="Y100" s="5"/>
+      <c r="Z100" s="5"/>
+      <c r="AA100" s="5"/>
+      <c r="AB100" s="5"/>
+      <c r="AC100" s="5"/>
+      <c r="AD100" s="5"/>
+      <c r="AE100" s="5"/>
+      <c r="AF100" s="5"/>
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>178</v>
+        <v>27</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="4">
+      <c r="G101" s="4"/>
+      <c r="H101" s="4">
         <v>1257</v>
       </c>
-      <c r="H101" s="4">
+      <c r="I101" s="4">
         <v>385</v>
       </c>
-      <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
@@ -6366,44 +6484,45 @@
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
-      <c r="S101" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T101" s="5">
-        <v>0</v>
-      </c>
-      <c r="U101" s="6"/>
-      <c r="V101" s="7" t="s">
+      <c r="S101" s="4"/>
+      <c r="T101" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W101" s="12"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="3"/>
-      <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
-    </row>
-    <row r="102" spans="1:31">
+      <c r="U101" s="6">
+        <v>0</v>
+      </c>
+      <c r="V101" s="7"/>
+      <c r="W101" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X101" s="13"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>179</v>
+        <v>27</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="4">
+      <c r="G102" s="4"/>
+      <c r="H102" s="4">
         <v>1317</v>
       </c>
-      <c r="H102" s="4">
+      <c r="I102" s="4">
         <v>385</v>
       </c>
-      <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -6413,44 +6532,45 @@
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
-      <c r="S102" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T102" s="5">
-        <v>0</v>
-      </c>
-      <c r="U102" s="6"/>
-      <c r="V102" s="7" t="s">
+      <c r="S102" s="4"/>
+      <c r="T102" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W102" s="12"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="3"/>
-      <c r="Z102" s="3"/>
-      <c r="AA102" s="3"/>
-      <c r="AB102" s="3"/>
-      <c r="AC102" s="3"/>
-      <c r="AD102" s="3"/>
-      <c r="AE102" s="3"/>
-    </row>
-    <row r="103" spans="1:31">
+      <c r="U102" s="6">
+        <v>0</v>
+      </c>
+      <c r="V102" s="7"/>
+      <c r="W102" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X102" s="13"/>
+      <c r="Y102" s="5"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="5"/>
+      <c r="AF102" s="5"/>
+    </row>
+    <row r="103" spans="1:32">
       <c r="A103" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>180</v>
+        <v>27</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4">
+      <c r="G103" s="4"/>
+      <c r="H103" s="4">
         <v>1347</v>
       </c>
-      <c r="H103" s="4">
+      <c r="I103" s="4">
         <v>385</v>
       </c>
-      <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -6460,44 +6580,45 @@
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
-      <c r="S103" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T103" s="5">
-        <v>0</v>
-      </c>
-      <c r="U103" s="6"/>
-      <c r="V103" s="7" t="s">
+      <c r="S103" s="4"/>
+      <c r="T103" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W103" s="12"/>
-      <c r="X103" s="3"/>
-      <c r="Y103" s="3"/>
-      <c r="Z103" s="3"/>
-      <c r="AA103" s="3"/>
-      <c r="AB103" s="3"/>
-      <c r="AC103" s="3"/>
-      <c r="AD103" s="3"/>
-      <c r="AE103" s="3"/>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="U103" s="6">
+        <v>0</v>
+      </c>
+      <c r="V103" s="7"/>
+      <c r="W103" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X103" s="13"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="5"/>
+      <c r="AF103" s="5"/>
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>181</v>
+        <v>27</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="G104" s="4">
+      <c r="G104" s="4"/>
+      <c r="H104" s="4">
         <v>1377</v>
       </c>
-      <c r="H104" s="4">
+      <c r="I104" s="4">
         <v>385</v>
       </c>
-      <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -6507,44 +6628,45 @@
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
-      <c r="S104" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="T104" s="5">
-        <v>0</v>
-      </c>
-      <c r="U104" s="6"/>
-      <c r="V104" s="7" t="s">
+      <c r="S104" s="4"/>
+      <c r="T104" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="W104" s="12"/>
-      <c r="X104" s="3"/>
-      <c r="Y104" s="3"/>
-      <c r="Z104" s="3"/>
-      <c r="AA104" s="3"/>
-      <c r="AB104" s="3"/>
-      <c r="AC104" s="3"/>
-      <c r="AD104" s="3"/>
-      <c r="AE104" s="3"/>
-    </row>
-    <row r="105" spans="1:31">
+      <c r="U104" s="6">
+        <v>0</v>
+      </c>
+      <c r="V104" s="7"/>
+      <c r="W104" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="X104" s="13"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>182</v>
+        <v>27</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="4">
+      <c r="G105" s="4"/>
+      <c r="H105" s="4">
         <v>152</v>
       </c>
-      <c r="H105" s="4">
+      <c r="I105" s="4">
         <v>45</v>
       </c>
-      <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
@@ -6554,44 +6676,45 @@
       <c r="P105" s="4"/>
       <c r="Q105" s="4"/>
       <c r="R105" s="4"/>
-      <c r="S105" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T105" s="13">
-        <v>0</v>
-      </c>
-      <c r="U105" s="14"/>
-      <c r="V105" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="W105" s="12"/>
-      <c r="X105" s="3"/>
-      <c r="Y105" s="3"/>
-      <c r="Z105" s="3"/>
-      <c r="AA105" s="3"/>
-      <c r="AB105" s="3"/>
-      <c r="AC105" s="3"/>
-      <c r="AD105" s="3"/>
-      <c r="AE105" s="3"/>
-    </row>
-    <row r="106" spans="1:31">
+      <c r="S105" s="4"/>
+      <c r="T105" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U105" s="14">
+        <v>0</v>
+      </c>
+      <c r="V105" s="15"/>
+      <c r="W105" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X105" s="13"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>183</v>
+        <v>27</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4">
+      <c r="G106" s="4"/>
+      <c r="H106" s="4">
         <v>200</v>
       </c>
-      <c r="H106" s="4">
+      <c r="I106" s="4">
         <v>45</v>
       </c>
-      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -6601,44 +6724,45 @@
       <c r="P106" s="4"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
-      <c r="S106" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T106" s="13">
-        <v>0</v>
-      </c>
-      <c r="U106" s="14"/>
-      <c r="V106" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="W106" s="12"/>
-      <c r="X106" s="3"/>
-      <c r="Y106" s="3"/>
-      <c r="Z106" s="3"/>
-      <c r="AA106" s="3"/>
-      <c r="AB106" s="3"/>
-      <c r="AC106" s="3"/>
-      <c r="AD106" s="3"/>
-      <c r="AE106" s="3"/>
-    </row>
-    <row r="107" spans="1:31">
+      <c r="S106" s="4"/>
+      <c r="T106" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U106" s="14">
+        <v>0</v>
+      </c>
+      <c r="V106" s="15"/>
+      <c r="W106" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X106" s="13"/>
+      <c r="Y106" s="5"/>
+      <c r="Z106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="5"/>
+      <c r="AF106" s="5"/>
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>184</v>
+        <v>27</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="4">
+      <c r="G107" s="4"/>
+      <c r="H107" s="4">
         <v>696</v>
       </c>
-      <c r="H107" s="4">
+      <c r="I107" s="4">
         <v>567</v>
       </c>
-      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
@@ -6648,44 +6772,45 @@
       <c r="P107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
-      <c r="S107" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T107" s="13">
-        <v>0</v>
-      </c>
-      <c r="U107" s="14"/>
-      <c r="V107" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="W107" s="12"/>
-      <c r="X107" s="3"/>
-      <c r="Y107" s="3"/>
-      <c r="Z107" s="3"/>
-      <c r="AA107" s="3"/>
-      <c r="AB107" s="3"/>
-      <c r="AC107" s="3"/>
-      <c r="AD107" s="3"/>
-      <c r="AE107" s="3"/>
-    </row>
-    <row r="108" spans="1:31">
+      <c r="S107" s="4"/>
+      <c r="T107" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U107" s="14">
+        <v>0</v>
+      </c>
+      <c r="V107" s="15"/>
+      <c r="W107" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="5"/>
+      <c r="Z107" s="5"/>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="5"/>
+      <c r="AC107" s="5"/>
+      <c r="AD107" s="5"/>
+      <c r="AE107" s="5"/>
+      <c r="AF107" s="5"/>
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>185</v>
+        <v>27</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4">
+      <c r="G108" s="4"/>
+      <c r="H108" s="4">
         <v>734</v>
       </c>
-      <c r="H108" s="4">
+      <c r="I108" s="4">
         <v>567</v>
       </c>
-      <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -6695,44 +6820,45 @@
       <c r="P108" s="4"/>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
-      <c r="S108" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T108" s="13">
-        <v>0</v>
-      </c>
-      <c r="U108" s="14"/>
-      <c r="V108" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="W108" s="9"/>
-      <c r="X108" s="3"/>
-      <c r="Y108" s="3"/>
-      <c r="Z108" s="3"/>
-      <c r="AA108" s="3"/>
-      <c r="AB108" s="3"/>
-      <c r="AC108" s="3"/>
-      <c r="AD108" s="3"/>
-      <c r="AE108" s="3"/>
-    </row>
-    <row r="109" spans="1:31">
+      <c r="S108" s="4"/>
+      <c r="T108" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="U108" s="14">
+        <v>0</v>
+      </c>
+      <c r="V108" s="15"/>
+      <c r="W108" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="5"/>
+      <c r="Z108" s="5"/>
+      <c r="AA108" s="5"/>
+      <c r="AB108" s="5"/>
+      <c r="AC108" s="5"/>
+      <c r="AD108" s="5"/>
+      <c r="AE108" s="5"/>
+      <c r="AF108" s="5"/>
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B109" s="11" t="s">
         <v>187</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="4">
+      <c r="G109" s="4"/>
+      <c r="H109" s="4">
         <v>112</v>
       </c>
-      <c r="H109" s="4">
+      <c r="I109" s="4">
         <v>201</v>
       </c>
-      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -6741,43 +6867,44 @@
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
       <c r="Q109" s="4"/>
-      <c r="R109" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="S109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
-      <c r="V109" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="W109" s="12"/>
-      <c r="X109" s="3"/>
-      <c r="Y109" s="3"/>
-      <c r="Z109" s="3"/>
-      <c r="AA109" s="3"/>
-      <c r="AB109" s="3"/>
-      <c r="AC109" s="3"/>
-      <c r="AD109" s="3"/>
-      <c r="AE109" s="3"/>
-    </row>
-    <row r="110" spans="1:31">
+      <c r="V109" s="4"/>
+      <c r="W109" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X109" s="13"/>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
+      <c r="AA109" s="5"/>
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="5"/>
+      <c r="AE109" s="5"/>
+      <c r="AF109" s="5"/>
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4">
+      <c r="G110" s="4"/>
+      <c r="H110" s="4">
         <v>112</v>
       </c>
-      <c r="H110" s="4">
+      <c r="I110" s="4">
         <v>247</v>
       </c>
-      <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -6786,43 +6913,44 @@
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
       <c r="Q110" s="4"/>
-      <c r="R110" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="S110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="12" t="s">
+        <v>190</v>
+      </c>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
-      <c r="V110" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="W110" s="12"/>
-      <c r="X110" s="3"/>
-      <c r="Y110" s="3"/>
-      <c r="Z110" s="3"/>
-      <c r="AA110" s="3"/>
-      <c r="AB110" s="3"/>
-      <c r="AC110" s="3"/>
-      <c r="AD110" s="3"/>
-      <c r="AE110" s="3"/>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="V110" s="4"/>
+      <c r="W110" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X110" s="13"/>
+      <c r="Y110" s="5"/>
+      <c r="Z110" s="5"/>
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
+      <c r="AE110" s="5"/>
+      <c r="AF110" s="5"/>
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="4">
+      <c r="G111" s="4"/>
+      <c r="H111" s="4">
         <v>262</v>
       </c>
-      <c r="H111" s="4">
+      <c r="I111" s="4">
         <v>201</v>
       </c>
-      <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
@@ -6831,43 +6959,44 @@
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
       <c r="Q111" s="4"/>
-      <c r="R111" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="S111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="12" t="s">
+        <v>191</v>
+      </c>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
-      <c r="V111" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="W111" s="12"/>
-      <c r="X111" s="3"/>
-      <c r="Y111" s="3"/>
-      <c r="Z111" s="3"/>
-      <c r="AA111" s="3"/>
-      <c r="AB111" s="3"/>
-      <c r="AC111" s="3"/>
-      <c r="AD111" s="3"/>
-      <c r="AE111" s="3"/>
-    </row>
-    <row r="112" spans="1:31">
+      <c r="V111" s="4"/>
+      <c r="W111" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X111" s="13"/>
+      <c r="Y111" s="5"/>
+      <c r="Z111" s="5"/>
+      <c r="AA111" s="5"/>
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
+      <c r="AE111" s="5"/>
+      <c r="AF111" s="5"/>
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="4">
+      <c r="G112" s="4"/>
+      <c r="H112" s="4">
         <v>412</v>
       </c>
-      <c r="H112" s="4">
+      <c r="I112" s="4">
         <v>201</v>
       </c>
-      <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -6876,43 +7005,44 @@
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
-      <c r="R112" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="S112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="12" t="s">
+        <v>192</v>
+      </c>
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
-      <c r="V112" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="W112" s="12"/>
-      <c r="X112" s="3"/>
-      <c r="Y112" s="3"/>
-      <c r="Z112" s="3"/>
-      <c r="AA112" s="3"/>
-      <c r="AB112" s="3"/>
-      <c r="AC112" s="3"/>
-      <c r="AD112" s="3"/>
-      <c r="AE112" s="3"/>
-    </row>
-    <row r="113" spans="1:31">
+      <c r="V112" s="4"/>
+      <c r="W112" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X112" s="13"/>
+      <c r="Y112" s="5"/>
+      <c r="Z112" s="5"/>
+      <c r="AA112" s="5"/>
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
+      <c r="AE112" s="5"/>
+      <c r="AF112" s="5"/>
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4">
+      <c r="G113" s="4"/>
+      <c r="H113" s="4">
         <v>927</v>
       </c>
-      <c r="H113" s="4">
+      <c r="I113" s="4">
         <v>194</v>
       </c>
-      <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -6921,43 +7051,44 @@
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
-      <c r="R113" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="S113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="12" t="s">
+        <v>193</v>
+      </c>
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
-      <c r="V113" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="W113" s="12"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
-      <c r="Z113" s="3"/>
-      <c r="AA113" s="3"/>
-      <c r="AB113" s="3"/>
-      <c r="AC113" s="3"/>
-      <c r="AD113" s="3"/>
-      <c r="AE113" s="3"/>
-    </row>
-    <row r="114" spans="1:31">
+      <c r="V113" s="4"/>
+      <c r="W113" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X113" s="13"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
+      <c r="AA113" s="5"/>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="5"/>
+      <c r="AF113" s="5"/>
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="4">
+      <c r="G114" s="4"/>
+      <c r="H114" s="4">
         <v>927</v>
       </c>
-      <c r="H114" s="4">
+      <c r="I114" s="4">
         <v>314</v>
       </c>
-      <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -6966,43 +7097,44 @@
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
       <c r="Q114" s="4"/>
-      <c r="R114" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="S114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="12" t="s">
+        <v>194</v>
+      </c>
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
-      <c r="V114" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="W114" s="12"/>
-      <c r="X114" s="3"/>
-      <c r="Y114" s="3"/>
-      <c r="Z114" s="3"/>
-      <c r="AA114" s="3"/>
-      <c r="AB114" s="3"/>
-      <c r="AC114" s="3"/>
-      <c r="AD114" s="3"/>
-      <c r="AE114" s="3"/>
-    </row>
-    <row r="115" spans="1:31">
+      <c r="V114" s="4"/>
+      <c r="W114" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X114" s="13"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="5"/>
+      <c r="AF114" s="5"/>
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="4">
+      <c r="G115" s="4"/>
+      <c r="H115" s="4">
         <v>927</v>
       </c>
-      <c r="H115" s="4">
+      <c r="I115" s="4">
         <v>374</v>
       </c>
-      <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
@@ -7011,43 +7143,44 @@
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
-      <c r="R115" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="S115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="12" t="s">
+        <v>195</v>
+      </c>
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
-      <c r="V115" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="W115" s="12"/>
-      <c r="X115" s="3"/>
-      <c r="Y115" s="3"/>
-      <c r="Z115" s="3"/>
-      <c r="AA115" s="3"/>
-      <c r="AB115" s="3"/>
-      <c r="AC115" s="3"/>
-      <c r="AD115" s="3"/>
-      <c r="AE115" s="3"/>
-    </row>
-    <row r="116" spans="1:31">
+      <c r="V115" s="4"/>
+      <c r="W115" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X115" s="13"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="5"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="5"/>
+      <c r="AE115" s="5"/>
+      <c r="AF115" s="5"/>
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B116" s="11" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="G116" s="4">
+      <c r="G116" s="4"/>
+      <c r="H116" s="4">
         <v>1135</v>
       </c>
-      <c r="H116" s="4">
+      <c r="I116" s="4">
         <v>441</v>
       </c>
-      <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -7056,43 +7189,44 @@
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
       <c r="Q116" s="4"/>
-      <c r="R116" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="S116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
-      <c r="V116" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="W116" s="12"/>
-      <c r="X116" s="3"/>
-      <c r="Y116" s="3"/>
-      <c r="Z116" s="3"/>
-      <c r="AA116" s="3"/>
-      <c r="AB116" s="3"/>
-      <c r="AC116" s="3"/>
-      <c r="AD116" s="3"/>
-      <c r="AE116" s="3"/>
-    </row>
-    <row r="117" spans="1:31">
+      <c r="V116" s="4"/>
+      <c r="W116" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X116" s="13"/>
+      <c r="Y116" s="5"/>
+      <c r="Z116" s="5"/>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+      <c r="AE116" s="5"/>
+      <c r="AF116" s="5"/>
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>196</v>
+        <v>187</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="G117" s="4">
+      <c r="G117" s="4"/>
+      <c r="H117" s="4">
         <v>1285</v>
       </c>
-      <c r="H117" s="4">
+      <c r="I117" s="4">
         <v>441</v>
       </c>
-      <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
@@ -7101,26 +7235,27 @@
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
-      <c r="R117" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="S117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="12" t="s">
+        <v>197</v>
+      </c>
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
-      <c r="V117" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="W117" s="12"/>
-      <c r="X117" s="3"/>
-      <c r="Y117" s="3"/>
-      <c r="Z117" s="3"/>
-      <c r="AA117" s="3"/>
-      <c r="AB117" s="3"/>
-      <c r="AC117" s="3"/>
-      <c r="AD117" s="3"/>
-      <c r="AE117" s="3"/>
-    </row>
-    <row r="118" spans="1:31">
+      <c r="V117" s="4"/>
+      <c r="W117" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="X117" s="13"/>
+      <c r="Y117" s="5"/>
+      <c r="Z117" s="5"/>
+      <c r="AA117" s="5"/>
+      <c r="AB117" s="5"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="5"/>
+      <c r="AE117" s="5"/>
+      <c r="AF117" s="5"/>
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7142,18 +7277,19 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
-      <c r="V118" s="3"/>
-      <c r="W118" s="3"/>
-      <c r="X118" s="3"/>
-      <c r="Y118" s="3"/>
-      <c r="Z118" s="3"/>
-      <c r="AA118" s="3"/>
-      <c r="AB118" s="3"/>
-      <c r="AC118" s="3"/>
-      <c r="AD118" s="3"/>
-      <c r="AE118" s="3"/>
-    </row>
-    <row r="119" spans="1:31">
+      <c r="V118" s="4"/>
+      <c r="W118" s="5"/>
+      <c r="X118" s="5"/>
+      <c r="Y118" s="5"/>
+      <c r="Z118" s="5"/>
+      <c r="AA118" s="5"/>
+      <c r="AB118" s="5"/>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="5"/>
+      <c r="AF118" s="5"/>
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7175,18 +7311,19 @@
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
-      <c r="V119" s="3"/>
-      <c r="W119" s="3"/>
-      <c r="X119" s="3"/>
-      <c r="Y119" s="3"/>
-      <c r="Z119" s="3"/>
-      <c r="AA119" s="3"/>
-      <c r="AB119" s="3"/>
-      <c r="AC119" s="3"/>
-      <c r="AD119" s="3"/>
-      <c r="AE119" s="3"/>
-    </row>
-    <row r="120" spans="1:31">
+      <c r="V119" s="4"/>
+      <c r="W119" s="5"/>
+      <c r="X119" s="5"/>
+      <c r="Y119" s="5"/>
+      <c r="Z119" s="5"/>
+      <c r="AA119" s="5"/>
+      <c r="AB119" s="5"/>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="5"/>
+      <c r="AE119" s="5"/>
+      <c r="AF119" s="5"/>
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7208,16 +7345,17 @@
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
-      <c r="V120" s="3"/>
-      <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="3"/>
-      <c r="Z120" s="3"/>
-      <c r="AA120" s="3"/>
-      <c r="AB120" s="3"/>
-      <c r="AC120" s="3"/>
-      <c r="AD120" s="3"/>
-      <c r="AE120" s="3"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="5"/>
+      <c r="X120" s="5"/>
+      <c r="Y120" s="5"/>
+      <c r="Z120" s="5"/>
+      <c r="AA120" s="5"/>
+      <c r="AB120" s="5"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="5"/>
+      <c r="AE120" s="5"/>
+      <c r="AF120" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -7250,53 +7388,53 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
-        <v>197</v>
+      <c r="A1" s="17" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
-        <v>198</v>
+      <c r="A2" s="17" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
-        <v>41</v>
+      <c r="A3" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="16" t="s">
-        <v>26</v>
+      <c r="A4" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
-        <v>23</v>
+      <c r="A5" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
-        <v>29</v>
+      <c r="A6" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
-        <v>35</v>
+      <c r="A7" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="16" t="s">
-        <v>102</v>
+      <c r="A8" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
-        <v>70</v>
+      <c r="A9" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
-        <v>186</v>
+      <c r="A10" s="17" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439B4611-A00C-462A-83EF-4FF440B84EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37F52A0-3AB7-48D6-95C9-07AE33C2737B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3960" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6660" yWindow="4350" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH61_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="208">
   <si>
     <t>Type</t>
   </si>
@@ -593,27 +593,36 @@
     <t>方向てこ</t>
   </si>
   <si>
+    <t>解放98</t>
+  </si>
+  <si>
+    <t>高見沢駅</t>
+  </si>
+  <si>
+    <t>解放99</t>
+  </si>
+  <si>
+    <t>-1,1</t>
+  </si>
+  <si>
+    <t>Image/Lever/LeverBase_LR.png</t>
+  </si>
+  <si>
+    <t>Image/Lever/Lever_White_L.png,Image/Lever/Lever_White_R.png</t>
+  </si>
+  <si>
+    <t>1Lは方向てこ　白LR</t>
+  </si>
+  <si>
+    <t>TextBlock</t>
+  </si>
+  <si>
+    <t>1L_Label</t>
+  </si>
+  <si>
     <t>駅扱切換</t>
   </si>
   <si>
-    <t>-1,1</t>
-  </si>
-  <si>
-    <t>Image/Lever/LeverBase_LR.png</t>
-  </si>
-  <si>
-    <t>Image/Lever/Lever_White_L.png,Image/Lever/Lever_White_R.png</t>
-  </si>
-  <si>
-    <t>1Lは方向てこ　白LR</t>
-  </si>
-  <si>
-    <t>TextBlock</t>
-  </si>
-  <si>
-    <t>1L_Label</t>
-  </si>
-  <si>
     <t>Transparent</t>
   </si>
   <si>
@@ -767,9 +776,6 @@
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
-    <t>Y,Gは灯色</t>
-  </si>
-  <si>
     <t>P21_PY</t>
   </si>
   <si>
@@ -792,9 +798,6 @@
   </si>
   <si>
     <t>KeyImage</t>
-  </si>
-  <si>
-    <t>解放98</t>
   </si>
   <si>
     <t>方向てこ解放</t>
@@ -1192,12 +1195,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1766,11 +1769,15 @@
       <c r="G6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="I6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="K6" s="4">
         <v>368</v>
       </c>
@@ -1790,19 +1797,19 @@
         <v>41</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X6" s="6">
         <v>-1</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="AA6" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
@@ -1815,23 +1822,23 @@
     </row>
     <row r="7" spans="1:35" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="H7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="6">
         <v>14</v>
       </c>
@@ -1854,12 +1861,12 @@
         <v>10</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>41</v>
       </c>
       <c r="W7" s="4"/>
@@ -1880,19 +1887,19 @@
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>52</v>
+      <c r="B8" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="H8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="4">
         <v>433</v>
       </c>
@@ -1908,23 +1915,23 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="12" t="s">
-        <v>52</v>
+      <c r="V8" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X8" s="6">
         <v>0</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA8" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -1939,8 +1946,8 @@
       <c r="A9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>57</v>
+      <c r="B9" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1969,17 +1976,17 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X9" s="6">
         <v>0</v>
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA9" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
@@ -1994,8 +2001,8 @@
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>60</v>
+      <c r="B10" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2024,14 +2031,14 @@
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X10" s="6">
         <v>0</v>
       </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA10" s="13"/>
       <c r="AB10" s="5"/>
@@ -2045,20 +2052,20 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2084,13 +2091,13 @@
         <v>10</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -2110,19 +2117,19 @@
       <c r="A12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>62</v>
+      <c r="B12" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="H12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="4">
         <v>825</v>
       </c>
@@ -2138,20 +2145,20 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="12" t="s">
-        <v>62</v>
+      <c r="V12" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="X12" s="6">
         <v>0</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AA12" s="13"/>
       <c r="AB12" s="5"/>
@@ -2167,8 +2174,8 @@
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>66</v>
+      <c r="B13" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2197,14 +2204,14 @@
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X13" s="6">
         <v>0</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA13" s="13"/>
       <c r="AB13" s="5"/>
@@ -2218,20 +2225,20 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2257,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -2283,19 +2290,19 @@
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>68</v>
+      <c r="B15" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="H15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="4">
         <v>825</v>
       </c>
@@ -2311,20 +2318,20 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="12" t="s">
+      <c r="V15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z15" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="AA15" s="13"/>
       <c r="AB15" s="5"/>
@@ -2340,8 +2347,8 @@
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>69</v>
+      <c r="B16" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2370,14 +2377,14 @@
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X16" s="6">
         <v>0</v>
       </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA16" s="13"/>
       <c r="AB16" s="5"/>
@@ -2391,20 +2398,20 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -2430,13 +2437,13 @@
         <v>10</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
@@ -2457,7 +2464,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2465,7 +2472,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2485,19 +2492,19 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X18" s="6">
         <v>0</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z18" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA18" s="13"/>
       <c r="AB18" s="5"/>
@@ -2513,8 +2520,8 @@
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>72</v>
+      <c r="B19" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2543,14 +2550,14 @@
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X19" s="6">
         <v>0</v>
       </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA19" s="13"/>
       <c r="AB19" s="5"/>
@@ -2564,23 +2571,23 @@
     </row>
     <row r="20" spans="1:35" ht="16.5">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="11"/>
+      <c r="D20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="H20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="6">
         <v>14</v>
       </c>
@@ -2603,13 +2610,13 @@
         <v>10</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
@@ -2629,19 +2636,19 @@
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>74</v>
+      <c r="B21" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="H21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="4">
         <v>1179</v>
       </c>
@@ -2657,20 +2664,20 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="12" t="s">
-        <v>74</v>
+      <c r="V21" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="X21" s="6">
         <v>0</v>
       </c>
       <c r="Y21" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Z21" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AA21" s="13"/>
       <c r="AB21" s="5"/>
@@ -2686,8 +2693,8 @@
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>75</v>
+      <c r="B22" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2716,14 +2723,14 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X22" s="6">
         <v>0</v>
       </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA22" s="13"/>
       <c r="AB22" s="5"/>
@@ -2737,20 +2744,20 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -2776,13 +2783,13 @@
         <v>10</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
@@ -2800,10 +2807,10 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2811,7 +2818,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2831,19 +2838,19 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X24" s="6">
         <v>0</v>
       </c>
       <c r="Y24" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Z24" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AA24" s="13"/>
       <c r="AB24" s="5"/>
@@ -2857,23 +2864,23 @@
     </row>
     <row r="25" spans="1:35" ht="16.5">
       <c r="A25" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="H25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="6">
         <v>5</v>
       </c>
@@ -2889,20 +2896,20 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="11" t="s">
-        <v>78</v>
+      <c r="R25" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="S25" s="6">
         <v>10</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V25" s="11" t="s">
-        <v>78</v>
+        <v>54</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
@@ -2920,10 +2927,10 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2931,7 +2938,7 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2951,19 +2958,19 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="W26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="X26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="Z26" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AA26" s="13"/>
       <c r="AB26" s="5"/>
@@ -2977,23 +2984,23 @@
     </row>
     <row r="27" spans="1:35" ht="16.5">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="11"/>
+      <c r="D27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="12"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="H27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="6">
         <v>5</v>
       </c>
@@ -3009,20 +3016,20 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="11" t="s">
-        <v>82</v>
+      <c r="R27" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="S27" s="6">
         <v>10</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="V27" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
@@ -3040,10 +3047,10 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3051,7 +3058,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -3071,19 +3078,19 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X28" s="6">
         <v>0</v>
       </c>
       <c r="Y28" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Z28" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AA28" s="13"/>
       <c r="AB28" s="5"/>
@@ -3097,23 +3104,23 @@
     </row>
     <row r="29" spans="1:35" ht="16.5">
       <c r="A29" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="11"/>
+      <c r="D29" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="H29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="6">
         <v>5</v>
       </c>
@@ -3129,20 +3136,20 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="11" t="s">
-        <v>84</v>
+      <c r="R29" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="S29" s="6">
         <v>10</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V29" s="11" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
@@ -3160,10 +3167,10 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -3171,7 +3178,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -3191,19 +3198,19 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W30" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X30" s="6">
         <v>0</v>
       </c>
       <c r="Y30" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Z30" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AA30" s="13"/>
       <c r="AB30" s="5"/>
@@ -3217,23 +3224,23 @@
     </row>
     <row r="31" spans="1:35" ht="16.5">
       <c r="A31" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="11"/>
+      <c r="D31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="12"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="H31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="6">
         <v>5</v>
       </c>
@@ -3249,20 +3256,20 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="11" t="s">
-        <v>86</v>
+      <c r="R31" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="S31" s="6">
         <v>10</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V31" s="11" t="s">
-        <v>86</v>
+        <v>54</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
@@ -3280,10 +3287,10 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3291,7 +3298,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -3311,19 +3318,19 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W32" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X32" s="6">
         <v>0</v>
       </c>
       <c r="Y32" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Z32" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AA32" s="13"/>
       <c r="AB32" s="5"/>
@@ -3337,23 +3344,23 @@
     </row>
     <row r="33" spans="1:35" ht="16.5">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="11"/>
+      <c r="D33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="12"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="H33" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="6">
         <v>5</v>
       </c>
@@ -3369,20 +3376,20 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="11" t="s">
-        <v>88</v>
+      <c r="R33" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="S33" s="6">
         <v>10</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V33" s="11" t="s">
-        <v>88</v>
+        <v>54</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
@@ -3400,21 +3407,21 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="H34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
       <c r="K34" s="4">
         <v>304</v>
       </c>
@@ -3430,20 +3437,20 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="12" t="s">
-        <v>90</v>
+      <c r="V34" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="W34" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X34" s="14">
         <v>0</v>
       </c>
       <c r="Y34" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Z34" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA34" s="13"/>
       <c r="AB34" s="5"/>
@@ -3457,21 +3464,21 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="H35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="4">
         <v>1111</v>
       </c>
@@ -3487,20 +3494,20 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="12" t="s">
-        <v>93</v>
+      <c r="V35" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="W35" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X35" s="14">
         <v>0</v>
       </c>
       <c r="Y35" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Z35" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AA35" s="13"/>
       <c r="AB35" s="5"/>
@@ -3517,7 +3524,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -3525,7 +3532,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -3545,22 +3552,22 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="W36" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X36" s="6">
         <v>0</v>
       </c>
       <c r="Y36" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Z36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA36" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="AA36" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
@@ -3575,8 +3582,8 @@
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>99</v>
+      <c r="B37" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -3605,18 +3612,16 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X37" s="6">
         <v>0</v>
       </c>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA37" s="10" t="s">
-        <v>101</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AA37" s="11"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
@@ -3630,8 +3635,8 @@
       <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>102</v>
+      <c r="B38" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -3660,14 +3665,14 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X38" s="6">
         <v>0</v>
       </c>
       <c r="Y38" s="7"/>
       <c r="Z38" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AA38" s="13"/>
       <c r="AB38" s="5"/>
@@ -3681,23 +3686,23 @@
     </row>
     <row r="39" spans="1:35" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="11"/>
+      <c r="D39" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="12"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
+      <c r="H39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
       <c r="K39" s="6">
         <v>14</v>
       </c>
@@ -3720,13 +3725,13 @@
         <v>10</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V39" s="11" t="s">
-        <v>94</v>
+        <v>54</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
@@ -3747,7 +3752,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3755,7 +3760,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -3775,19 +3780,19 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="W40" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="X40" s="6">
         <v>0</v>
       </c>
       <c r="Y40" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Z40" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AA40" s="13"/>
       <c r="AB40" s="5"/>
@@ -3803,8 +3808,8 @@
       <c r="A41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>106</v>
+      <c r="B41" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -3833,14 +3838,14 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X41" s="6">
         <v>0</v>
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AA41" s="13"/>
       <c r="AB41" s="5"/>
@@ -3856,8 +3861,8 @@
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>107</v>
+      <c r="B42" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -3886,14 +3891,14 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X42" s="6">
         <v>0</v>
       </c>
       <c r="Y42" s="7"/>
       <c r="Z42" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AA42" s="13"/>
       <c r="AB42" s="5"/>
@@ -3907,23 +3912,23 @@
     </row>
     <row r="43" spans="1:35" ht="16.5">
       <c r="A43" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="11"/>
+      <c r="D43" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="12"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="H43" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
       <c r="K43" s="6">
         <v>14</v>
       </c>
@@ -3946,13 +3951,13 @@
         <v>10</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>105</v>
+        <v>54</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
@@ -3970,17 +3975,17 @@
     </row>
     <row r="44" spans="1:35" ht="25.5">
       <c r="A44" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -4001,22 +4006,22 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="9" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="W44" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X44" s="6">
         <v>0</v>
       </c>
       <c r="Y44" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Z44" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA44" s="10" t="s">
         <v>114</v>
+      </c>
+      <c r="AA44" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -4031,8 +4036,8 @@
       <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>115</v>
+      <c r="B45" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -4059,14 +4064,14 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X45" s="6">
         <v>0</v>
       </c>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AA45" s="13"/>
       <c r="AB45" s="5"/>
@@ -4080,17 +4085,17 @@
     </row>
     <row r="46" spans="1:35" ht="25.5">
       <c r="A46" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>43</v>
+        <v>111</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -4111,22 +4116,22 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="W46" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X46" s="6">
         <v>1</v>
       </c>
       <c r="Y46" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z46" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA46" s="10" t="s">
         <v>118</v>
+      </c>
+      <c r="AA46" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
@@ -4141,8 +4146,8 @@
       <c r="A47" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>119</v>
+      <c r="B47" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -4169,14 +4174,14 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X47" s="6">
         <v>0</v>
       </c>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AA47" s="13"/>
       <c r="AB47" s="5"/>
@@ -4192,8 +4197,8 @@
       <c r="A48" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>120</v>
+      <c r="B48" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -4220,14 +4225,14 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X48" s="6">
         <v>0</v>
       </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AA48" s="13"/>
       <c r="AB48" s="5"/>
@@ -4244,7 +4249,7 @@
         <v>31</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -4271,17 +4276,17 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X49" s="6">
         <v>0</v>
       </c>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA49" s="13" t="s">
         <v>124</v>
+      </c>
+      <c r="AA49" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
@@ -4297,7 +4302,7 @@
         <v>31</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -4324,14 +4329,14 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
       <c r="W50" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X50" s="6">
         <v>0</v>
       </c>
       <c r="Y50" s="7"/>
       <c r="Z50" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA50" s="13"/>
       <c r="AB50" s="5"/>
@@ -4348,7 +4353,7 @@
         <v>31</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -4375,14 +4380,14 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X51" s="6">
         <v>0</v>
       </c>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA51" s="13"/>
       <c r="AB51" s="5"/>
@@ -4399,7 +4404,7 @@
         <v>31</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -4426,17 +4431,17 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X52" s="14">
         <v>0</v>
       </c>
       <c r="Y52" s="15"/>
       <c r="Z52" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA52" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
@@ -4452,7 +4457,7 @@
         <v>31</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -4479,14 +4484,14 @@
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
       <c r="W53" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X53" s="6">
         <v>0</v>
       </c>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA53" s="13"/>
       <c r="AB53" s="5"/>
@@ -4503,7 +4508,7 @@
         <v>31</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -4530,14 +4535,14 @@
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
       <c r="W54" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X54" s="6">
         <v>0</v>
       </c>
       <c r="Y54" s="7"/>
       <c r="Z54" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA54" s="13"/>
       <c r="AB54" s="5"/>
@@ -4554,7 +4559,7 @@
         <v>31</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4581,14 +4586,14 @@
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
       <c r="W55" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X55" s="6">
         <v>0</v>
       </c>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA55" s="13"/>
       <c r="AB55" s="5"/>
@@ -4605,7 +4610,7 @@
         <v>31</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -4632,14 +4637,14 @@
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X56" s="6">
         <v>0</v>
       </c>
       <c r="Y56" s="7"/>
       <c r="Z56" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA56" s="13"/>
       <c r="AB56" s="5"/>
@@ -4656,7 +4661,7 @@
         <v>31</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -4683,14 +4688,14 @@
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X57" s="6">
         <v>0</v>
       </c>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA57" s="13"/>
       <c r="AB57" s="5"/>
@@ -4707,7 +4712,7 @@
         <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -4734,14 +4739,14 @@
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X58" s="6">
         <v>0</v>
       </c>
       <c r="Y58" s="7"/>
       <c r="Z58" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA58" s="13"/>
       <c r="AB58" s="5"/>
@@ -4758,7 +4763,7 @@
         <v>31</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -4785,14 +4790,14 @@
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X59" s="6">
         <v>0</v>
       </c>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA59" s="13"/>
       <c r="AB59" s="5"/>
@@ -4809,7 +4814,7 @@
         <v>31</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -4836,14 +4841,14 @@
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
       <c r="W60" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X60" s="6">
         <v>0</v>
       </c>
       <c r="Y60" s="7"/>
       <c r="Z60" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA60" s="13"/>
       <c r="AB60" s="5"/>
@@ -4860,7 +4865,7 @@
         <v>31</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -4887,14 +4892,14 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X61" s="6">
         <v>0</v>
       </c>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA61" s="13"/>
       <c r="AB61" s="5"/>
@@ -4911,7 +4916,7 @@
         <v>31</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -4938,14 +4943,14 @@
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
       <c r="W62" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X62" s="6">
         <v>0</v>
       </c>
       <c r="Y62" s="7"/>
       <c r="Z62" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA62" s="13"/>
       <c r="AB62" s="5"/>
@@ -4962,7 +4967,7 @@
         <v>31</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -4989,17 +4994,17 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X63" s="14">
         <v>0</v>
       </c>
       <c r="Y63" s="15"/>
       <c r="Z63" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA63" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
@@ -5015,7 +5020,7 @@
         <v>31</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -5042,14 +5047,14 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X64" s="6">
         <v>0</v>
       </c>
       <c r="Y64" s="7"/>
       <c r="Z64" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA64" s="13"/>
       <c r="AB64" s="5"/>
@@ -5066,7 +5071,7 @@
         <v>31</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -5093,14 +5098,14 @@
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X65" s="6">
         <v>0</v>
       </c>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA65" s="13"/>
       <c r="AB65" s="5"/>
@@ -5117,7 +5122,7 @@
         <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -5144,14 +5149,14 @@
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X66" s="6">
         <v>0</v>
       </c>
       <c r="Y66" s="7"/>
       <c r="Z66" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA66" s="13"/>
       <c r="AB66" s="5"/>
@@ -5168,7 +5173,7 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -5195,14 +5200,14 @@
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X67" s="6">
         <v>0</v>
       </c>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA67" s="13"/>
       <c r="AB67" s="5"/>
@@ -5218,8 +5223,8 @@
       <c r="A68" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>147</v>
+      <c r="B68" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -5246,17 +5251,17 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X68" s="14">
         <v>0</v>
       </c>
       <c r="Y68" s="15"/>
       <c r="Z68" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA68" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
@@ -5272,7 +5277,7 @@
         <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -5299,17 +5304,17 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X69" s="14">
         <v>0</v>
       </c>
       <c r="Y69" s="15"/>
       <c r="Z69" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA69" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
@@ -5325,7 +5330,7 @@
         <v>31</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -5352,17 +5357,17 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X70" s="14">
         <v>0</v>
       </c>
       <c r="Y70" s="15"/>
       <c r="Z70" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA70" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
@@ -5378,7 +5383,7 @@
         <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -5405,17 +5410,17 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X71" s="14">
         <v>0</v>
       </c>
       <c r="Y71" s="15"/>
       <c r="Z71" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA71" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
@@ -5430,8 +5435,8 @@
       <c r="A72" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>155</v>
+      <c r="B72" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -5458,14 +5463,14 @@
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X72" s="6">
         <v>0</v>
       </c>
       <c r="Y72" s="7"/>
       <c r="Z72" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA72" s="13"/>
       <c r="AB72" s="5"/>
@@ -5481,8 +5486,8 @@
       <c r="A73" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>156</v>
+      <c r="B73" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -5509,14 +5514,14 @@
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X73" s="6">
         <v>0</v>
       </c>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA73" s="13"/>
       <c r="AB73" s="5"/>
@@ -5532,8 +5537,8 @@
       <c r="A74" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>157</v>
+      <c r="B74" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -5560,14 +5565,14 @@
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X74" s="6">
         <v>0</v>
       </c>
       <c r="Y74" s="7"/>
       <c r="Z74" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA74" s="13"/>
       <c r="AB74" s="5"/>
@@ -5583,8 +5588,8 @@
       <c r="A75" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>158</v>
+      <c r="B75" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -5611,14 +5616,14 @@
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X75" s="6">
         <v>0</v>
       </c>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA75" s="13"/>
       <c r="AB75" s="5"/>
@@ -5634,8 +5639,8 @@
       <c r="A76" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>159</v>
+      <c r="B76" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -5662,14 +5667,14 @@
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X76" s="6">
         <v>0</v>
       </c>
       <c r="Y76" s="7"/>
       <c r="Z76" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA76" s="13"/>
       <c r="AB76" s="5"/>
@@ -5685,8 +5690,8 @@
       <c r="A77" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>160</v>
+      <c r="B77" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -5713,17 +5718,17 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X77" s="14">
         <v>0</v>
       </c>
       <c r="Y77" s="15"/>
       <c r="Z77" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA77" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
@@ -5738,8 +5743,8 @@
       <c r="A78" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>161</v>
+      <c r="B78" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -5766,14 +5771,14 @@
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
       <c r="W78" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X78" s="6">
         <v>0</v>
       </c>
       <c r="Y78" s="7"/>
       <c r="Z78" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA78" s="13"/>
       <c r="AB78" s="5"/>
@@ -5789,8 +5794,8 @@
       <c r="A79" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>162</v>
+      <c r="B79" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -5817,14 +5822,14 @@
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X79" s="6">
         <v>0</v>
       </c>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA79" s="13"/>
       <c r="AB79" s="5"/>
@@ -5840,8 +5845,8 @@
       <c r="A80" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>163</v>
+      <c r="B80" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -5868,14 +5873,14 @@
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
       <c r="W80" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X80" s="6">
         <v>0</v>
       </c>
       <c r="Y80" s="7"/>
       <c r="Z80" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA80" s="13"/>
       <c r="AB80" s="5"/>
@@ -5892,7 +5897,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -5919,16 +5924,16 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X81" s="14">
         <v>0</v>
       </c>
       <c r="Y81" s="15"/>
       <c r="Z81" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA81" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="AA81" s="11"/>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
@@ -5942,8 +5947,8 @@
       <c r="A82" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B82" s="12" t="s">
-        <v>166</v>
+      <c r="B82" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -5970,17 +5975,17 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X82" s="14">
         <v>0</v>
       </c>
       <c r="Y82" s="15"/>
       <c r="Z82" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA82" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
@@ -5995,8 +6000,8 @@
       <c r="A83" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="12" t="s">
-        <v>167</v>
+      <c r="B83" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6023,14 +6028,14 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X83" s="6">
         <v>0</v>
       </c>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA83" s="13"/>
       <c r="AB83" s="5"/>
@@ -6046,8 +6051,8 @@
       <c r="A84" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>168</v>
+      <c r="B84" s="10" t="s">
+        <v>169</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6074,14 +6079,14 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X84" s="6">
         <v>0</v>
       </c>
       <c r="Y84" s="7"/>
       <c r="Z84" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA84" s="13"/>
       <c r="AB84" s="5"/>
@@ -6097,8 +6102,8 @@
       <c r="A85" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="12" t="s">
-        <v>169</v>
+      <c r="B85" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -6125,14 +6130,14 @@
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X85" s="6">
         <v>0</v>
       </c>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA85" s="13"/>
       <c r="AB85" s="5"/>
@@ -6148,8 +6153,8 @@
       <c r="A86" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>170</v>
+      <c r="B86" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6176,14 +6181,14 @@
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X86" s="6">
         <v>0</v>
       </c>
       <c r="Y86" s="7"/>
       <c r="Z86" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA86" s="13"/>
       <c r="AB86" s="5"/>
@@ -6199,8 +6204,8 @@
       <c r="A87" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>171</v>
+      <c r="B87" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6227,14 +6232,14 @@
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X87" s="6">
         <v>0</v>
       </c>
       <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA87" s="13"/>
       <c r="AB87" s="5"/>
@@ -6250,8 +6255,8 @@
       <c r="A88" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>172</v>
+      <c r="B88" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6278,14 +6283,14 @@
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X88" s="6">
         <v>0</v>
       </c>
       <c r="Y88" s="7"/>
       <c r="Z88" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA88" s="13"/>
       <c r="AB88" s="5"/>
@@ -6301,8 +6306,8 @@
       <c r="A89" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>173</v>
+      <c r="B89" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6329,14 +6334,14 @@
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
       <c r="W89" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X89" s="6">
         <v>0</v>
       </c>
       <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA89" s="13"/>
       <c r="AB89" s="5"/>
@@ -6352,8 +6357,8 @@
       <c r="A90" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>174</v>
+      <c r="B90" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6380,17 +6385,17 @@
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X90" s="14">
         <v>0</v>
       </c>
       <c r="Y90" s="15"/>
       <c r="Z90" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA90" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
@@ -6405,8 +6410,8 @@
       <c r="A91" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>175</v>
+      <c r="B91" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6433,17 +6438,17 @@
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X91" s="14">
         <v>0</v>
       </c>
       <c r="Y91" s="15"/>
       <c r="Z91" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA91" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
@@ -6458,8 +6463,8 @@
       <c r="A92" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>176</v>
+      <c r="B92" s="10" t="s">
+        <v>177</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6486,14 +6491,14 @@
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X92" s="6">
         <v>0</v>
       </c>
       <c r="Y92" s="7"/>
       <c r="Z92" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA92" s="13"/>
       <c r="AB92" s="5"/>
@@ -6509,8 +6514,8 @@
       <c r="A93" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="12" t="s">
-        <v>177</v>
+      <c r="B93" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -6537,14 +6542,14 @@
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
       <c r="W93" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X93" s="6">
         <v>0</v>
       </c>
       <c r="Y93" s="7"/>
       <c r="Z93" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA93" s="13"/>
       <c r="AB93" s="5"/>
@@ -6560,8 +6565,8 @@
       <c r="A94" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="12" t="s">
-        <v>178</v>
+      <c r="B94" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -6588,14 +6593,14 @@
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
       <c r="W94" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X94" s="6">
         <v>0</v>
       </c>
       <c r="Y94" s="7"/>
       <c r="Z94" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA94" s="13"/>
       <c r="AB94" s="5"/>
@@ -6611,8 +6616,8 @@
       <c r="A95" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B95" s="12" t="s">
-        <v>179</v>
+      <c r="B95" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6639,14 +6644,14 @@
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X95" s="6">
         <v>0</v>
       </c>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA95" s="13"/>
       <c r="AB95" s="5"/>
@@ -6662,8 +6667,8 @@
       <c r="A96" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="12" t="s">
-        <v>180</v>
+      <c r="B96" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -6690,14 +6695,14 @@
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
       <c r="W96" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X96" s="6">
         <v>0</v>
       </c>
       <c r="Y96" s="7"/>
       <c r="Z96" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA96" s="13"/>
       <c r="AB96" s="5"/>
@@ -6713,8 +6718,8 @@
       <c r="A97" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="12" t="s">
-        <v>181</v>
+      <c r="B97" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -6741,14 +6746,14 @@
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
       <c r="W97" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X97" s="6">
         <v>0</v>
       </c>
       <c r="Y97" s="7"/>
       <c r="Z97" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA97" s="13"/>
       <c r="AB97" s="5"/>
@@ -6764,8 +6769,8 @@
       <c r="A98" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="12" t="s">
-        <v>182</v>
+      <c r="B98" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -6792,14 +6797,14 @@
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
       <c r="W98" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X98" s="6">
         <v>0</v>
       </c>
       <c r="Y98" s="7"/>
       <c r="Z98" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA98" s="13"/>
       <c r="AB98" s="5"/>
@@ -6815,8 +6820,8 @@
       <c r="A99" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>183</v>
+      <c r="B99" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -6843,14 +6848,14 @@
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
       <c r="W99" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X99" s="6">
         <v>0</v>
       </c>
       <c r="Y99" s="7"/>
       <c r="Z99" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA99" s="13"/>
       <c r="AB99" s="5"/>
@@ -6866,8 +6871,8 @@
       <c r="A100" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="12" t="s">
-        <v>184</v>
+      <c r="B100" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -6894,14 +6899,14 @@
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
       <c r="W100" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X100" s="6">
         <v>0</v>
       </c>
       <c r="Y100" s="7"/>
       <c r="Z100" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA100" s="13"/>
       <c r="AB100" s="5"/>
@@ -6918,7 +6923,7 @@
         <v>31</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -6945,14 +6950,14 @@
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
       <c r="W101" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X101" s="6">
         <v>0</v>
       </c>
       <c r="Y101" s="7"/>
       <c r="Z101" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA101" s="13"/>
       <c r="AB101" s="5"/>
@@ -6969,7 +6974,7 @@
         <v>31</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -6996,14 +7001,14 @@
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
       <c r="W102" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X102" s="6">
         <v>0</v>
       </c>
       <c r="Y102" s="7"/>
       <c r="Z102" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA102" s="13"/>
       <c r="AB102" s="5"/>
@@ -7019,8 +7024,8 @@
       <c r="A103" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B103" s="12" t="s">
-        <v>187</v>
+      <c r="B103" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -7047,14 +7052,14 @@
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
       <c r="W103" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X103" s="6">
         <v>0</v>
       </c>
       <c r="Y103" s="7"/>
       <c r="Z103" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA103" s="13"/>
       <c r="AB103" s="5"/>
@@ -7070,8 +7075,8 @@
       <c r="A104" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B104" s="12" t="s">
-        <v>188</v>
+      <c r="B104" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -7098,14 +7103,14 @@
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
       <c r="W104" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X104" s="6">
         <v>0</v>
       </c>
       <c r="Y104" s="7"/>
       <c r="Z104" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA104" s="13"/>
       <c r="AB104" s="5"/>
@@ -7121,8 +7126,8 @@
       <c r="A105" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B105" s="12" t="s">
-        <v>189</v>
+      <c r="B105" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -7149,14 +7154,14 @@
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
       <c r="W105" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="X105" s="14">
         <v>0</v>
       </c>
       <c r="Y105" s="15"/>
       <c r="Z105" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA105" s="13"/>
       <c r="AB105" s="5"/>
@@ -7172,8 +7177,8 @@
       <c r="A106" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B106" s="12" t="s">
-        <v>190</v>
+      <c r="B106" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -7200,14 +7205,14 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
       <c r="W106" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X106" s="14">
         <v>0</v>
       </c>
       <c r="Y106" s="15"/>
       <c r="Z106" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA106" s="13"/>
       <c r="AB106" s="5"/>
@@ -7223,8 +7228,8 @@
       <c r="A107" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B107" s="12" t="s">
-        <v>191</v>
+      <c r="B107" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -7251,14 +7256,14 @@
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
       <c r="W107" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X107" s="14">
         <v>0</v>
       </c>
       <c r="Y107" s="15"/>
       <c r="Z107" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA107" s="13"/>
       <c r="AB107" s="5"/>
@@ -7274,8 +7279,8 @@
       <c r="A108" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>192</v>
+      <c r="B108" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -7302,14 +7307,14 @@
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
       <c r="W108" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X108" s="14">
         <v>0</v>
       </c>
       <c r="Y108" s="15"/>
       <c r="Z108" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA108" s="13"/>
       <c r="AB108" s="5"/>
@@ -7325,8 +7330,8 @@
       <c r="A109" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>193</v>
+      <c r="B109" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -7353,16 +7358,16 @@
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
       <c r="W109" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X109" s="14">
         <v>0</v>
       </c>
       <c r="Y109" s="15"/>
       <c r="Z109" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA109" s="10"/>
+        <v>166</v>
+      </c>
+      <c r="AA109" s="11"/>
       <c r="AB109" s="5"/>
       <c r="AC109" s="5"/>
       <c r="AD109" s="5"/>
@@ -7374,10 +7379,10 @@
     </row>
     <row r="110" spans="1:35">
       <c r="A110" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B110" s="12" t="s">
         <v>195</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -7402,14 +7407,14 @@
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
-      <c r="V110" s="12" t="s">
-        <v>195</v>
+      <c r="V110" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
       <c r="Z110" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA110" s="13"/>
       <c r="AB110" s="5"/>
@@ -7423,10 +7428,10 @@
     </row>
     <row r="111" spans="1:35">
       <c r="A111" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -7451,14 +7456,14 @@
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
-      <c r="V111" s="12" t="s">
-        <v>197</v>
+      <c r="V111" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
       <c r="Z111" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA111" s="13"/>
       <c r="AB111" s="5"/>
@@ -7472,10 +7477,10 @@
     </row>
     <row r="112" spans="1:35">
       <c r="A112" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -7500,14 +7505,14 @@
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
-      <c r="V112" s="12" t="s">
-        <v>198</v>
+      <c r="V112" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
       <c r="Z112" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA112" s="13"/>
       <c r="AB112" s="5"/>
@@ -7521,10 +7526,10 @@
     </row>
     <row r="113" spans="1:35">
       <c r="A113" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -7549,14 +7554,14 @@
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
-      <c r="V113" s="12" t="s">
-        <v>199</v>
+      <c r="V113" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
       <c r="Z113" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA113" s="13"/>
       <c r="AB113" s="5"/>
@@ -7570,10 +7575,10 @@
     </row>
     <row r="114" spans="1:35">
       <c r="A114" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -7598,14 +7603,14 @@
       <c r="S114" s="4"/>
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
-      <c r="V114" s="12" t="s">
-        <v>200</v>
+      <c r="V114" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
       <c r="Z114" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA114" s="13"/>
       <c r="AB114" s="5"/>
@@ -7619,10 +7624,10 @@
     </row>
     <row r="115" spans="1:35">
       <c r="A115" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -7647,14 +7652,14 @@
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
-      <c r="V115" s="12" t="s">
-        <v>201</v>
+      <c r="V115" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
       <c r="Z115" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA115" s="13"/>
       <c r="AB115" s="5"/>
@@ -7668,10 +7673,10 @@
     </row>
     <row r="116" spans="1:35">
       <c r="A116" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B116" s="12" t="s">
-        <v>202</v>
+        <v>195</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -7696,14 +7701,14 @@
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
-      <c r="V116" s="12" t="s">
-        <v>202</v>
+      <c r="V116" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
       <c r="Z116" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA116" s="13"/>
       <c r="AB116" s="5"/>
@@ -7717,10 +7722,10 @@
     </row>
     <row r="117" spans="1:35">
       <c r="A117" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B117" s="12" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -7745,14 +7750,14 @@
       <c r="S117" s="4"/>
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
-      <c r="V117" s="12" t="s">
-        <v>203</v>
+      <c r="V117" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
       <c r="Z117" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA117" s="13"/>
       <c r="AB117" s="5"/>
@@ -7766,10 +7771,10 @@
     </row>
     <row r="118" spans="1:35">
       <c r="A118" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>204</v>
+        <v>195</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -7794,14 +7799,14 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
-      <c r="V118" s="12" t="s">
-        <v>204</v>
+      <c r="V118" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
       <c r="Z118" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA118" s="13"/>
       <c r="AB118" s="5"/>
@@ -7956,17 +7961,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -7991,17 +7996,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37F52A0-3AB7-48D6-95C9-07AE33C2737B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC26B014-02E7-4C88-8F92-4DD8191E51EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="4350" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8025" yWindow="4455" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH61_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,9 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>サーバー側名称（未記入で良い）</t>
+          <t>親となる画像がある場合に指定
+X座標, Y座標
+　　→親画像の左上座標が0, 0起点となる</t>
         </r>
       </text>
     </comment>
@@ -74,13 +76,24 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>親となる画像がある場合に指定
-X座標, Y座標
-　　→親画像の左上座標が0, 0起点となる</t>
+          <t>サーバー側名称</t>
         </r>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>サーバー側分類</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -306,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -323,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -462,7 +475,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="214">
   <si>
     <t>Type</t>
   </si>
@@ -470,10 +483,13 @@
     <t>UniqueName</t>
   </si>
   <si>
+    <t>ParentName</t>
+  </si>
+  <si>
     <t>ServerName</t>
   </si>
   <si>
-    <t>ParentName</t>
+    <t>ServerType</t>
   </si>
   <si>
     <t>PointName</t>
@@ -647,6 +663,9 @@
     <t>2RA_G</t>
   </si>
   <si>
+    <t>信号機</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
   </si>
   <si>
@@ -773,6 +792,9 @@
     <t>P21_PG</t>
   </si>
   <si>
+    <t>分岐器</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
@@ -815,6 +837,9 @@
     <t>解放98_PY</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -833,6 +858,9 @@
     <t>TH62_21T_P21N_1</t>
   </si>
   <si>
+    <t>軌道回路</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -960,6 +988,9 @@
   </si>
   <si>
     <t>21EM_R</t>
+  </si>
+  <si>
+    <t>ランプ</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/R.png</t>
@@ -1434,7 +1465,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI121"/>
+  <dimension ref="A1:AJ121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1447,14 +1478,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="24" width="15.140625" customWidth="1"/>
-    <col min="25" max="25" width="37.5703125" customWidth="1"/>
-    <col min="26" max="26" width="100.140625" customWidth="1"/>
-    <col min="27" max="27" width="62.5703125" customWidth="1"/>
-    <col min="28" max="35" width="15.42578125" customWidth="1"/>
+    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="37.5703125" customWidth="1"/>
+    <col min="27" max="27" width="100.140625" customWidth="1"/>
+    <col min="28" max="28" width="62.5703125" customWidth="1"/>
+    <col min="29" max="36" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,13 +1561,15 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3"/>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
@@ -1544,31 +1577,32 @@
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" s="4">
         <v>0</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1581,10 +1615,10 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="5"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -1593,37 +1627,38 @@
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2" s="5"/>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="J3" s="7"/>
-      <c r="K3" s="6">
+      <c r="K3" s="7"/>
+      <c r="L3" s="6">
         <v>900</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="6">
         <v>78</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>79</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="6">
         <v>110</v>
       </c>
-      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1634,10 +1669,10 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="5"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
@@ -1646,39 +1681,40 @@
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
-    </row>
-    <row r="4" spans="1:35" ht="25.5">
+      <c r="AJ3" s="5"/>
+    </row>
+    <row r="4" spans="1:36" ht="25.5">
       <c r="A4" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="6">
+      <c r="K4" s="7"/>
+      <c r="L4" s="6">
         <v>6</v>
       </c>
-      <c r="L4" s="6">
+      <c r="M4" s="6">
         <v>37</v>
-      </c>
-      <c r="M4" s="6">
-        <v>63</v>
       </c>
       <c r="N4" s="6">
         <v>63</v>
       </c>
-      <c r="O4" s="7"/>
+      <c r="O4" s="6">
+        <v>63</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1688,13 +1724,13 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="5"/>
+      <c r="AA4" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -1703,33 +1739,34 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4" s="5"/>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="7"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="6">
-        <f>K3+11</f>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6">
+        <f>L3+11</f>
         <v>911</v>
       </c>
-      <c r="L5" s="6">
-        <f>L3-68</f>
+      <c r="M5" s="6">
+        <f>M3-68</f>
         <v>10</v>
       </c>
-      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1742,11 +1779,11 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
-      <c r="Z5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="5"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="7"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
@@ -1754,22 +1791,21 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5" s="5"/>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="10" t="s">
@@ -1778,13 +1814,15 @@
       <c r="J6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="4">
         <v>368</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>302</v>
       </c>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1793,25 +1831,25 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="X6" s="6">
+      <c r="V6" s="4"/>
+      <c r="W6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6" s="6">
         <v>-1</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AB6" s="5"/>
+      <c r="AB6" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
@@ -1819,60 +1857,61 @@
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
-    </row>
-    <row r="7" spans="1:35" ht="16.5">
+      <c r="AJ6" s="5"/>
+    </row>
+    <row r="7" spans="1:36" ht="16.5">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="12" t="s">
-        <v>41</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="12"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="12"/>
-      <c r="K7" s="6">
+      <c r="K7" s="12"/>
+      <c r="L7" s="6">
         <v>14</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>20</v>
-      </c>
-      <c r="M7" s="6">
-        <v>11</v>
       </c>
       <c r="N7" s="6">
         <v>11</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="O7" s="6">
+        <v>11</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="6">
+      <c r="R7" s="4"/>
+      <c r="S7" s="6">
         <v>1</v>
       </c>
-      <c r="S7" s="6">
+      <c r="T7" s="6">
         <v>10</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="W7" s="4"/>
+      <c r="V7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="5"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
@@ -1882,31 +1921,32 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7" s="5"/>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="10"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="4">
+      <c r="K8" s="10"/>
+      <c r="L8" s="4">
         <v>433</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>302</v>
       </c>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1915,25 +1955,25 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8" s="6" t="s">
+      <c r="V8" s="4"/>
+      <c r="W8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7" t="s">
+      <c r="X8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z8" s="8" t="s">
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AA8" s="11" t="s">
+      <c r="AA8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AB8" s="5"/>
+      <c r="AB8" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
@@ -1941,31 +1981,34 @@
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8" s="5"/>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>491</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>358</v>
       </c>
-      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1975,20 +2018,20 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB9" s="5"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
@@ -1996,31 +2039,34 @@
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9" s="5"/>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>499</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>376</v>
       </c>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -2030,18 +2076,18 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="5"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="13"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
@@ -2049,49 +2095,48 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10" s="5"/>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
         <v>14</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>20</v>
-      </c>
-      <c r="M11" s="6">
-        <v>11</v>
       </c>
       <c r="N11" s="6">
         <v>11</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="O11" s="6">
+        <v>11</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="6">
+      <c r="R11" s="4"/>
+      <c r="S11" s="6">
         <v>2</v>
       </c>
-      <c r="S11" s="6">
+      <c r="T11" s="6">
         <v>10</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U11" s="6" t="s">
         <v>54</v>
@@ -2099,10 +2144,12 @@
       <c r="V11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W11" s="4"/>
+      <c r="W11" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="5"/>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -2112,31 +2159,32 @@
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
-    </row>
-    <row r="12" spans="1:35">
+      <c r="AJ11" s="5"/>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="10"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="4">
+      <c r="K12" s="10"/>
+      <c r="L12" s="4">
         <v>825</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>182</v>
       </c>
-      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2145,23 +2193,23 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="7" t="s">
+      <c r="V12" s="4"/>
+      <c r="W12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="X12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="5"/>
+      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB12" s="13"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
@@ -2169,31 +2217,34 @@
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
-    </row>
-    <row r="13" spans="1:35">
+      <c r="AJ12" s="5"/>
+    </row>
+    <row r="13" spans="1:36">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>789</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>218</v>
       </c>
-      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2203,18 +2254,18 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="5"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB13" s="13"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
@@ -2222,60 +2273,61 @@
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
-    </row>
-    <row r="14" spans="1:35">
+      <c r="AJ13" s="5"/>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="6"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>14</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>20</v>
-      </c>
-      <c r="M14" s="6">
-        <v>11</v>
       </c>
       <c r="N14" s="6">
         <v>11</v>
       </c>
-      <c r="O14" s="4"/>
+      <c r="O14" s="6">
+        <v>11</v>
+      </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="6">
+      <c r="R14" s="4"/>
+      <c r="S14" s="6">
         <v>3</v>
       </c>
-      <c r="S14" s="6">
+      <c r="T14" s="6">
         <v>10</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U14" s="6" t="s">
         <v>54</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="W14" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="5"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2285,31 +2337,32 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-    </row>
-    <row r="15" spans="1:35">
+      <c r="AJ14" s="5"/>
+    </row>
+    <row r="15" spans="1:36">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="10"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="J15" s="10"/>
-      <c r="K15" s="4">
+      <c r="K15" s="10"/>
+      <c r="L15" s="4">
         <v>825</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>362</v>
       </c>
-      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2318,23 +2371,23 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z15" s="8" t="s">
+      <c r="V15" s="4"/>
+      <c r="W15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="5"/>
+      <c r="Y15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB15" s="13"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
@@ -2342,31 +2395,34 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-    </row>
-    <row r="16" spans="1:35">
+      <c r="AJ15" s="5"/>
+    </row>
+    <row r="16" spans="1:36">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="4">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>789</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>398</v>
       </c>
-      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2376,18 +2432,18 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="5"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB16" s="13"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
@@ -2395,60 +2451,61 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AJ16" s="5"/>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="6"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="6">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
         <v>14</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>20</v>
-      </c>
-      <c r="M17" s="6">
-        <v>11</v>
       </c>
       <c r="N17" s="6">
         <v>11</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="O17" s="6">
+        <v>11</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="6">
+      <c r="R17" s="4"/>
+      <c r="S17" s="6">
         <v>4</v>
       </c>
-      <c r="S17" s="6">
+      <c r="T17" s="6">
         <v>10</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U17" s="6" t="s">
         <v>54</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="W17" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="5"/>
+      <c r="Z17" s="4"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -2458,31 +2515,32 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AJ17" s="5"/>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="9"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="4">
+      <c r="K18" s="9"/>
+      <c r="L18" s="4">
         <v>1121</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>302</v>
       </c>
-      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2491,23 +2549,23 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="7" t="s">
+      <c r="V18" s="4"/>
+      <c r="W18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X18" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Z18" s="8" t="s">
+      <c r="Y18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="5"/>
+      <c r="AA18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB18" s="13"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
@@ -2515,31 +2573,34 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AJ18" s="5"/>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="4">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>1187</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>300</v>
       </c>
-      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2549,18 +2610,18 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="5"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB19" s="13"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
@@ -2568,60 +2629,61 @@
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
-    </row>
-    <row r="20" spans="1:35" ht="16.5">
+      <c r="AJ19" s="5"/>
+    </row>
+    <row r="20" spans="1:36" ht="16.5">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="12" t="s">
-        <v>74</v>
-      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="12"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J20" s="12"/>
-      <c r="K20" s="6">
+      <c r="K20" s="12"/>
+      <c r="L20" s="6">
         <v>14</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>20</v>
-      </c>
-      <c r="M20" s="6">
-        <v>11</v>
       </c>
       <c r="N20" s="6">
         <v>11</v>
       </c>
-      <c r="O20" s="4"/>
+      <c r="O20" s="6">
+        <v>11</v>
+      </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="6">
+      <c r="R20" s="4"/>
+      <c r="S20" s="6">
         <v>5</v>
       </c>
-      <c r="S20" s="6">
+      <c r="T20" s="6">
         <v>10</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V20" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="W20" s="4"/>
+      <c r="V20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="5"/>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -2631,31 +2693,32 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AJ20" s="5"/>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="10"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="J21" s="10"/>
-      <c r="K21" s="4">
+      <c r="K21" s="10"/>
+      <c r="L21" s="4">
         <v>1179</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>362</v>
       </c>
-      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2664,23 +2727,23 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z21" s="8" t="s">
+      <c r="V21" s="4"/>
+      <c r="W21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="X21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="5"/>
+      <c r="Y21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB21" s="13"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
@@ -2688,31 +2751,34 @@
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AJ21" s="5"/>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J22" s="4"/>
-      <c r="K22" s="4">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>1143</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>398</v>
       </c>
-      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2722,18 +2788,18 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="5"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB22" s="13"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
@@ -2741,60 +2807,61 @@
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AJ22" s="5"/>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="6">
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
         <v>14</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>20</v>
-      </c>
-      <c r="M23" s="6">
-        <v>11</v>
       </c>
       <c r="N23" s="6">
         <v>11</v>
       </c>
-      <c r="O23" s="4"/>
+      <c r="O23" s="6">
+        <v>11</v>
+      </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="6">
+      <c r="R23" s="4"/>
+      <c r="S23" s="6">
         <v>6</v>
       </c>
-      <c r="S23" s="6">
+      <c r="T23" s="6">
         <v>10</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U23" s="6" t="s">
         <v>54</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="W23" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="5"/>
+      <c r="Z23" s="4"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -2804,31 +2871,32 @@
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="AJ23" s="5"/>
+    </row>
+    <row r="24" spans="1:36">
       <c r="A24" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="9"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J24" s="9"/>
-      <c r="K24" s="4">
+      <c r="K24" s="9"/>
+      <c r="L24" s="4">
         <v>509</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>315</v>
       </c>
-      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2837,23 +2905,23 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="W24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z24" s="8" t="s">
+      <c r="V24" s="4"/>
+      <c r="W24" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="5"/>
+      <c r="X24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB24" s="13"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
@@ -2861,60 +2929,61 @@
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-    </row>
-    <row r="25" spans="1:35" ht="16.5">
+      <c r="AJ24" s="5"/>
+    </row>
+    <row r="25" spans="1:36" ht="16.5">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="12" t="s">
-        <v>81</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="12"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J25" s="12"/>
-      <c r="K25" s="6">
+      <c r="K25" s="12"/>
+      <c r="L25" s="6">
         <v>5</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <v>23</v>
       </c>
-      <c r="M25" s="6">
+      <c r="N25" s="6">
         <v>15</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25" s="6">
         <v>12</v>
       </c>
-      <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="S25" s="6">
+      <c r="R25" s="4"/>
+      <c r="S25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T25" s="6">
         <v>10</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V25" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="W25" s="4"/>
+      <c r="V25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="5"/>
+      <c r="Z25" s="4"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
@@ -2924,31 +2993,32 @@
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AJ25" s="5"/>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="9"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="4">
+      <c r="K26" s="9"/>
+      <c r="L26" s="4">
         <v>1077</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>195</v>
       </c>
-      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2957,23 +3027,23 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="9" t="s">
+      <c r="V26" s="4"/>
+      <c r="W26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="W26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="5"/>
+      <c r="AB26" s="13"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
@@ -2981,60 +3051,61 @@
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-    </row>
-    <row r="27" spans="1:35" ht="16.5">
+      <c r="AJ26" s="5"/>
+    </row>
+    <row r="27" spans="1:36" ht="16.5">
       <c r="A27" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="12" t="s">
-        <v>85</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="12"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J27" s="12"/>
-      <c r="K27" s="6">
+      <c r="K27" s="12"/>
+      <c r="L27" s="6">
         <v>5</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <v>23</v>
       </c>
-      <c r="M27" s="6">
+      <c r="N27" s="6">
         <v>15</v>
       </c>
-      <c r="N27" s="6">
+      <c r="O27" s="6">
         <v>12</v>
       </c>
-      <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="S27" s="6">
+      <c r="R27" s="4"/>
+      <c r="S27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="T27" s="6">
         <v>10</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V27" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="W27" s="4"/>
+      <c r="V27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="5"/>
+      <c r="Z27" s="4"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
@@ -3044,31 +3115,32 @@
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AJ27" s="5"/>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="9"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="4">
+      <c r="K28" s="9"/>
+      <c r="L28" s="4">
         <v>1077</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>315</v>
       </c>
-      <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -3077,23 +3149,23 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-      <c r="V28" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="5"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB28" s="13"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
@@ -3101,60 +3173,61 @@
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-    </row>
-    <row r="29" spans="1:35" ht="16.5">
+      <c r="AJ28" s="5"/>
+    </row>
+    <row r="29" spans="1:36" ht="16.5">
       <c r="A29" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="12" t="s">
-        <v>87</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="4"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="12"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J29" s="12"/>
-      <c r="K29" s="6">
+      <c r="K29" s="12"/>
+      <c r="L29" s="6">
         <v>5</v>
       </c>
-      <c r="L29" s="6">
+      <c r="M29" s="6">
         <v>23</v>
       </c>
-      <c r="M29" s="6">
+      <c r="N29" s="6">
         <v>15</v>
       </c>
-      <c r="N29" s="6">
+      <c r="O29" s="6">
         <v>12</v>
       </c>
-      <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="S29" s="6">
+      <c r="R29" s="4"/>
+      <c r="S29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="T29" s="6">
         <v>10</v>
-      </c>
-      <c r="T29" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V29" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="W29" s="4"/>
+      <c r="V29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="5"/>
+      <c r="Z29" s="4"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
@@ -3164,31 +3237,32 @@
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-    </row>
-    <row r="30" spans="1:35">
+      <c r="AJ29" s="5"/>
+    </row>
+    <row r="30" spans="1:36">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="9"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J30" s="9"/>
-      <c r="K30" s="4">
+      <c r="K30" s="9"/>
+      <c r="L30" s="4">
         <v>1077</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>375</v>
       </c>
-      <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -3197,23 +3271,23 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-      <c r="V30" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="5"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB30" s="13"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
@@ -3221,60 +3295,61 @@
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
-    </row>
-    <row r="31" spans="1:35" ht="16.5">
+      <c r="AJ30" s="5"/>
+    </row>
+    <row r="31" spans="1:36" ht="16.5">
       <c r="A31" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="12" t="s">
-        <v>89</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="4"/>
       <c r="E31" s="12"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="12"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J31" s="12"/>
-      <c r="K31" s="6">
+      <c r="K31" s="12"/>
+      <c r="L31" s="6">
         <v>5</v>
       </c>
-      <c r="L31" s="6">
+      <c r="M31" s="6">
         <v>23</v>
       </c>
-      <c r="M31" s="6">
+      <c r="N31" s="6">
         <v>15</v>
       </c>
-      <c r="N31" s="6">
+      <c r="O31" s="6">
         <v>12</v>
       </c>
-      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="S31" s="6">
+      <c r="R31" s="4"/>
+      <c r="S31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="T31" s="6">
         <v>10</v>
-      </c>
-      <c r="T31" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U31" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V31" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="W31" s="4"/>
+      <c r="V31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="5"/>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
@@ -3284,31 +3359,32 @@
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-    </row>
-    <row r="32" spans="1:35">
+      <c r="AJ31" s="5"/>
+    </row>
+    <row r="32" spans="1:36">
       <c r="A32" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="9"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J32" s="9"/>
-      <c r="K32" s="4">
+      <c r="K32" s="9"/>
+      <c r="L32" s="4">
         <v>1211</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>315</v>
       </c>
-      <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -3317,23 +3393,23 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X32" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z32" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="5"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB32" s="13"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
@@ -3341,60 +3417,61 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-    </row>
-    <row r="33" spans="1:35" ht="16.5">
+      <c r="AJ32" s="5"/>
+    </row>
+    <row r="33" spans="1:36" ht="16.5">
       <c r="A33" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="12" t="s">
-        <v>91</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="12"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J33" s="12"/>
-      <c r="K33" s="6">
+      <c r="K33" s="12"/>
+      <c r="L33" s="6">
         <v>5</v>
       </c>
-      <c r="L33" s="6">
+      <c r="M33" s="6">
         <v>23</v>
       </c>
-      <c r="M33" s="6">
+      <c r="N33" s="6">
         <v>15</v>
       </c>
-      <c r="N33" s="6">
+      <c r="O33" s="6">
         <v>12</v>
       </c>
-      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="S33" s="6">
+      <c r="R33" s="4"/>
+      <c r="S33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="T33" s="6">
         <v>10</v>
-      </c>
-      <c r="T33" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U33" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V33" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="W33" s="4"/>
+      <c r="V33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="5"/>
+      <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
@@ -3404,31 +3481,32 @@
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
-    </row>
-    <row r="34" spans="1:35">
+      <c r="AJ33" s="5"/>
+    </row>
+    <row r="34" spans="1:36">
       <c r="A34" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="10"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="4">
+      <c r="K34" s="10"/>
+      <c r="L34" s="4">
         <v>304</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>551</v>
       </c>
-      <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -3437,23 +3515,23 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
-      <c r="V34" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="W34" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X34" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z34" s="16" t="s">
+      <c r="V34" s="4"/>
+      <c r="W34" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="5"/>
+      <c r="X34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA34" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB34" s="13"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
@@ -3461,31 +3539,32 @@
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-    </row>
-    <row r="35" spans="1:35">
+      <c r="AJ34" s="5"/>
+    </row>
+    <row r="35" spans="1:36">
       <c r="A35" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="10"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="J35" s="10"/>
-      <c r="K35" s="4">
+      <c r="K35" s="10"/>
+      <c r="L35" s="4">
         <v>1111</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>551</v>
       </c>
-      <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -3494,23 +3573,23 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
-      <c r="V35" s="10" t="s">
+      <c r="V35" s="4"/>
+      <c r="W35" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="W35" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X35" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z35" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="5"/>
+      <c r="AA35" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB35" s="13"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
@@ -3518,31 +3597,32 @@
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-    </row>
-    <row r="36" spans="1:35">
+      <c r="AJ35" s="5"/>
+    </row>
+    <row r="36" spans="1:36">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="9"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J36" s="9"/>
-      <c r="K36" s="4">
+      <c r="K36" s="9"/>
+      <c r="L36" s="4">
         <v>508</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>64</v>
       </c>
-      <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -3551,25 +3631,25 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
-      <c r="V36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="W36" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="7" t="s">
+      <c r="V36" s="4"/>
+      <c r="W36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Z36" s="8" t="s">
+      <c r="X36" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AA36" s="11" t="s">
+      <c r="Y36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="AB36" s="5"/>
+      <c r="AA36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB36" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
@@ -3577,31 +3657,34 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-    </row>
-    <row r="37" spans="1:35">
+      <c r="AJ36" s="5"/>
+    </row>
+    <row r="37" spans="1:36">
       <c r="A37" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="4">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
         <v>506</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>45</v>
       </c>
-      <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -3611,18 +3694,18 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="5"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB37" s="11"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
@@ -3630,31 +3713,34 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
-    </row>
-    <row r="38" spans="1:35">
+      <c r="AJ37" s="5"/>
+    </row>
+    <row r="38" spans="1:36">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J38" s="4"/>
-      <c r="K38" s="4">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
         <v>540</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>45</v>
       </c>
-      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -3664,18 +3750,18 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X38" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="5"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB38" s="13"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
@@ -3683,60 +3769,61 @@
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
-    </row>
-    <row r="39" spans="1:35" ht="16.5">
+      <c r="AJ38" s="5"/>
+    </row>
+    <row r="39" spans="1:36" ht="16.5">
       <c r="A39" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="12" t="s">
-        <v>97</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="4"/>
-      <c r="H39" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="12"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J39" s="12"/>
-      <c r="K39" s="6">
+      <c r="K39" s="12"/>
+      <c r="L39" s="6">
         <v>14</v>
       </c>
-      <c r="L39" s="6">
+      <c r="M39" s="6">
         <v>20</v>
-      </c>
-      <c r="M39" s="6">
-        <v>11</v>
       </c>
       <c r="N39" s="6">
         <v>11</v>
       </c>
-      <c r="O39" s="4"/>
+      <c r="O39" s="6">
+        <v>11</v>
+      </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
-      <c r="R39" s="6">
+      <c r="R39" s="4"/>
+      <c r="S39" s="6">
         <v>21</v>
       </c>
-      <c r="S39" s="6">
+      <c r="T39" s="6">
         <v>10</v>
-      </c>
-      <c r="T39" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U39" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V39" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="W39" s="4"/>
+      <c r="V39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W39" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="5"/>
+      <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
@@ -3746,31 +3833,32 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
-    </row>
-    <row r="40" spans="1:35">
+      <c r="AJ39" s="5"/>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="9"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="J40" s="9"/>
-      <c r="K40" s="4">
+      <c r="K40" s="9"/>
+      <c r="L40" s="4">
         <v>576</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>64</v>
       </c>
-      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -3779,23 +3867,23 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
-      <c r="V40" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="W40" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z40" s="8" t="s">
+      <c r="V40" s="4"/>
+      <c r="W40" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X40" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="5"/>
+      <c r="Y40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA40" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB40" s="13"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
@@ -3803,31 +3891,34 @@
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
-    </row>
-    <row r="41" spans="1:35">
+      <c r="AJ40" s="5"/>
+    </row>
+    <row r="41" spans="1:36">
       <c r="A41" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J41" s="4"/>
-      <c r="K41" s="4">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
         <v>574</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>45</v>
       </c>
-      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3837,18 +3928,18 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="5"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB41" s="13"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
@@ -3856,31 +3947,34 @@
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
-    </row>
-    <row r="42" spans="1:35">
+      <c r="AJ41" s="5"/>
+    </row>
+    <row r="42" spans="1:36">
       <c r="A42" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J42" s="4"/>
-      <c r="K42" s="4">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
         <v>608</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>45</v>
       </c>
-      <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3890,18 +3984,18 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="5"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB42" s="13"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
@@ -3909,60 +4003,61 @@
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
-    </row>
-    <row r="43" spans="1:35" ht="16.5">
+      <c r="AJ42" s="5"/>
+    </row>
+    <row r="43" spans="1:36" ht="16.5">
       <c r="A43" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="12" t="s">
-        <v>107</v>
-      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="12"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="J43" s="12"/>
-      <c r="K43" s="6">
+      <c r="K43" s="12"/>
+      <c r="L43" s="6">
         <v>14</v>
       </c>
-      <c r="L43" s="6">
+      <c r="M43" s="6">
         <v>20</v>
-      </c>
-      <c r="M43" s="6">
-        <v>11</v>
       </c>
       <c r="N43" s="6">
         <v>11</v>
       </c>
-      <c r="O43" s="4"/>
+      <c r="O43" s="6">
+        <v>11</v>
+      </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="6">
+      <c r="R43" s="4"/>
+      <c r="S43" s="6">
         <v>22</v>
       </c>
-      <c r="S43" s="6">
+      <c r="T43" s="6">
         <v>10</v>
-      </c>
-      <c r="T43" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="U43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="V43" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="W43" s="4"/>
+      <c r="V43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W43" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
-      <c r="Z43" s="5"/>
+      <c r="Z43" s="4"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
@@ -3972,31 +4067,32 @@
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
-    </row>
-    <row r="44" spans="1:35" ht="25.5">
+      <c r="AJ43" s="5"/>
+    </row>
+    <row r="44" spans="1:36" ht="25.5">
       <c r="A44" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
         <v>54</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>64</v>
       </c>
-      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -4005,25 +4101,25 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
-      <c r="V44" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W44" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="X44" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z44" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA44" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB44" s="5"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X44" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA44" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB44" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
@@ -4031,29 +4127,32 @@
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
-    </row>
-    <row r="45" spans="1:35">
+      <c r="AJ44" s="5"/>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
         <v>69</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>31</v>
       </c>
-      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -4063,18 +4162,18 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X45" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="5"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB45" s="13"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
@@ -4082,31 +4181,32 @@
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
-    </row>
-    <row r="46" spans="1:35" ht="25.5">
+      <c r="AJ45" s="5"/>
+    </row>
+    <row r="46" spans="1:36" ht="25.5">
       <c r="A46" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4">
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
         <v>1347</v>
       </c>
-      <c r="L46" s="4">
+      <c r="M46" s="4">
         <v>64</v>
       </c>
-      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -4115,25 +4215,25 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
-      <c r="V46" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="W46" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="X46" s="6">
+      <c r="V46" s="4"/>
+      <c r="W46" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y46" s="6">
         <v>1</v>
       </c>
-      <c r="Y46" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z46" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA46" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB46" s="5"/>
+      <c r="Z46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB46" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
@@ -4141,29 +4241,32 @@
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
-    </row>
-    <row r="47" spans="1:35">
+      <c r="AJ46" s="5"/>
+    </row>
+    <row r="47" spans="1:36">
       <c r="A47" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4">
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
         <v>1345</v>
       </c>
-      <c r="L47" s="4">
+      <c r="M47" s="4">
         <v>45</v>
       </c>
-      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -4173,18 +4276,18 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X47" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="7"/>
-      <c r="Z47" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="5"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB47" s="13"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
@@ -4192,29 +4295,32 @@
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
-    </row>
-    <row r="48" spans="1:35">
+      <c r="AJ47" s="5"/>
+    </row>
+    <row r="48" spans="1:36">
       <c r="A48" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="4">
+      <c r="K48" s="4"/>
+      <c r="L48" s="4">
         <v>1379</v>
       </c>
-      <c r="L48" s="4">
+      <c r="M48" s="4">
         <v>45</v>
       </c>
-      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4224,18 +4330,18 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
-      <c r="W48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X48" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="5"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB48" s="13"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
@@ -4243,29 +4349,32 @@
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
-    </row>
-    <row r="49" spans="1:35">
+      <c r="AJ48" s="5"/>
+    </row>
+    <row r="49" spans="1:36">
       <c r="A49" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4">
+      <c r="K49" s="4"/>
+      <c r="L49" s="4">
         <v>47</v>
       </c>
-      <c r="L49" s="4">
+      <c r="M49" s="4">
         <v>325</v>
       </c>
-      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -4275,20 +4384,20 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-      <c r="W49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X49" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA49" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB49" s="5"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB49" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
@@ -4296,29 +4405,32 @@
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
-    </row>
-    <row r="50" spans="1:35">
+      <c r="AJ49" s="5"/>
+    </row>
+    <row r="50" spans="1:36">
       <c r="A50" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="4">
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
         <v>77</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <v>325</v>
       </c>
-      <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4328,18 +4440,18 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
-      <c r="W50" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="5"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB50" s="13"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
@@ -4347,29 +4459,32 @@
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
-    </row>
-    <row r="51" spans="1:35">
+      <c r="AJ50" s="5"/>
+    </row>
+    <row r="51" spans="1:36">
       <c r="A51" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4">
+      <c r="K51" s="4"/>
+      <c r="L51" s="4">
         <v>47</v>
       </c>
-      <c r="L51" s="4">
+      <c r="M51" s="4">
         <v>325</v>
       </c>
-      <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4379,18 +4494,18 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
-      <c r="W51" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X51" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="5"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB51" s="13"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
@@ -4398,29 +4513,32 @@
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
-    </row>
-    <row r="52" spans="1:35">
+      <c r="AJ51" s="5"/>
+    </row>
+    <row r="52" spans="1:36">
       <c r="A52" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="4">
+      <c r="K52" s="4"/>
+      <c r="L52" s="4">
         <v>69</v>
       </c>
-      <c r="L52" s="4">
+      <c r="M52" s="4">
         <v>365</v>
       </c>
-      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4430,20 +4548,20 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
-      <c r="W52" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X52" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="15"/>
-      <c r="Z52" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA52" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB52" s="5"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB52" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
@@ -4451,29 +4569,32 @@
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
-    </row>
-    <row r="53" spans="1:35">
+      <c r="AJ52" s="5"/>
+    </row>
+    <row r="53" spans="1:36">
       <c r="A53" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4">
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
         <v>102</v>
       </c>
-      <c r="L53" s="4">
+      <c r="M53" s="4">
         <v>325</v>
       </c>
-      <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
@@ -4483,18 +4604,18 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
-      <c r="W53" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X53" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="7"/>
-      <c r="Z53" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA53" s="13"/>
-      <c r="AB53" s="5"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y53" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB53" s="13"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
@@ -4502,29 +4623,32 @@
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
-    </row>
-    <row r="54" spans="1:35">
+      <c r="AJ53" s="5"/>
+    </row>
+    <row r="54" spans="1:36">
       <c r="A54" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4">
+      <c r="K54" s="4"/>
+      <c r="L54" s="4">
         <v>102</v>
       </c>
-      <c r="L54" s="4">
+      <c r="M54" s="4">
         <v>385</v>
       </c>
-      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -4534,18 +4658,18 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X54" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA54" s="13"/>
-      <c r="AB54" s="5"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB54" s="13"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
@@ -4553,29 +4677,32 @@
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
-    </row>
-    <row r="55" spans="1:35">
+      <c r="AJ54" s="5"/>
+    </row>
+    <row r="55" spans="1:36">
       <c r="A55" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4">
+      <c r="K55" s="4"/>
+      <c r="L55" s="4">
         <v>131</v>
       </c>
-      <c r="L55" s="4">
+      <c r="M55" s="4">
         <v>325</v>
       </c>
-      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -4585,18 +4712,18 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
-      <c r="W55" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X55" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA55" s="13"/>
-      <c r="AB55" s="5"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y55" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB55" s="13"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
@@ -4604,29 +4731,32 @@
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
-    </row>
-    <row r="56" spans="1:35">
+      <c r="AJ55" s="5"/>
+    </row>
+    <row r="56" spans="1:36">
       <c r="A56" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4">
         <v>213</v>
       </c>
-      <c r="L56" s="4">
+      <c r="M56" s="4">
         <v>325</v>
       </c>
-      <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
@@ -4636,18 +4766,18 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
-      <c r="W56" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X56" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="5"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y56" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB56" s="13"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
@@ -4655,29 +4785,32 @@
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
-    </row>
-    <row r="57" spans="1:35">
+      <c r="AJ56" s="5"/>
+    </row>
+    <row r="57" spans="1:36">
       <c r="A57" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4">
+      <c r="K57" s="4"/>
+      <c r="L57" s="4">
         <v>131</v>
       </c>
-      <c r="L57" s="4">
+      <c r="M57" s="4">
         <v>385</v>
       </c>
-      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -4687,18 +4820,18 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
-      <c r="W57" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X57" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="5"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y57" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB57" s="13"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
@@ -4706,29 +4839,32 @@
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
-    </row>
-    <row r="58" spans="1:35">
+      <c r="AJ57" s="5"/>
+    </row>
+    <row r="58" spans="1:36">
       <c r="A58" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4">
+      <c r="K58" s="4"/>
+      <c r="L58" s="4">
         <v>213</v>
       </c>
-      <c r="L58" s="4">
+      <c r="M58" s="4">
         <v>385</v>
       </c>
-      <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
@@ -4738,18 +4874,18 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
-      <c r="W58" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X58" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="7"/>
-      <c r="Z58" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="5"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y58" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB58" s="13"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
@@ -4757,29 +4893,32 @@
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
-    </row>
-    <row r="59" spans="1:35">
+      <c r="AJ58" s="5"/>
+    </row>
+    <row r="59" spans="1:36">
       <c r="A59" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4">
+      <c r="K59" s="4"/>
+      <c r="L59" s="4">
         <v>242</v>
       </c>
-      <c r="L59" s="4">
+      <c r="M59" s="4">
         <v>325</v>
       </c>
-      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -4789,18 +4928,18 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X59" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA59" s="13"/>
-      <c r="AB59" s="5"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y59" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB59" s="13"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
@@ -4808,29 +4947,32 @@
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
-    </row>
-    <row r="60" spans="1:35">
+      <c r="AJ59" s="5"/>
+    </row>
+    <row r="60" spans="1:36">
       <c r="A60" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4">
+      <c r="K60" s="4"/>
+      <c r="L60" s="4">
         <v>242</v>
       </c>
-      <c r="L60" s="4">
+      <c r="M60" s="4">
         <v>385</v>
       </c>
-      <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -4840,18 +4982,18 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
-      <c r="W60" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X60" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA60" s="13"/>
-      <c r="AB60" s="5"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y60" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB60" s="13"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
@@ -4859,29 +5001,32 @@
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
-    </row>
-    <row r="61" spans="1:35">
+      <c r="AJ60" s="5"/>
+    </row>
+    <row r="61" spans="1:36">
       <c r="A61" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4">
+      <c r="K61" s="4"/>
+      <c r="L61" s="4">
         <v>267</v>
       </c>
-      <c r="L61" s="4">
+      <c r="M61" s="4">
         <v>325</v>
       </c>
-      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -4891,18 +5036,18 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
-      <c r="W61" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X61" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="7"/>
-      <c r="Z61" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA61" s="13"/>
-      <c r="AB61" s="5"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y61" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB61" s="13"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
@@ -4910,29 +5055,32 @@
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
       <c r="AI61" s="5"/>
-    </row>
-    <row r="62" spans="1:35">
+      <c r="AJ61" s="5"/>
+    </row>
+    <row r="62" spans="1:36">
       <c r="A62" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4">
+      <c r="K62" s="4"/>
+      <c r="L62" s="4">
         <v>297</v>
       </c>
-      <c r="L62" s="4">
+      <c r="M62" s="4">
         <v>325</v>
       </c>
-      <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -4942,18 +5090,18 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
-      <c r="W62" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X62" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="7"/>
-      <c r="Z62" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA62" s="13"/>
-      <c r="AB62" s="5"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y62" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB62" s="13"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
@@ -4961,29 +5109,32 @@
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
-    </row>
-    <row r="63" spans="1:35">
+      <c r="AJ62" s="5"/>
+    </row>
+    <row r="63" spans="1:36">
       <c r="A63" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4">
+      <c r="K63" s="4"/>
+      <c r="L63" s="4">
         <v>279</v>
       </c>
-      <c r="L63" s="4">
+      <c r="M63" s="4">
         <v>365</v>
       </c>
-      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -4993,20 +5144,20 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
-      <c r="W63" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X63" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="15"/>
-      <c r="Z63" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA63" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB63" s="5"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y63" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB63" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
@@ -5014,29 +5165,32 @@
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AI63" s="5"/>
-    </row>
-    <row r="64" spans="1:35">
+      <c r="AJ63" s="5"/>
+    </row>
+    <row r="64" spans="1:36">
       <c r="A64" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="4">
+      <c r="K64" s="4"/>
+      <c r="L64" s="4">
         <v>297</v>
       </c>
-      <c r="L64" s="4">
+      <c r="M64" s="4">
         <v>325</v>
       </c>
-      <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -5046,18 +5200,18 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
-      <c r="W64" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X64" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="7"/>
-      <c r="Z64" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA64" s="13"/>
-      <c r="AB64" s="5"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y64" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB64" s="13"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
@@ -5065,29 +5219,32 @@
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
       <c r="AI64" s="5"/>
-    </row>
-    <row r="65" spans="1:35">
+      <c r="AJ64" s="5"/>
+    </row>
+    <row r="65" spans="1:36">
       <c r="A65" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="4">
+      <c r="K65" s="4"/>
+      <c r="L65" s="4">
         <v>322</v>
       </c>
-      <c r="L65" s="4">
+      <c r="M65" s="4">
         <v>325</v>
       </c>
-      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -5097,18 +5254,18 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
-      <c r="W65" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X65" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="7"/>
-      <c r="Z65" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA65" s="13"/>
-      <c r="AB65" s="5"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y65" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB65" s="13"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
@@ -5116,29 +5273,32 @@
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
       <c r="AI65" s="5"/>
-    </row>
-    <row r="66" spans="1:35">
+      <c r="AJ65" s="5"/>
+    </row>
+    <row r="66" spans="1:36">
       <c r="A66" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="4">
+      <c r="K66" s="4"/>
+      <c r="L66" s="4">
         <v>352</v>
       </c>
-      <c r="L66" s="4">
+      <c r="M66" s="4">
         <v>325</v>
       </c>
-      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -5148,18 +5308,18 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X66" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA66" s="13"/>
-      <c r="AB66" s="5"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB66" s="13"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
@@ -5167,29 +5327,32 @@
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
       <c r="AI66" s="5"/>
-    </row>
-    <row r="67" spans="1:35">
+      <c r="AJ66" s="5"/>
+    </row>
+    <row r="67" spans="1:36">
       <c r="A67" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="4">
+      <c r="K67" s="4"/>
+      <c r="L67" s="4">
         <v>412</v>
       </c>
-      <c r="L67" s="4">
+      <c r="M67" s="4">
         <v>325</v>
       </c>
-      <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -5199,18 +5362,18 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
-      <c r="W67" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X67" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="7"/>
-      <c r="Z67" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA67" s="13"/>
-      <c r="AB67" s="5"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y67" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB67" s="13"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
@@ -5218,29 +5381,32 @@
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
       <c r="AI67" s="5"/>
-    </row>
-    <row r="68" spans="1:35">
+      <c r="AJ67" s="5"/>
+    </row>
+    <row r="68" spans="1:36">
       <c r="A68" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="4">
+      <c r="K68" s="4"/>
+      <c r="L68" s="4">
         <v>353</v>
       </c>
-      <c r="L68" s="4">
+      <c r="M68" s="4">
         <v>302</v>
       </c>
-      <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
@@ -5250,20 +5416,20 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
-      <c r="W68" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X68" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="15"/>
-      <c r="Z68" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA68" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB68" s="5"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB68" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
@@ -5271,29 +5437,32 @@
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
       <c r="AI68" s="5"/>
-    </row>
-    <row r="69" spans="1:35">
+      <c r="AJ68" s="5"/>
+    </row>
+    <row r="69" spans="1:36">
       <c r="A69" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="4">
+      <c r="K69" s="4"/>
+      <c r="L69" s="4">
         <v>353</v>
       </c>
-      <c r="L69" s="4">
+      <c r="M69" s="4">
         <v>344</v>
       </c>
-      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
@@ -5303,20 +5472,20 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
-      <c r="W69" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X69" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="15"/>
-      <c r="Z69" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA69" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB69" s="5"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y69" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB69" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
@@ -5324,29 +5493,32 @@
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
       <c r="AI69" s="5"/>
-    </row>
-    <row r="70" spans="1:35">
+      <c r="AJ69" s="5"/>
+    </row>
+    <row r="70" spans="1:36">
       <c r="A70" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="4">
+      <c r="K70" s="4"/>
+      <c r="L70" s="4">
         <v>413</v>
       </c>
-      <c r="L70" s="4">
+      <c r="M70" s="4">
         <v>302</v>
       </c>
-      <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -5356,20 +5528,20 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
-      <c r="W70" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X70" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="15"/>
-      <c r="Z70" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA70" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB70" s="5"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y70" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB70" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
@@ -5377,29 +5549,32 @@
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
-    </row>
-    <row r="71" spans="1:35">
+      <c r="AJ70" s="5"/>
+    </row>
+    <row r="71" spans="1:36">
       <c r="A71" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="4">
+      <c r="K71" s="4"/>
+      <c r="L71" s="4">
         <v>413</v>
       </c>
-      <c r="L71" s="4">
+      <c r="M71" s="4">
         <v>344</v>
       </c>
-      <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -5409,20 +5584,20 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
-      <c r="W71" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X71" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="15"/>
-      <c r="Z71" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA71" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB71" s="5"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB71" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
@@ -5430,29 +5605,32 @@
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
       <c r="AI71" s="5"/>
-    </row>
-    <row r="72" spans="1:35">
+      <c r="AJ71" s="5"/>
+    </row>
+    <row r="72" spans="1:36">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="4">
+      <c r="K72" s="4"/>
+      <c r="L72" s="4">
         <v>490</v>
       </c>
-      <c r="L72" s="4">
+      <c r="M72" s="4">
         <v>325</v>
       </c>
-      <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
@@ -5462,18 +5640,18 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
-      <c r="W72" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X72" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y72" s="7"/>
-      <c r="Z72" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA72" s="13"/>
-      <c r="AB72" s="5"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y72" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB72" s="13"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
@@ -5481,29 +5659,32 @@
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
-    </row>
-    <row r="73" spans="1:35">
+      <c r="AJ72" s="5"/>
+    </row>
+    <row r="73" spans="1:36">
       <c r="A73" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="4">
+      <c r="K73" s="4"/>
+      <c r="L73" s="4">
         <v>542</v>
       </c>
-      <c r="L73" s="4">
+      <c r="M73" s="4">
         <v>325</v>
       </c>
-      <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -5513,18 +5694,18 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
-      <c r="W73" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X73" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA73" s="13"/>
-      <c r="AB73" s="5"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y73" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB73" s="13"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
@@ -5532,29 +5713,32 @@
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
-    </row>
-    <row r="74" spans="1:35">
+      <c r="AJ73" s="5"/>
+    </row>
+    <row r="74" spans="1:36">
       <c r="A74" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="4">
+      <c r="K74" s="4"/>
+      <c r="L74" s="4">
         <v>570</v>
       </c>
-      <c r="L74" s="4">
+      <c r="M74" s="4">
         <v>325</v>
       </c>
-      <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -5564,18 +5748,18 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
-      <c r="W74" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X74" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="5"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y74" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB74" s="13"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
@@ -5583,29 +5767,32 @@
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
-    </row>
-    <row r="75" spans="1:35">
+      <c r="AJ74" s="5"/>
+    </row>
+    <row r="75" spans="1:36">
       <c r="A75" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="4">
+      <c r="K75" s="4"/>
+      <c r="L75" s="4">
         <v>612</v>
       </c>
-      <c r="L75" s="4">
+      <c r="M75" s="4">
         <v>325</v>
       </c>
-      <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -5615,18 +5802,18 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
-      <c r="W75" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X75" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="7"/>
-      <c r="Z75" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA75" s="13"/>
-      <c r="AB75" s="5"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y75" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB75" s="13"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
@@ -5634,29 +5821,32 @@
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
       <c r="AI75" s="5"/>
-    </row>
-    <row r="76" spans="1:35">
+      <c r="AJ75" s="5"/>
+    </row>
+    <row r="76" spans="1:36">
       <c r="A76" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="4">
+      <c r="K76" s="4"/>
+      <c r="L76" s="4">
         <v>570</v>
       </c>
-      <c r="L76" s="4">
+      <c r="M76" s="4">
         <v>325</v>
       </c>
-      <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
@@ -5666,18 +5856,18 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
-      <c r="W76" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X76" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="7"/>
-      <c r="Z76" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA76" s="13"/>
-      <c r="AB76" s="5"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y76" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB76" s="13"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
@@ -5685,29 +5875,32 @@
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
-    </row>
-    <row r="77" spans="1:35">
+      <c r="AJ76" s="5"/>
+    </row>
+    <row r="77" spans="1:36">
       <c r="A77" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="4">
+      <c r="K77" s="4"/>
+      <c r="L77" s="4">
         <v>594</v>
       </c>
-      <c r="L77" s="4">
+      <c r="M77" s="4">
         <v>343</v>
       </c>
-      <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
@@ -5717,20 +5910,20 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
-      <c r="W77" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X77" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="15"/>
-      <c r="Z77" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA77" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB77" s="5"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y77" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB77" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
@@ -5738,29 +5931,32 @@
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
       <c r="AI77" s="5"/>
-    </row>
-    <row r="78" spans="1:35">
+      <c r="AJ77" s="5"/>
+    </row>
+    <row r="78" spans="1:36">
       <c r="A78" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="4">
+      <c r="K78" s="4"/>
+      <c r="L78" s="4">
         <v>636</v>
       </c>
-      <c r="L78" s="4">
+      <c r="M78" s="4">
         <v>385</v>
       </c>
-      <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
@@ -5770,18 +5966,18 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
-      <c r="W78" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X78" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="7"/>
-      <c r="Z78" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="5"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y78" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB78" s="13"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
@@ -5789,29 +5985,32 @@
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
       <c r="AI78" s="5"/>
-    </row>
-    <row r="79" spans="1:35">
+      <c r="AJ78" s="5"/>
+    </row>
+    <row r="79" spans="1:36">
       <c r="A79" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="4">
+      <c r="K79" s="4"/>
+      <c r="L79" s="4">
         <v>716</v>
       </c>
-      <c r="L79" s="4">
+      <c r="M79" s="4">
         <v>385</v>
       </c>
-      <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
@@ -5821,18 +6020,18 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
-      <c r="W79" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X79" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y79" s="7"/>
-      <c r="Z79" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA79" s="13"/>
-      <c r="AB79" s="5"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y79" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB79" s="13"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
@@ -5840,29 +6039,32 @@
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
       <c r="AI79" s="5"/>
-    </row>
-    <row r="80" spans="1:35">
+      <c r="AJ79" s="5"/>
+    </row>
+    <row r="80" spans="1:36">
       <c r="A80" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="4">
+      <c r="K80" s="4"/>
+      <c r="L80" s="4">
         <v>796</v>
       </c>
-      <c r="L80" s="4">
+      <c r="M80" s="4">
         <v>385</v>
       </c>
-      <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
@@ -5872,18 +6074,18 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
-      <c r="W80" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X80" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y80" s="7"/>
-      <c r="Z80" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA80" s="13"/>
-      <c r="AB80" s="5"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y80" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB80" s="13"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
@@ -5891,29 +6093,32 @@
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
       <c r="AI80" s="5"/>
-    </row>
-    <row r="81" spans="1:35">
+      <c r="AJ80" s="5"/>
+    </row>
+    <row r="81" spans="1:36">
       <c r="A81" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="4">
+      <c r="K81" s="4"/>
+      <c r="L81" s="4">
         <v>568</v>
       </c>
-      <c r="L81" s="4">
+      <c r="M81" s="4">
         <v>383</v>
       </c>
-      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -5923,18 +6128,18 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
-      <c r="W81" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X81" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA81" s="11"/>
-      <c r="AB81" s="5"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y81" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="15"/>
+      <c r="AA81" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB81" s="11"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
@@ -5942,29 +6147,32 @@
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
       <c r="AI81" s="5"/>
-    </row>
-    <row r="82" spans="1:35">
+      <c r="AJ81" s="5"/>
+    </row>
+    <row r="82" spans="1:36">
       <c r="A82" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="4">
+      <c r="K82" s="4"/>
+      <c r="L82" s="4">
         <v>614</v>
       </c>
-      <c r="L82" s="4">
+      <c r="M82" s="4">
         <v>363</v>
       </c>
-      <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
@@ -5974,20 +6182,20 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
-      <c r="W82" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X82" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA82" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB82" s="5"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y82" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="15"/>
+      <c r="AA82" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB82" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
@@ -5995,29 +6203,32 @@
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
       <c r="AI82" s="5"/>
-    </row>
-    <row r="83" spans="1:35">
+      <c r="AJ82" s="5"/>
+    </row>
+    <row r="83" spans="1:36">
       <c r="A83" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="4">
+      <c r="K83" s="4"/>
+      <c r="L83" s="4">
         <v>636</v>
       </c>
-      <c r="L83" s="4">
+      <c r="M83" s="4">
         <v>385</v>
       </c>
-      <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
@@ -6027,18 +6238,18 @@
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
-      <c r="W83" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X83" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="7"/>
-      <c r="Z83" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA83" s="13"/>
-      <c r="AB83" s="5"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y83" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB83" s="13"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
@@ -6046,29 +6257,32 @@
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
       <c r="AI83" s="5"/>
-    </row>
-    <row r="84" spans="1:35">
+      <c r="AJ83" s="5"/>
+    </row>
+    <row r="84" spans="1:36">
       <c r="A84" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="4">
+      <c r="K84" s="4"/>
+      <c r="L84" s="4">
         <v>716</v>
       </c>
-      <c r="L84" s="4">
+      <c r="M84" s="4">
         <v>385</v>
       </c>
-      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -6078,18 +6292,18 @@
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
-      <c r="W84" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X84" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="7"/>
-      <c r="Z84" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA84" s="13"/>
-      <c r="AB84" s="5"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y84" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB84" s="13"/>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
@@ -6097,29 +6311,32 @@
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
       <c r="AI84" s="5"/>
-    </row>
-    <row r="85" spans="1:35">
+      <c r="AJ84" s="5"/>
+    </row>
+    <row r="85" spans="1:36">
       <c r="A85" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="4">
+      <c r="K85" s="4"/>
+      <c r="L85" s="4">
         <v>796</v>
       </c>
-      <c r="L85" s="4">
+      <c r="M85" s="4">
         <v>385</v>
       </c>
-      <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
@@ -6129,18 +6346,18 @@
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
-      <c r="W85" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X85" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="7"/>
-      <c r="Z85" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA85" s="13"/>
-      <c r="AB85" s="5"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y85" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB85" s="13"/>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
@@ -6148,29 +6365,32 @@
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
       <c r="AI85" s="5"/>
-    </row>
-    <row r="86" spans="1:35">
+      <c r="AJ85" s="5"/>
+    </row>
+    <row r="86" spans="1:36">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="4">
+      <c r="K86" s="4"/>
+      <c r="L86" s="4">
         <v>640</v>
       </c>
-      <c r="L86" s="4">
+      <c r="M86" s="4">
         <v>325</v>
       </c>
-      <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -6180,18 +6400,18 @@
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
-      <c r="W86" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X86" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="7"/>
-      <c r="Z86" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA86" s="13"/>
-      <c r="AB86" s="5"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y86" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB86" s="13"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
@@ -6199,29 +6419,32 @@
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
       <c r="AI86" s="5"/>
-    </row>
-    <row r="87" spans="1:35">
+      <c r="AJ86" s="5"/>
+    </row>
+    <row r="87" spans="1:36">
       <c r="A87" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="4">
+      <c r="K87" s="4"/>
+      <c r="L87" s="4">
         <v>718</v>
       </c>
-      <c r="L87" s="4">
+      <c r="M87" s="4">
         <v>325</v>
       </c>
-      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -6231,18 +6454,18 @@
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
-      <c r="W87" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X87" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="7"/>
-      <c r="Z87" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA87" s="13"/>
-      <c r="AB87" s="5"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y87" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB87" s="13"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
@@ -6250,29 +6473,32 @@
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
       <c r="AI87" s="5"/>
-    </row>
-    <row r="88" spans="1:35">
+      <c r="AJ87" s="5"/>
+    </row>
+    <row r="88" spans="1:36">
       <c r="A88" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="4">
+      <c r="K88" s="4"/>
+      <c r="L88" s="4">
         <v>796</v>
       </c>
-      <c r="L88" s="4">
+      <c r="M88" s="4">
         <v>325</v>
       </c>
-      <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
@@ -6282,18 +6508,18 @@
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
-      <c r="W88" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X88" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y88" s="7"/>
-      <c r="Z88" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA88" s="13"/>
-      <c r="AB88" s="5"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y88" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB88" s="13"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
@@ -6301,29 +6527,32 @@
       <c r="AG88" s="5"/>
       <c r="AH88" s="5"/>
       <c r="AI88" s="5"/>
-    </row>
-    <row r="89" spans="1:35">
+      <c r="AJ88" s="5"/>
+    </row>
+    <row r="89" spans="1:36">
       <c r="A89" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="4">
+      <c r="K89" s="4"/>
+      <c r="L89" s="4">
         <v>640</v>
       </c>
-      <c r="L89" s="4">
+      <c r="M89" s="4">
         <v>325</v>
       </c>
-      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
@@ -6333,18 +6562,18 @@
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
-      <c r="W89" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X89" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="7"/>
-      <c r="Z89" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA89" s="13"/>
-      <c r="AB89" s="5"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y89" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB89" s="13"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
@@ -6352,29 +6581,32 @@
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
       <c r="AI89" s="5"/>
-    </row>
-    <row r="90" spans="1:35">
+      <c r="AJ89" s="5"/>
+    </row>
+    <row r="90" spans="1:36">
       <c r="A90" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="4">
+      <c r="K90" s="4"/>
+      <c r="L90" s="4">
         <v>689</v>
       </c>
-      <c r="L90" s="4">
+      <c r="M90" s="4">
         <v>278</v>
       </c>
-      <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -6384,20 +6616,20 @@
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
-      <c r="W90" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X90" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA90" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB90" s="5"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y90" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="15"/>
+      <c r="AA90" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB90" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
@@ -6405,29 +6637,32 @@
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
       <c r="AI90" s="5"/>
-    </row>
-    <row r="91" spans="1:35">
+      <c r="AJ90" s="5"/>
+    </row>
+    <row r="91" spans="1:36">
       <c r="A91" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="4">
+      <c r="K91" s="4"/>
+      <c r="L91" s="4">
         <v>738</v>
       </c>
-      <c r="L91" s="4">
+      <c r="M91" s="4">
         <v>229</v>
       </c>
-      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -6437,20 +6672,20 @@
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
-      <c r="W91" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X91" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA91" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB91" s="5"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y91" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB91" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
@@ -6458,29 +6693,32 @@
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
       <c r="AI91" s="5"/>
-    </row>
-    <row r="92" spans="1:35">
+      <c r="AJ91" s="5"/>
+    </row>
+    <row r="92" spans="1:36">
       <c r="A92" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="4">
+      <c r="K92" s="4"/>
+      <c r="L92" s="4">
         <v>796</v>
       </c>
-      <c r="L92" s="4">
+      <c r="M92" s="4">
         <v>205</v>
       </c>
-      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
@@ -6490,18 +6728,18 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
-      <c r="W92" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X92" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y92" s="7"/>
-      <c r="Z92" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA92" s="13"/>
-      <c r="AB92" s="5"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB92" s="13"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
@@ -6509,29 +6747,32 @@
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
       <c r="AI92" s="5"/>
-    </row>
-    <row r="93" spans="1:35">
+      <c r="AJ92" s="5"/>
+    </row>
+    <row r="93" spans="1:36">
       <c r="A93" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="E93" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="4">
+      <c r="K93" s="4"/>
+      <c r="L93" s="4">
         <v>865</v>
       </c>
-      <c r="L93" s="4">
+      <c r="M93" s="4">
         <v>205</v>
       </c>
-      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
@@ -6541,18 +6782,18 @@
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
-      <c r="W93" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X93" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA93" s="13"/>
-      <c r="AB93" s="5"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y93" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB93" s="13"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
@@ -6560,29 +6801,32 @@
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
       <c r="AI93" s="5"/>
-    </row>
-    <row r="94" spans="1:35">
+      <c r="AJ93" s="5"/>
+    </row>
+    <row r="94" spans="1:36">
       <c r="A94" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="E94" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="4">
+      <c r="K94" s="4"/>
+      <c r="L94" s="4">
         <v>1109</v>
       </c>
-      <c r="L94" s="4">
+      <c r="M94" s="4">
         <v>205</v>
       </c>
-      <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
@@ -6592,18 +6836,18 @@
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
       <c r="V94" s="4"/>
-      <c r="W94" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X94" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA94" s="13"/>
-      <c r="AB94" s="5"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y94" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB94" s="13"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
@@ -6611,29 +6855,32 @@
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
       <c r="AI94" s="5"/>
-    </row>
-    <row r="95" spans="1:35">
+      <c r="AJ94" s="5"/>
+    </row>
+    <row r="95" spans="1:36">
       <c r="A95" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="E95" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="4">
+      <c r="K95" s="4"/>
+      <c r="L95" s="4">
         <v>865</v>
       </c>
-      <c r="L95" s="4">
+      <c r="M95" s="4">
         <v>325</v>
       </c>
-      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
@@ -6643,18 +6890,18 @@
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
-      <c r="W95" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X95" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA95" s="13"/>
-      <c r="AB95" s="5"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y95" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB95" s="13"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
@@ -6662,29 +6909,32 @@
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
       <c r="AI95" s="5"/>
-    </row>
-    <row r="96" spans="1:35">
+      <c r="AJ95" s="5"/>
+    </row>
+    <row r="96" spans="1:36">
       <c r="A96" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="4">
+      <c r="K96" s="4"/>
+      <c r="L96" s="4">
         <v>1109</v>
       </c>
-      <c r="L96" s="4">
+      <c r="M96" s="4">
         <v>325</v>
       </c>
-      <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
@@ -6694,18 +6944,18 @@
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
       <c r="V96" s="4"/>
-      <c r="W96" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X96" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA96" s="13"/>
-      <c r="AB96" s="5"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y96" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB96" s="13"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
@@ -6713,29 +6963,32 @@
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
       <c r="AI96" s="5"/>
-    </row>
-    <row r="97" spans="1:35">
+      <c r="AJ96" s="5"/>
+    </row>
+    <row r="97" spans="1:36">
       <c r="A97" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="E97" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="4">
+      <c r="K97" s="4"/>
+      <c r="L97" s="4">
         <v>865</v>
       </c>
-      <c r="L97" s="4">
+      <c r="M97" s="4">
         <v>385</v>
       </c>
-      <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -6745,18 +6998,18 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
       <c r="V97" s="4"/>
-      <c r="W97" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X97" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y97" s="7"/>
-      <c r="Z97" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA97" s="13"/>
-      <c r="AB97" s="5"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y97" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB97" s="13"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
@@ -6764,29 +7017,32 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
       <c r="AI97" s="5"/>
-    </row>
-    <row r="98" spans="1:35">
+      <c r="AJ97" s="5"/>
+    </row>
+    <row r="98" spans="1:36">
       <c r="A98" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="E98" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="4">
+      <c r="K98" s="4"/>
+      <c r="L98" s="4">
         <v>1109</v>
       </c>
-      <c r="L98" s="4">
+      <c r="M98" s="4">
         <v>385</v>
       </c>
-      <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -6796,18 +7052,18 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
       <c r="V98" s="4"/>
-      <c r="W98" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X98" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y98" s="7"/>
-      <c r="Z98" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA98" s="13"/>
-      <c r="AB98" s="5"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y98" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB98" s="13"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
@@ -6815,29 +7071,32 @@
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
       <c r="AI98" s="5"/>
-    </row>
-    <row r="99" spans="1:35">
+      <c r="AJ98" s="5"/>
+    </row>
+    <row r="99" spans="1:36">
       <c r="A99" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="E99" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="4">
+      <c r="K99" s="4"/>
+      <c r="L99" s="4">
         <v>1191</v>
       </c>
-      <c r="L99" s="4">
+      <c r="M99" s="4">
         <v>325</v>
       </c>
-      <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
@@ -6847,18 +7106,18 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
       <c r="V99" s="4"/>
-      <c r="W99" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X99" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y99" s="7"/>
-      <c r="Z99" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA99" s="13"/>
-      <c r="AB99" s="5"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y99" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB99" s="13"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
@@ -6866,29 +7125,32 @@
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
       <c r="AI99" s="5"/>
-    </row>
-    <row r="100" spans="1:35">
+      <c r="AJ99" s="5"/>
+    </row>
+    <row r="100" spans="1:36">
       <c r="A100" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="E100" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="4">
+      <c r="K100" s="4"/>
+      <c r="L100" s="4">
         <v>1245</v>
       </c>
-      <c r="L100" s="4">
+      <c r="M100" s="4">
         <v>325</v>
       </c>
-      <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
@@ -6898,18 +7160,18 @@
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
       <c r="V100" s="4"/>
-      <c r="W100" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X100" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="7"/>
-      <c r="Z100" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA100" s="13"/>
-      <c r="AB100" s="5"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y100" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB100" s="13"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
@@ -6917,29 +7179,32 @@
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
       <c r="AI100" s="5"/>
-    </row>
-    <row r="101" spans="1:35">
+      <c r="AJ100" s="5"/>
+    </row>
+    <row r="101" spans="1:36">
       <c r="A101" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="E101" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="4">
+      <c r="K101" s="4"/>
+      <c r="L101" s="4">
         <v>1242</v>
       </c>
-      <c r="L101" s="4">
+      <c r="M101" s="4">
         <v>385</v>
       </c>
-      <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
@@ -6949,18 +7214,18 @@
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
       <c r="V101" s="4"/>
-      <c r="W101" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X101" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="7"/>
-      <c r="Z101" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA101" s="13"/>
-      <c r="AB101" s="5"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y101" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB101" s="13"/>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
@@ -6968,29 +7233,32 @@
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
       <c r="AI101" s="5"/>
-    </row>
-    <row r="102" spans="1:35">
+      <c r="AJ101" s="5"/>
+    </row>
+    <row r="102" spans="1:36">
       <c r="A102" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
+      <c r="E102" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="4">
+      <c r="K102" s="4"/>
+      <c r="L102" s="4">
         <v>1287</v>
       </c>
-      <c r="L102" s="4">
+      <c r="M102" s="4">
         <v>385</v>
       </c>
-      <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
@@ -7000,18 +7268,18 @@
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
       <c r="V102" s="4"/>
-      <c r="W102" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X102" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="7"/>
-      <c r="Z102" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA102" s="13"/>
-      <c r="AB102" s="5"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y102" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB102" s="13"/>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
@@ -7019,29 +7287,32 @@
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
       <c r="AI102" s="5"/>
-    </row>
-    <row r="103" spans="1:35">
+      <c r="AJ102" s="5"/>
+    </row>
+    <row r="103" spans="1:36">
       <c r="A103" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="4">
+      <c r="K103" s="4"/>
+      <c r="L103" s="4">
         <v>1317</v>
       </c>
-      <c r="L103" s="4">
+      <c r="M103" s="4">
         <v>385</v>
       </c>
-      <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
@@ -7051,18 +7322,18 @@
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
       <c r="V103" s="4"/>
-      <c r="W103" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X103" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y103" s="7"/>
-      <c r="Z103" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA103" s="13"/>
-      <c r="AB103" s="5"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y103" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB103" s="13"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
@@ -7070,29 +7341,32 @@
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
       <c r="AI103" s="5"/>
-    </row>
-    <row r="104" spans="1:35">
+      <c r="AJ103" s="5"/>
+    </row>
+    <row r="104" spans="1:36">
       <c r="A104" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="4">
+      <c r="K104" s="4"/>
+      <c r="L104" s="4">
         <v>1347</v>
       </c>
-      <c r="L104" s="4">
+      <c r="M104" s="4">
         <v>385</v>
       </c>
-      <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
@@ -7102,18 +7376,18 @@
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4"/>
-      <c r="W104" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="X104" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y104" s="7"/>
-      <c r="Z104" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA104" s="13"/>
-      <c r="AB104" s="5"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y104" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB104" s="13"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
@@ -7121,29 +7395,32 @@
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
       <c r="AI104" s="5"/>
-    </row>
-    <row r="105" spans="1:35">
+      <c r="AJ104" s="5"/>
+    </row>
+    <row r="105" spans="1:36">
       <c r="A105" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="4">
+      <c r="K105" s="4"/>
+      <c r="L105" s="4">
         <v>1377</v>
       </c>
-      <c r="L105" s="4">
+      <c r="M105" s="4">
         <v>385</v>
       </c>
-      <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -7153,18 +7430,18 @@
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
-      <c r="W105" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="X105" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y105" s="15"/>
-      <c r="Z105" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA105" s="13"/>
-      <c r="AB105" s="5"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y105" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="15"/>
+      <c r="AA105" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB105" s="13"/>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
@@ -7172,29 +7449,32 @@
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
       <c r="AI105" s="5"/>
-    </row>
-    <row r="106" spans="1:35">
+      <c r="AJ105" s="5"/>
+    </row>
+    <row r="106" spans="1:36">
       <c r="A106" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
-      <c r="K106" s="4">
+      <c r="K106" s="4"/>
+      <c r="L106" s="4">
         <v>152</v>
       </c>
-      <c r="L106" s="4">
+      <c r="M106" s="4">
         <v>45</v>
       </c>
-      <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
@@ -7204,18 +7484,18 @@
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
-      <c r="W106" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X106" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y106" s="15"/>
-      <c r="Z106" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA106" s="13"/>
-      <c r="AB106" s="5"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y106" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="15"/>
+      <c r="AA106" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB106" s="13"/>
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
@@ -7223,29 +7503,32 @@
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
       <c r="AI106" s="5"/>
-    </row>
-    <row r="107" spans="1:35">
+      <c r="AJ106" s="5"/>
+    </row>
+    <row r="107" spans="1:36">
       <c r="A107" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+      <c r="E107" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
-      <c r="K107" s="4">
+      <c r="K107" s="4"/>
+      <c r="L107" s="4">
         <v>200</v>
       </c>
-      <c r="L107" s="4">
+      <c r="M107" s="4">
         <v>45</v>
       </c>
-      <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
@@ -7255,18 +7538,18 @@
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
-      <c r="W107" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X107" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y107" s="15"/>
-      <c r="Z107" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="5"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y107" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="15"/>
+      <c r="AA107" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB107" s="13"/>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
@@ -7274,29 +7557,32 @@
       <c r="AG107" s="5"/>
       <c r="AH107" s="5"/>
       <c r="AI107" s="5"/>
-    </row>
-    <row r="108" spans="1:35">
+      <c r="AJ107" s="5"/>
+    </row>
+    <row r="108" spans="1:36">
       <c r="A108" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
+      <c r="E108" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
-      <c r="K108" s="4">
+      <c r="K108" s="4"/>
+      <c r="L108" s="4">
         <v>696</v>
       </c>
-      <c r="L108" s="4">
+      <c r="M108" s="4">
         <v>567</v>
       </c>
-      <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
@@ -7306,18 +7592,18 @@
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
-      <c r="W108" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X108" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y108" s="15"/>
-      <c r="Z108" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA108" s="13"/>
-      <c r="AB108" s="5"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y108" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB108" s="13"/>
       <c r="AC108" s="5"/>
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
@@ -7325,29 +7611,32 @@
       <c r="AG108" s="5"/>
       <c r="AH108" s="5"/>
       <c r="AI108" s="5"/>
-    </row>
-    <row r="109" spans="1:35">
+      <c r="AJ108" s="5"/>
+    </row>
+    <row r="109" spans="1:36">
       <c r="A109" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="E109" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
-      <c r="K109" s="4">
+      <c r="K109" s="4"/>
+      <c r="L109" s="4">
         <v>734</v>
       </c>
-      <c r="L109" s="4">
+      <c r="M109" s="4">
         <v>567</v>
       </c>
-      <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
@@ -7357,18 +7646,18 @@
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
-      <c r="W109" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="X109" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y109" s="15"/>
-      <c r="Z109" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA109" s="11"/>
-      <c r="AB109" s="5"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y109" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB109" s="11"/>
       <c r="AC109" s="5"/>
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
@@ -7376,13 +7665,14 @@
       <c r="AG109" s="5"/>
       <c r="AH109" s="5"/>
       <c r="AI109" s="5"/>
-    </row>
-    <row r="110" spans="1:35">
+      <c r="AJ109" s="5"/>
+    </row>
+    <row r="110" spans="1:36">
       <c r="A110" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -7392,13 +7682,13 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
-      <c r="K110" s="4">
+      <c r="K110" s="4"/>
+      <c r="L110" s="4">
         <v>112</v>
       </c>
-      <c r="L110" s="4">
+      <c r="M110" s="4">
         <v>201</v>
       </c>
-      <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
@@ -7407,17 +7697,17 @@
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
-      <c r="V110" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="W110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
-      <c r="Z110" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA110" s="13"/>
-      <c r="AB110" s="5"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB110" s="13"/>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
@@ -7425,13 +7715,14 @@
       <c r="AG110" s="5"/>
       <c r="AH110" s="5"/>
       <c r="AI110" s="5"/>
-    </row>
-    <row r="111" spans="1:35">
+      <c r="AJ110" s="5"/>
+    </row>
+    <row r="111" spans="1:36">
       <c r="A111" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -7441,13 +7732,13 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
-      <c r="K111" s="4">
+      <c r="K111" s="4"/>
+      <c r="L111" s="4">
         <v>112</v>
       </c>
-      <c r="L111" s="4">
+      <c r="M111" s="4">
         <v>247</v>
       </c>
-      <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
@@ -7456,17 +7747,17 @@
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
-      <c r="V111" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="W111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
-      <c r="Z111" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA111" s="13"/>
-      <c r="AB111" s="5"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB111" s="13"/>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
@@ -7474,13 +7765,14 @@
       <c r="AG111" s="5"/>
       <c r="AH111" s="5"/>
       <c r="AI111" s="5"/>
-    </row>
-    <row r="112" spans="1:35">
+      <c r="AJ111" s="5"/>
+    </row>
+    <row r="112" spans="1:36">
       <c r="A112" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -7490,13 +7782,13 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="4">
+      <c r="K112" s="4"/>
+      <c r="L112" s="4">
         <v>262</v>
       </c>
-      <c r="L112" s="4">
+      <c r="M112" s="4">
         <v>201</v>
       </c>
-      <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
@@ -7505,17 +7797,17 @@
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
-      <c r="V112" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="W112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
-      <c r="Z112" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA112" s="13"/>
-      <c r="AB112" s="5"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB112" s="13"/>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
@@ -7523,13 +7815,14 @@
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
       <c r="AI112" s="5"/>
-    </row>
-    <row r="113" spans="1:35">
+      <c r="AJ112" s="5"/>
+    </row>
+    <row r="113" spans="1:36">
       <c r="A113" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -7539,13 +7832,13 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="4">
+      <c r="K113" s="4"/>
+      <c r="L113" s="4">
         <v>412</v>
       </c>
-      <c r="L113" s="4">
+      <c r="M113" s="4">
         <v>201</v>
       </c>
-      <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
@@ -7554,17 +7847,17 @@
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
-      <c r="V113" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="W113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
-      <c r="Z113" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA113" s="13"/>
-      <c r="AB113" s="5"/>
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB113" s="13"/>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
@@ -7572,13 +7865,14 @@
       <c r="AG113" s="5"/>
       <c r="AH113" s="5"/>
       <c r="AI113" s="5"/>
-    </row>
-    <row r="114" spans="1:35">
+      <c r="AJ113" s="5"/>
+    </row>
+    <row r="114" spans="1:36">
       <c r="A114" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -7588,13 +7882,13 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="4">
+      <c r="K114" s="4"/>
+      <c r="L114" s="4">
         <v>927</v>
       </c>
-      <c r="L114" s="4">
+      <c r="M114" s="4">
         <v>194</v>
       </c>
-      <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
@@ -7603,17 +7897,17 @@
       <c r="S114" s="4"/>
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
-      <c r="V114" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="W114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
-      <c r="Z114" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA114" s="13"/>
-      <c r="AB114" s="5"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB114" s="13"/>
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
@@ -7621,13 +7915,14 @@
       <c r="AG114" s="5"/>
       <c r="AH114" s="5"/>
       <c r="AI114" s="5"/>
-    </row>
-    <row r="115" spans="1:35">
+      <c r="AJ114" s="5"/>
+    </row>
+    <row r="115" spans="1:36">
       <c r="A115" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -7637,13 +7932,13 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
-      <c r="K115" s="4">
+      <c r="K115" s="4"/>
+      <c r="L115" s="4">
         <v>927</v>
       </c>
-      <c r="L115" s="4">
+      <c r="M115" s="4">
         <v>314</v>
       </c>
-      <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
@@ -7652,17 +7947,17 @@
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
-      <c r="V115" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="W115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
-      <c r="Z115" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA115" s="13"/>
-      <c r="AB115" s="5"/>
+      <c r="Z115" s="4"/>
+      <c r="AA115" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB115" s="13"/>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
@@ -7670,13 +7965,14 @@
       <c r="AG115" s="5"/>
       <c r="AH115" s="5"/>
       <c r="AI115" s="5"/>
-    </row>
-    <row r="116" spans="1:35">
+      <c r="AJ115" s="5"/>
+    </row>
+    <row r="116" spans="1:36">
       <c r="A116" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -7686,13 +7982,13 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
-      <c r="K116" s="4">
+      <c r="K116" s="4"/>
+      <c r="L116" s="4">
         <v>927</v>
       </c>
-      <c r="L116" s="4">
+      <c r="M116" s="4">
         <v>374</v>
       </c>
-      <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
@@ -7701,17 +7997,17 @@
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
-      <c r="V116" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="W116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
-      <c r="Z116" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA116" s="13"/>
-      <c r="AB116" s="5"/>
+      <c r="Z116" s="4"/>
+      <c r="AA116" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB116" s="13"/>
       <c r="AC116" s="5"/>
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
@@ -7719,13 +8015,14 @@
       <c r="AG116" s="5"/>
       <c r="AH116" s="5"/>
       <c r="AI116" s="5"/>
-    </row>
-    <row r="117" spans="1:35">
+      <c r="AJ116" s="5"/>
+    </row>
+    <row r="117" spans="1:36">
       <c r="A117" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -7735,13 +8032,13 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
-      <c r="K117" s="4">
+      <c r="K117" s="4"/>
+      <c r="L117" s="4">
         <v>1135</v>
       </c>
-      <c r="L117" s="4">
+      <c r="M117" s="4">
         <v>441</v>
       </c>
-      <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
@@ -7750,17 +8047,17 @@
       <c r="S117" s="4"/>
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
-      <c r="V117" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="W117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="10" t="s">
+        <v>210</v>
+      </c>
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
-      <c r="Z117" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA117" s="13"/>
-      <c r="AB117" s="5"/>
+      <c r="Z117" s="4"/>
+      <c r="AA117" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB117" s="13"/>
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
@@ -7768,13 +8065,14 @@
       <c r="AG117" s="5"/>
       <c r="AH117" s="5"/>
       <c r="AI117" s="5"/>
-    </row>
-    <row r="118" spans="1:35">
+      <c r="AJ117" s="5"/>
+    </row>
+    <row r="118" spans="1:36">
       <c r="A118" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -7784,13 +8082,13 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
-      <c r="K118" s="4">
+      <c r="K118" s="4"/>
+      <c r="L118" s="4">
         <v>1285</v>
       </c>
-      <c r="L118" s="4">
+      <c r="M118" s="4">
         <v>441</v>
       </c>
-      <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
@@ -7799,17 +8097,17 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
-      <c r="V118" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="W118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="10" t="s">
+        <v>211</v>
+      </c>
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
-      <c r="Z118" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA118" s="13"/>
-      <c r="AB118" s="5"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB118" s="13"/>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
@@ -7817,8 +8115,9 @@
       <c r="AG118" s="5"/>
       <c r="AH118" s="5"/>
       <c r="AI118" s="5"/>
-    </row>
-    <row r="119" spans="1:35">
+      <c r="AJ118" s="5"/>
+    </row>
+    <row r="119" spans="1:36">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7844,7 +8143,7 @@
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
-      <c r="Z119" s="5"/>
+      <c r="Z119" s="4"/>
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
@@ -7854,8 +8153,9 @@
       <c r="AG119" s="5"/>
       <c r="AH119" s="5"/>
       <c r="AI119" s="5"/>
-    </row>
-    <row r="120" spans="1:35">
+      <c r="AJ119" s="5"/>
+    </row>
+    <row r="120" spans="1:36">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7881,7 +8181,7 @@
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
       <c r="Y120" s="4"/>
-      <c r="Z120" s="5"/>
+      <c r="Z120" s="4"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
       <c r="AC120" s="5"/>
@@ -7891,8 +8191,9 @@
       <c r="AG120" s="5"/>
       <c r="AH120" s="5"/>
       <c r="AI120" s="5"/>
-    </row>
-    <row r="121" spans="1:35">
+      <c r="AJ120" s="5"/>
+    </row>
+    <row r="121" spans="1:36">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -7918,7 +8219,7 @@
       <c r="W121" s="4"/>
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
-      <c r="Z121" s="5"/>
+      <c r="Z121" s="4"/>
       <c r="AA121" s="5"/>
       <c r="AB121" s="5"/>
       <c r="AC121" s="5"/>
@@ -7928,6 +8229,7 @@
       <c r="AG121" s="5"/>
       <c r="AH121" s="5"/>
       <c r="AI121" s="5"/>
+      <c r="AJ121" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
@@ -7961,52 +8263,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="17" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="17" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="215">
   <si>
     <t>Type</t>
   </si>
@@ -356,6 +356,9 @@
     <t>1L</t>
   </si>
   <si>
+    <t>てこ</t>
+  </si>
+  <si>
     <t>-1,1</t>
   </si>
   <si>
@@ -470,6 +473,9 @@
     <t>T</t>
   </si>
   <si>
+    <t>着点ボタン</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -578,7 +584,7 @@
     <t>解放98_PY</t>
   </si>
   <si>
-    <t>てこ</t>
+    <t>解放てこ</t>
   </si>
   <si>
     <t>駅扱切換</t>
@@ -594,6 +600,9 @@
   </si>
   <si>
     <t>駅扱切換_PY</t>
+  </si>
+  <si>
+    <t>駅扱切換てこ</t>
   </si>
   <si>
     <t>駅扱切換_PG</t>
@@ -1022,6 +1031,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1033,9 +1045,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1574,7 +1583,9 @@
         <v>39</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1599,19 +1610,19 @@
         <v>39</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W6" s="18">
         <v>-1.0</v>
       </c>
       <c r="X6" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
@@ -1624,10 +1635,10 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>39</v>
@@ -1660,10 +1671,10 @@
         <v>10.0</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U7" s="21" t="s">
         <v>39</v>
@@ -1687,10 +1698,12 @@
         <v>38</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1712,22 +1725,22 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W8" s="18">
         <v>0.0</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y8" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
@@ -1743,14 +1756,14 @@
         <v>29</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1773,17 +1786,17 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W9" s="18">
         <v>0.0</v>
       </c>
       <c r="X9" s="14"/>
       <c r="Y9" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
@@ -1799,14 +1812,14 @@
         <v>29</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1829,14 +1842,14 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W10" s="18">
         <v>0.0</v>
       </c>
       <c r="X10" s="14"/>
       <c r="Y10" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z10" s="24"/>
       <c r="AA10" s="7"/>
@@ -1850,13 +1863,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="5"/>
@@ -1886,13 +1899,13 @@
         <v>10.0</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -1913,10 +1926,12 @@
         <v>38</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1938,19 +1953,19 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W12" s="18">
         <v>0.0</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z12" s="24"/>
       <c r="AA12" s="7"/>
@@ -1967,14 +1982,14 @@
         <v>29</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1997,14 +2012,14 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W13" s="18">
         <v>0.0</v>
       </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z13" s="24"/>
       <c r="AA13" s="7"/>
@@ -2018,13 +2033,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="5"/>
@@ -2054,13 +2069,13 @@
         <v>10.0</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
@@ -2081,10 +2096,12 @@
         <v>38</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2106,19 +2123,19 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V15" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W15" s="18">
         <v>0.0</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z15" s="24"/>
       <c r="AA15" s="7"/>
@@ -2135,14 +2152,14 @@
         <v>29</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2165,14 +2182,14 @@
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W16" s="18">
         <v>0.0</v>
       </c>
       <c r="X16" s="14"/>
       <c r="Y16" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z16" s="24"/>
       <c r="AA16" s="7"/>
@@ -2186,13 +2203,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="5"/>
@@ -2222,13 +2239,13 @@
         <v>10.0</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T17" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
@@ -2249,10 +2266,12 @@
         <v>38</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -2274,19 +2293,19 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V18" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W18" s="18">
         <v>0.0</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Z18" s="24"/>
       <c r="AA18" s="7"/>
@@ -2303,14 +2322,14 @@
         <v>29</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -2333,14 +2352,14 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W19" s="18">
         <v>0.0</v>
       </c>
       <c r="X19" s="14"/>
       <c r="Y19" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z19" s="24"/>
       <c r="AA19" s="7"/>
@@ -2354,13 +2373,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="5"/>
@@ -2390,13 +2409,13 @@
         <v>10.0</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
@@ -2417,10 +2436,12 @@
         <v>38</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -2442,19 +2463,19 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W21" s="18">
         <v>0.0</v>
       </c>
       <c r="X21" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Z21" s="24"/>
       <c r="AA21" s="7"/>
@@ -2471,14 +2492,14 @@
         <v>29</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -2501,14 +2522,14 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W22" s="18">
         <v>0.0</v>
       </c>
       <c r="X22" s="14"/>
       <c r="Y22" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z22" s="24"/>
       <c r="AA22" s="7"/>
@@ -2522,13 +2543,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="5"/>
@@ -2558,13 +2579,13 @@
         <v>10.0</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
@@ -2582,13 +2603,15 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -2610,19 +2633,19 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W24" s="18">
         <v>0.0</v>
       </c>
       <c r="X24" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z24" s="24"/>
       <c r="AA24" s="7"/>
@@ -2636,13 +2659,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="5"/>
@@ -2666,19 +2689,19 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" s="18">
         <v>10.0</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
@@ -2696,13 +2719,15 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2724,19 +2749,19 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="W26" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="X26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y26" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="V26" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="W26" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="X26" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y26" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="Z26" s="24"/>
       <c r="AA26" s="7"/>
@@ -2750,13 +2775,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="5"/>
@@ -2780,19 +2805,19 @@
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R27" s="18">
         <v>10.0</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T27" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U27" s="21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
@@ -2810,13 +2835,15 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -2838,19 +2865,19 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V28" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W28" s="18">
         <v>0.0</v>
       </c>
       <c r="X28" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y28" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z28" s="24"/>
       <c r="AA28" s="7"/>
@@ -2864,13 +2891,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="5"/>
@@ -2894,19 +2921,19 @@
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R29" s="18">
         <v>10.0</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T29" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
@@ -2924,13 +2951,15 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2952,19 +2981,19 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V30" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W30" s="18">
         <v>0.0</v>
       </c>
       <c r="X30" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y30" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z30" s="24"/>
       <c r="AA30" s="7"/>
@@ -2978,13 +3007,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="5"/>
@@ -3008,19 +3037,19 @@
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R31" s="18">
         <v>10.0</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T31" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U31" s="21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
@@ -3038,13 +3067,15 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -3066,19 +3097,19 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V32" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W32" s="18">
         <v>0.0</v>
       </c>
       <c r="X32" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y32" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z32" s="24"/>
       <c r="AA32" s="7"/>
@@ -3092,13 +3123,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="5"/>
@@ -3122,19 +3153,19 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R33" s="18">
         <v>10.0</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T33" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U33" s="21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
@@ -3152,10 +3183,10 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3180,19 +3211,19 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V34" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W34" s="25">
         <v>0.0</v>
       </c>
       <c r="X34" s="26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y34" s="27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Z34" s="24"/>
       <c r="AA34" s="7"/>
@@ -3206,10 +3237,10 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3234,19 +3265,19 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="V35" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="W35" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="X35" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="V35" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="W35" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="X35" s="26" t="s">
-        <v>90</v>
-      </c>
       <c r="Y35" s="27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Z35" s="24"/>
       <c r="AA35" s="7"/>
@@ -3263,10 +3294,12 @@
         <v>38</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -3288,22 +3321,22 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V36" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W36" s="18">
         <v>0.0</v>
       </c>
       <c r="X36" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y36" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z36" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
@@ -3319,11 +3352,11 @@
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="5"/>
@@ -3347,14 +3380,14 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W37" s="18">
         <v>0.0</v>
       </c>
       <c r="X37" s="14"/>
       <c r="Y37" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Z37" s="20"/>
       <c r="AA37" s="7"/>
@@ -3371,11 +3404,11 @@
         <v>29</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="5"/>
@@ -3399,14 +3432,14 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W38" s="18">
         <v>0.0</v>
       </c>
       <c r="X38" s="14"/>
       <c r="Y38" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z38" s="24"/>
       <c r="AA38" s="7"/>
@@ -3420,13 +3453,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="5"/>
@@ -3456,13 +3489,13 @@
         <v>10.0</v>
       </c>
       <c r="S39" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T39" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U39" s="21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -3483,10 +3516,12 @@
         <v>38</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -3508,19 +3543,19 @@
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V40" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W40" s="18">
         <v>0.0</v>
       </c>
       <c r="X40" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y40" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z40" s="24"/>
       <c r="AA40" s="7"/>
@@ -3537,11 +3572,11 @@
         <v>29</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="5"/>
@@ -3565,14 +3600,14 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W41" s="18">
         <v>0.0</v>
       </c>
       <c r="X41" s="14"/>
       <c r="Y41" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Z41" s="24"/>
       <c r="AA41" s="7"/>
@@ -3589,11 +3624,11 @@
         <v>29</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="5"/>
@@ -3617,14 +3652,14 @@
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W42" s="18">
         <v>0.0</v>
       </c>
       <c r="X42" s="14"/>
       <c r="Y42" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z42" s="24"/>
       <c r="AA42" s="7"/>
@@ -3638,13 +3673,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="5"/>
@@ -3674,13 +3709,13 @@
         <v>10.0</v>
       </c>
       <c r="S43" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T43" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U43" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
@@ -3698,13 +3733,15 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -3726,22 +3763,22 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="V44" s="18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W44" s="22">
         <v>0.0</v>
       </c>
       <c r="X44" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Y44" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z44" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -3757,11 +3794,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -3785,14 +3822,14 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W45" s="18">
         <v>0.0</v>
       </c>
       <c r="X45" s="14"/>
       <c r="Y45" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z45" s="24"/>
       <c r="AA45" s="7"/>
@@ -3806,13 +3843,15 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3834,22 +3873,22 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="V46" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W46" s="18">
         <v>1.0</v>
       </c>
       <c r="X46" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y46" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Z46" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
@@ -3865,11 +3904,11 @@
         <v>29</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="4" t="s">
-        <v>114</v>
+      <c r="D47" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -3893,14 +3932,14 @@
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W47" s="18">
         <v>0.0</v>
       </c>
       <c r="X47" s="14"/>
       <c r="Y47" s="11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z47" s="24"/>
       <c r="AA47" s="7"/>
@@ -3917,11 +3956,11 @@
         <v>29</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="4" t="s">
-        <v>114</v>
+      <c r="D48" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -3945,14 +3984,14 @@
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W48" s="18">
         <v>0.0</v>
       </c>
       <c r="X48" s="14"/>
       <c r="Y48" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Z48" s="24"/>
       <c r="AA48" s="7"/>
@@ -3969,11 +4008,11 @@
         <v>29</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -3997,17 +4036,17 @@
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W49" s="18">
         <v>0.0</v>
       </c>
       <c r="X49" s="14"/>
       <c r="Y49" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z49" s="20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
@@ -4023,11 +4062,11 @@
         <v>29</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -4051,14 +4090,14 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W50" s="18">
         <v>0.0</v>
       </c>
       <c r="X50" s="14"/>
       <c r="Y50" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z50" s="24"/>
       <c r="AA50" s="7"/>
@@ -4075,11 +4114,11 @@
         <v>29</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -4103,14 +4142,14 @@
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W51" s="18">
         <v>0.0</v>
       </c>
       <c r="X51" s="14"/>
       <c r="Y51" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z51" s="24"/>
       <c r="AA51" s="7"/>
@@ -4127,11 +4166,11 @@
         <v>29</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -4155,17 +4194,17 @@
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W52" s="25">
         <v>0.0</v>
       </c>
-      <c r="X52" s="28"/>
+      <c r="X52" s="29"/>
       <c r="Y52" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z52" s="29" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="Z52" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
@@ -4181,11 +4220,11 @@
         <v>29</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -4209,14 +4248,14 @@
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W53" s="18">
         <v>0.0</v>
       </c>
       <c r="X53" s="14"/>
       <c r="Y53" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z53" s="24"/>
       <c r="AA53" s="7"/>
@@ -4233,11 +4272,11 @@
         <v>29</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -4261,14 +4300,14 @@
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W54" s="18">
         <v>0.0</v>
       </c>
       <c r="X54" s="14"/>
       <c r="Y54" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z54" s="24"/>
       <c r="AA54" s="7"/>
@@ -4285,11 +4324,11 @@
         <v>29</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -4313,14 +4352,14 @@
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W55" s="18">
         <v>0.0</v>
       </c>
       <c r="X55" s="14"/>
       <c r="Y55" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z55" s="24"/>
       <c r="AA55" s="7"/>
@@ -4337,11 +4376,11 @@
         <v>29</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -4365,14 +4404,14 @@
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W56" s="18">
         <v>0.0</v>
       </c>
       <c r="X56" s="14"/>
       <c r="Y56" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z56" s="24"/>
       <c r="AA56" s="7"/>
@@ -4389,11 +4428,11 @@
         <v>29</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -4417,14 +4456,14 @@
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W57" s="18">
         <v>0.0</v>
       </c>
       <c r="X57" s="14"/>
       <c r="Y57" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z57" s="24"/>
       <c r="AA57" s="7"/>
@@ -4441,11 +4480,11 @@
         <v>29</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -4469,14 +4508,14 @@
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W58" s="18">
         <v>0.0</v>
       </c>
       <c r="X58" s="14"/>
       <c r="Y58" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z58" s="24"/>
       <c r="AA58" s="7"/>
@@ -4493,11 +4532,11 @@
         <v>29</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -4521,14 +4560,14 @@
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
       <c r="V59" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W59" s="18">
         <v>0.0</v>
       </c>
       <c r="X59" s="14"/>
       <c r="Y59" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z59" s="24"/>
       <c r="AA59" s="7"/>
@@ -4545,11 +4584,11 @@
         <v>29</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -4573,14 +4612,14 @@
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
       <c r="V60" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W60" s="18">
         <v>0.0</v>
       </c>
       <c r="X60" s="14"/>
       <c r="Y60" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z60" s="24"/>
       <c r="AA60" s="7"/>
@@ -4597,11 +4636,11 @@
         <v>29</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -4625,14 +4664,14 @@
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W61" s="18">
         <v>0.0</v>
       </c>
       <c r="X61" s="14"/>
       <c r="Y61" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z61" s="24"/>
       <c r="AA61" s="7"/>
@@ -4649,11 +4688,11 @@
         <v>29</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -4677,14 +4716,14 @@
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W62" s="18">
         <v>0.0</v>
       </c>
       <c r="X62" s="14"/>
       <c r="Y62" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z62" s="24"/>
       <c r="AA62" s="7"/>
@@ -4701,11 +4740,11 @@
         <v>29</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
@@ -4729,17 +4768,17 @@
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W63" s="25">
         <v>0.0</v>
       </c>
-      <c r="X63" s="28"/>
+      <c r="X63" s="29"/>
       <c r="Y63" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z63" s="29" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="Z63" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
@@ -4755,11 +4794,11 @@
         <v>29</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -4783,14 +4822,14 @@
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W64" s="18">
         <v>0.0</v>
       </c>
       <c r="X64" s="14"/>
       <c r="Y64" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z64" s="24"/>
       <c r="AA64" s="7"/>
@@ -4807,11 +4846,11 @@
         <v>29</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -4835,14 +4874,14 @@
       <c r="T65" s="5"/>
       <c r="U65" s="5"/>
       <c r="V65" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W65" s="18">
         <v>0.0</v>
       </c>
       <c r="X65" s="14"/>
       <c r="Y65" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z65" s="24"/>
       <c r="AA65" s="7"/>
@@ -4859,11 +4898,11 @@
         <v>29</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -4887,14 +4926,14 @@
       <c r="T66" s="5"/>
       <c r="U66" s="5"/>
       <c r="V66" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W66" s="18">
         <v>0.0</v>
       </c>
       <c r="X66" s="14"/>
       <c r="Y66" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z66" s="24"/>
       <c r="AA66" s="7"/>
@@ -4911,11 +4950,11 @@
         <v>29</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -4939,14 +4978,14 @@
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W67" s="18">
         <v>0.0</v>
       </c>
       <c r="X67" s="14"/>
       <c r="Y67" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z67" s="24"/>
       <c r="AA67" s="7"/>
@@ -4963,11 +5002,11 @@
         <v>29</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -4991,17 +5030,17 @@
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
       <c r="V68" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W68" s="25">
         <v>0.0</v>
       </c>
-      <c r="X68" s="28"/>
+      <c r="X68" s="29"/>
       <c r="Y68" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z68" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="Z68" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="AA68" s="7"/>
       <c r="AB68" s="7"/>
@@ -5017,11 +5056,11 @@
         <v>29</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -5045,17 +5084,17 @@
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W69" s="25">
         <v>0.0</v>
       </c>
-      <c r="X69" s="28"/>
+      <c r="X69" s="29"/>
       <c r="Y69" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z69" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="Z69" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
@@ -5071,11 +5110,11 @@
         <v>29</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -5099,17 +5138,17 @@
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W70" s="25">
         <v>0.0</v>
       </c>
-      <c r="X70" s="28"/>
+      <c r="X70" s="29"/>
       <c r="Y70" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z70" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="Z70" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
@@ -5125,11 +5164,11 @@
         <v>29</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -5153,17 +5192,17 @@
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
       <c r="V71" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W71" s="25">
         <v>0.0</v>
       </c>
-      <c r="X71" s="28"/>
+      <c r="X71" s="29"/>
       <c r="Y71" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z71" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="Z71" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
@@ -5179,11 +5218,11 @@
         <v>29</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -5207,14 +5246,14 @@
       <c r="T72" s="5"/>
       <c r="U72" s="5"/>
       <c r="V72" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W72" s="18">
         <v>0.0</v>
       </c>
       <c r="X72" s="14"/>
       <c r="Y72" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z72" s="24"/>
       <c r="AA72" s="7"/>
@@ -5231,11 +5270,11 @@
         <v>29</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -5259,14 +5298,14 @@
       <c r="T73" s="5"/>
       <c r="U73" s="5"/>
       <c r="V73" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W73" s="18">
         <v>0.0</v>
       </c>
       <c r="X73" s="14"/>
       <c r="Y73" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z73" s="24"/>
       <c r="AA73" s="7"/>
@@ -5283,11 +5322,11 @@
         <v>29</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -5311,14 +5350,14 @@
       <c r="T74" s="5"/>
       <c r="U74" s="5"/>
       <c r="V74" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W74" s="18">
         <v>0.0</v>
       </c>
       <c r="X74" s="14"/>
       <c r="Y74" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z74" s="24"/>
       <c r="AA74" s="7"/>
@@ -5335,11 +5374,11 @@
         <v>29</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -5363,14 +5402,14 @@
       <c r="T75" s="5"/>
       <c r="U75" s="5"/>
       <c r="V75" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W75" s="18">
         <v>0.0</v>
       </c>
       <c r="X75" s="14"/>
       <c r="Y75" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z75" s="24"/>
       <c r="AA75" s="7"/>
@@ -5387,11 +5426,11 @@
         <v>29</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -5415,14 +5454,14 @@
       <c r="T76" s="5"/>
       <c r="U76" s="5"/>
       <c r="V76" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W76" s="18">
         <v>0.0</v>
       </c>
       <c r="X76" s="14"/>
       <c r="Y76" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z76" s="24"/>
       <c r="AA76" s="7"/>
@@ -5439,11 +5478,11 @@
         <v>29</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -5467,17 +5506,17 @@
       <c r="T77" s="5"/>
       <c r="U77" s="5"/>
       <c r="V77" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W77" s="25">
         <v>0.0</v>
       </c>
-      <c r="X77" s="28"/>
+      <c r="X77" s="29"/>
       <c r="Y77" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z77" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="Z77" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="AA77" s="7"/>
       <c r="AB77" s="7"/>
@@ -5493,11 +5532,11 @@
         <v>29</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -5521,14 +5560,14 @@
       <c r="T78" s="5"/>
       <c r="U78" s="5"/>
       <c r="V78" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W78" s="18">
         <v>0.0</v>
       </c>
       <c r="X78" s="14"/>
       <c r="Y78" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z78" s="24"/>
       <c r="AA78" s="7"/>
@@ -5545,11 +5584,11 @@
         <v>29</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -5573,14 +5612,14 @@
       <c r="T79" s="5"/>
       <c r="U79" s="5"/>
       <c r="V79" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W79" s="18">
         <v>0.0</v>
       </c>
       <c r="X79" s="14"/>
       <c r="Y79" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z79" s="24"/>
       <c r="AA79" s="7"/>
@@ -5597,11 +5636,11 @@
         <v>29</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -5625,14 +5664,14 @@
       <c r="T80" s="5"/>
       <c r="U80" s="5"/>
       <c r="V80" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W80" s="18">
         <v>0.0</v>
       </c>
       <c r="X80" s="14"/>
       <c r="Y80" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z80" s="24"/>
       <c r="AA80" s="7"/>
@@ -5649,11 +5688,11 @@
         <v>29</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
@@ -5677,14 +5716,14 @@
       <c r="T81" s="5"/>
       <c r="U81" s="5"/>
       <c r="V81" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W81" s="25">
         <v>0.0</v>
       </c>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="30" t="s">
-        <v>167</v>
+      <c r="X81" s="29"/>
+      <c r="Y81" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="Z81" s="20"/>
       <c r="AA81" s="7"/>
@@ -5701,11 +5740,11 @@
         <v>29</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
@@ -5729,17 +5768,17 @@
       <c r="T82" s="5"/>
       <c r="U82" s="5"/>
       <c r="V82" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W82" s="25">
         <v>0.0</v>
       </c>
-      <c r="X82" s="28"/>
+      <c r="X82" s="29"/>
       <c r="Y82" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z82" s="29" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="Z82" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="AA82" s="7"/>
       <c r="AB82" s="7"/>
@@ -5755,11 +5794,11 @@
         <v>29</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -5783,14 +5822,14 @@
       <c r="T83" s="5"/>
       <c r="U83" s="5"/>
       <c r="V83" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W83" s="18">
         <v>0.0</v>
       </c>
       <c r="X83" s="14"/>
       <c r="Y83" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z83" s="24"/>
       <c r="AA83" s="7"/>
@@ -5807,11 +5846,11 @@
         <v>29</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
@@ -5835,14 +5874,14 @@
       <c r="T84" s="5"/>
       <c r="U84" s="5"/>
       <c r="V84" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W84" s="18">
         <v>0.0</v>
       </c>
       <c r="X84" s="14"/>
       <c r="Y84" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z84" s="24"/>
       <c r="AA84" s="7"/>
@@ -5859,11 +5898,11 @@
         <v>29</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
@@ -5887,14 +5926,14 @@
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
       <c r="V85" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W85" s="18">
         <v>0.0</v>
       </c>
       <c r="X85" s="14"/>
       <c r="Y85" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z85" s="24"/>
       <c r="AA85" s="7"/>
@@ -5911,11 +5950,11 @@
         <v>29</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
@@ -5939,14 +5978,14 @@
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
       <c r="V86" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W86" s="18">
         <v>0.0</v>
       </c>
       <c r="X86" s="14"/>
       <c r="Y86" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z86" s="24"/>
       <c r="AA86" s="7"/>
@@ -5963,11 +6002,11 @@
         <v>29</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -5991,14 +6030,14 @@
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W87" s="18">
         <v>0.0</v>
       </c>
       <c r="X87" s="14"/>
       <c r="Y87" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z87" s="24"/>
       <c r="AA87" s="7"/>
@@ -6015,11 +6054,11 @@
         <v>29</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -6043,14 +6082,14 @@
       <c r="T88" s="5"/>
       <c r="U88" s="5"/>
       <c r="V88" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W88" s="18">
         <v>0.0</v>
       </c>
       <c r="X88" s="14"/>
       <c r="Y88" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z88" s="24"/>
       <c r="AA88" s="7"/>
@@ -6067,11 +6106,11 @@
         <v>29</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -6095,14 +6134,14 @@
       <c r="T89" s="5"/>
       <c r="U89" s="5"/>
       <c r="V89" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W89" s="18">
         <v>0.0</v>
       </c>
       <c r="X89" s="14"/>
       <c r="Y89" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z89" s="24"/>
       <c r="AA89" s="7"/>
@@ -6119,11 +6158,11 @@
         <v>29</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -6147,17 +6186,17 @@
       <c r="T90" s="5"/>
       <c r="U90" s="5"/>
       <c r="V90" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W90" s="25">
         <v>0.0</v>
       </c>
-      <c r="X90" s="28"/>
+      <c r="X90" s="29"/>
       <c r="Y90" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z90" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="Z90" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="AA90" s="7"/>
       <c r="AB90" s="7"/>
@@ -6173,11 +6212,11 @@
         <v>29</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -6201,17 +6240,17 @@
       <c r="T91" s="5"/>
       <c r="U91" s="5"/>
       <c r="V91" s="25" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W91" s="25">
         <v>0.0</v>
       </c>
-      <c r="X91" s="28"/>
+      <c r="X91" s="29"/>
       <c r="Y91" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z91" s="29" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="Z91" s="30" t="s">
+        <v>153</v>
       </c>
       <c r="AA91" s="7"/>
       <c r="AB91" s="7"/>
@@ -6227,11 +6266,11 @@
         <v>29</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
@@ -6255,14 +6294,14 @@
       <c r="T92" s="5"/>
       <c r="U92" s="5"/>
       <c r="V92" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W92" s="18">
         <v>0.0</v>
       </c>
       <c r="X92" s="14"/>
       <c r="Y92" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z92" s="24"/>
       <c r="AA92" s="7"/>
@@ -6279,11 +6318,11 @@
         <v>29</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -6307,14 +6346,14 @@
       <c r="T93" s="5"/>
       <c r="U93" s="5"/>
       <c r="V93" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W93" s="18">
         <v>0.0</v>
       </c>
       <c r="X93" s="14"/>
       <c r="Y93" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z93" s="24"/>
       <c r="AA93" s="7"/>
@@ -6331,11 +6370,11 @@
         <v>29</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
@@ -6359,14 +6398,14 @@
       <c r="T94" s="5"/>
       <c r="U94" s="5"/>
       <c r="V94" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W94" s="18">
         <v>0.0</v>
       </c>
       <c r="X94" s="14"/>
       <c r="Y94" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z94" s="24"/>
       <c r="AA94" s="7"/>
@@ -6383,11 +6422,11 @@
         <v>29</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -6411,14 +6450,14 @@
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
       <c r="V95" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W95" s="18">
         <v>0.0</v>
       </c>
       <c r="X95" s="14"/>
       <c r="Y95" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z95" s="24"/>
       <c r="AA95" s="7"/>
@@ -6435,11 +6474,11 @@
         <v>29</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
@@ -6463,14 +6502,14 @@
       <c r="T96" s="5"/>
       <c r="U96" s="5"/>
       <c r="V96" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W96" s="18">
         <v>0.0</v>
       </c>
       <c r="X96" s="14"/>
       <c r="Y96" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z96" s="24"/>
       <c r="AA96" s="7"/>
@@ -6487,11 +6526,11 @@
         <v>29</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
@@ -6515,14 +6554,14 @@
       <c r="T97" s="5"/>
       <c r="U97" s="5"/>
       <c r="V97" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W97" s="18">
         <v>0.0</v>
       </c>
       <c r="X97" s="14"/>
       <c r="Y97" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z97" s="24"/>
       <c r="AA97" s="7"/>
@@ -6539,11 +6578,11 @@
         <v>29</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
@@ -6567,14 +6606,14 @@
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
       <c r="V98" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W98" s="18">
         <v>0.0</v>
       </c>
       <c r="X98" s="14"/>
       <c r="Y98" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z98" s="24"/>
       <c r="AA98" s="7"/>
@@ -6591,11 +6630,11 @@
         <v>29</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -6619,14 +6658,14 @@
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
       <c r="V99" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W99" s="18">
         <v>0.0</v>
       </c>
       <c r="X99" s="14"/>
       <c r="Y99" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z99" s="24"/>
       <c r="AA99" s="7"/>
@@ -6643,11 +6682,11 @@
         <v>29</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -6671,14 +6710,14 @@
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W100" s="18">
         <v>0.0</v>
       </c>
       <c r="X100" s="14"/>
       <c r="Y100" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z100" s="24"/>
       <c r="AA100" s="7"/>
@@ -6695,11 +6734,11 @@
         <v>29</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -6723,14 +6762,14 @@
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
       <c r="V101" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W101" s="18">
         <v>0.0</v>
       </c>
       <c r="X101" s="14"/>
       <c r="Y101" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z101" s="24"/>
       <c r="AA101" s="7"/>
@@ -6747,11 +6786,11 @@
         <v>29</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
@@ -6775,14 +6814,14 @@
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W102" s="18">
         <v>0.0</v>
       </c>
       <c r="X102" s="14"/>
       <c r="Y102" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z102" s="24"/>
       <c r="AA102" s="7"/>
@@ -6799,11 +6838,11 @@
         <v>29</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -6827,14 +6866,14 @@
       <c r="T103" s="5"/>
       <c r="U103" s="5"/>
       <c r="V103" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W103" s="18">
         <v>0.0</v>
       </c>
       <c r="X103" s="14"/>
       <c r="Y103" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z103" s="24"/>
       <c r="AA103" s="7"/>
@@ -6851,11 +6890,11 @@
         <v>29</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -6879,14 +6918,14 @@
       <c r="T104" s="5"/>
       <c r="U104" s="5"/>
       <c r="V104" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="W104" s="18">
         <v>0.0</v>
       </c>
       <c r="X104" s="14"/>
       <c r="Y104" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z104" s="24"/>
       <c r="AA104" s="7"/>
@@ -6903,11 +6942,11 @@
         <v>29</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -6930,15 +6969,15 @@
       <c r="S105" s="5"/>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
-      <c r="V105" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="W105" s="31">
-        <v>0.0</v>
-      </c>
-      <c r="X105" s="28"/>
+      <c r="V105" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="W105" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="X105" s="29"/>
       <c r="Y105" s="27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Z105" s="24"/>
       <c r="AA105" s="7"/>
@@ -6955,11 +6994,11 @@
         <v>29</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -6983,14 +7022,14 @@
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
       <c r="V106" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W106" s="25">
         <v>0.0</v>
       </c>
-      <c r="X106" s="28"/>
-      <c r="Y106" s="30" t="s">
-        <v>167</v>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="Z106" s="24"/>
       <c r="AA106" s="7"/>
@@ -7007,11 +7046,11 @@
         <v>29</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
@@ -7035,14 +7074,14 @@
       <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="V107" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W107" s="25">
         <v>0.0</v>
       </c>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="30" t="s">
-        <v>167</v>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="Z107" s="24"/>
       <c r="AA107" s="7"/>
@@ -7059,11 +7098,11 @@
         <v>29</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -7087,14 +7126,14 @@
       <c r="T108" s="5"/>
       <c r="U108" s="5"/>
       <c r="V108" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W108" s="25">
         <v>0.0</v>
       </c>
-      <c r="X108" s="28"/>
-      <c r="Y108" s="30" t="s">
-        <v>167</v>
+      <c r="X108" s="29"/>
+      <c r="Y108" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="Z108" s="24"/>
       <c r="AA108" s="7"/>
@@ -7111,11 +7150,11 @@
         <v>29</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
@@ -7139,14 +7178,14 @@
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W109" s="25">
         <v>0.0</v>
       </c>
-      <c r="X109" s="28"/>
-      <c r="Y109" s="30" t="s">
-        <v>167</v>
+      <c r="X109" s="29"/>
+      <c r="Y109" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="Z109" s="20"/>
       <c r="AA109" s="7"/>
@@ -7160,14 +7199,14 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="32" t="s">
-        <v>198</v>
+      <c r="D110" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -7194,7 +7233,7 @@
       <c r="W110" s="5"/>
       <c r="X110" s="5"/>
       <c r="Y110" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z110" s="24"/>
       <c r="AA110" s="7"/>
@@ -7208,14 +7247,14 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C111" s="5"/>
-      <c r="D111" s="32" t="s">
-        <v>198</v>
+      <c r="D111" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -7242,7 +7281,7 @@
       <c r="W111" s="5"/>
       <c r="X111" s="5"/>
       <c r="Y111" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z111" s="24"/>
       <c r="AA111" s="7"/>
@@ -7256,14 +7295,14 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B112" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="28" t="s">
         <v>201</v>
-      </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="32" t="s">
-        <v>198</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
@@ -7290,7 +7329,7 @@
       <c r="W112" s="5"/>
       <c r="X112" s="5"/>
       <c r="Y112" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z112" s="24"/>
       <c r="AA112" s="7"/>
@@ -7304,14 +7343,14 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="32" t="s">
-        <v>198</v>
+      <c r="D113" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
@@ -7338,7 +7377,7 @@
       <c r="W113" s="5"/>
       <c r="X113" s="5"/>
       <c r="Y113" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z113" s="24"/>
       <c r="AA113" s="7"/>
@@ -7352,14 +7391,14 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="32" t="s">
-        <v>198</v>
+      <c r="D114" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -7386,7 +7425,7 @@
       <c r="W114" s="5"/>
       <c r="X114" s="5"/>
       <c r="Y114" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z114" s="24"/>
       <c r="AA114" s="7"/>
@@ -7400,14 +7439,14 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C115" s="5"/>
-      <c r="D115" s="32" t="s">
-        <v>198</v>
+      <c r="D115" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
@@ -7434,7 +7473,7 @@
       <c r="W115" s="5"/>
       <c r="X115" s="5"/>
       <c r="Y115" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z115" s="24"/>
       <c r="AA115" s="7"/>
@@ -7448,14 +7487,14 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="32" t="s">
-        <v>198</v>
+      <c r="D116" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -7482,7 +7521,7 @@
       <c r="W116" s="5"/>
       <c r="X116" s="5"/>
       <c r="Y116" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z116" s="24"/>
       <c r="AA116" s="7"/>
@@ -7496,14 +7535,14 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C117" s="5"/>
-      <c r="D117" s="32" t="s">
-        <v>198</v>
+      <c r="D117" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -7530,7 +7569,7 @@
       <c r="W117" s="5"/>
       <c r="X117" s="5"/>
       <c r="Y117" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z117" s="24"/>
       <c r="AA117" s="7"/>
@@ -7544,14 +7583,14 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="32" t="s">
-        <v>198</v>
+      <c r="D118" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -7578,7 +7617,7 @@
       <c r="W118" s="5"/>
       <c r="X118" s="5"/>
       <c r="Y118" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Z118" s="24"/>
       <c r="AA118" s="7"/>
@@ -7688,23 +7727,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="33" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="33" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="35"/>
     </row>
@@ -7731,17 +7770,17 @@
     </row>
     <row r="8">
       <c r="A8" s="33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="33" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174A867C-BF38-496C-A2EE-C98B7C5600A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE7CEAE-014C-4C0A-A629-D99361525EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3795" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="4410" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH61_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器状態
-（定位=N, 反位=R）（省略可）</t>
+（NRC型）（省略可）</t>
         </r>
       </text>
     </comment>
@@ -145,7 +145,7 @@
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器状態
-（定位=N, 反位=R）（省略可）</t>
+（NRC型）（省略可）</t>
         </r>
       </text>
     </comment>
@@ -158,7 +158,7 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
-          <t>X座標（幅方向）を指定する</t>
+          <t>制御条件に含む方向てこの名称（省略可）</t>
         </r>
       </text>
     </comment>
@@ -171,11 +171,38 @@
             <rFont val="Arial"/>
             <scheme val="minor"/>
           </rPr>
+          <t>制御条件に含む方向てこ状態
+（LNR型）（省略可）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>X座標（幅方向）を指定する</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
           <t>Y座標（高さ方向）を指定する</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -400,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -432,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -451,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="220">
   <si>
     <t>Type</t>
   </si>
@@ -480,6 +507,12 @@
     <t>PointValueB</t>
   </si>
   <si>
+    <t>DirectionName</t>
+  </si>
+  <si>
+    <t>DirectionValue</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -789,6 +822,9 @@
     <t>解放98</t>
   </si>
   <si>
+    <t>物理鍵てこ</t>
+  </si>
+  <si>
     <t>0,1,10,11</t>
   </si>
   <si>
@@ -903,6 +939,9 @@
     <t>TH2T_1</t>
   </si>
   <si>
+    <t>方向てこ表示灯</t>
+  </si>
+  <si>
     <t>TH2T_2</t>
   </si>
   <si>
@@ -1090,6 +1129,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>Label</t>
@@ -1454,7 +1496,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH120"/>
+  <dimension ref="A1:AJ120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1467,14 +1509,14 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="23" width="15.140625" customWidth="1"/>
-    <col min="24" max="24" width="37.5703125" customWidth="1"/>
-    <col min="25" max="25" width="100.140625" customWidth="1"/>
-    <col min="26" max="26" width="62.5703125" customWidth="1"/>
-    <col min="27" max="34" width="15.42578125" customWidth="1"/>
+    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="26" max="26" width="37.5703125" customWidth="1"/>
+    <col min="27" max="27" width="100.140625" customWidth="1"/>
+    <col min="28" max="28" width="62.5703125" customWidth="1"/>
+    <col min="29" max="36" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="12.75">
+    <row r="1" spans="1:36" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1547,27 +1589,33 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
-    </row>
-    <row r="2" spans="1:34" ht="12.75">
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:36" ht="12.75">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1576,14 +1624,14 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
@@ -1595,11 +1643,11 @@
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -1607,13 +1655,15 @@
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="5"/>
-    </row>
-    <row r="3" spans="1:34" ht="12.75">
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+    </row>
+    <row r="3" spans="1:36" ht="12.75">
       <c r="A3" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1622,20 +1672,20 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6">
         <v>900</v>
       </c>
-      <c r="K3" s="6">
+      <c r="M3" s="6">
         <v>78</v>
       </c>
-      <c r="L3" s="6">
+      <c r="N3" s="6">
         <v>79</v>
       </c>
-      <c r="M3" s="6">
+      <c r="O3" s="6">
         <v>110</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1645,11 +1695,11 @@
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
@@ -1657,16 +1707,18 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
-    </row>
-    <row r="4" spans="1:34" ht="25.5">
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+    </row>
+    <row r="4" spans="1:36" ht="25.5">
       <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1674,20 +1726,20 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="6">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
         <v>6</v>
       </c>
-      <c r="K4" s="6">
+      <c r="M4" s="6">
         <v>37</v>
       </c>
-      <c r="L4" s="6">
+      <c r="N4" s="6">
         <v>63</v>
       </c>
-      <c r="M4" s="6">
+      <c r="O4" s="6">
         <v>63</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1696,14 +1748,14 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -1711,13 +1763,15 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-    </row>
-    <row r="5" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+    </row>
+    <row r="5" spans="1:36" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1726,16 +1780,16 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="6">
-        <f>J3+11</f>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
+        <f>L3+11</f>
         <v>911</v>
       </c>
-      <c r="K5" s="6">
-        <f>K3-68</f>
+      <c r="M5" s="6">
+        <f>M3-68</f>
         <v>10</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -1747,43 +1801,45 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
+      <c r="AA5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="7"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
-    </row>
-    <row r="6" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+    </row>
+    <row r="6" spans="1:36" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4">
         <v>368</v>
       </c>
-      <c r="K6" s="4">
+      <c r="M6" s="4">
         <v>302</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1791,42 +1847,44 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="U6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="V6" s="6" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="6">
         <v>-1</v>
       </c>
-      <c r="X6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="AA6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
       <c r="AH6" s="5"/>
-    </row>
-    <row r="7" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+    </row>
+    <row r="7" spans="1:36" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="4"/>
@@ -1834,41 +1892,41 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="6">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>14</v>
       </c>
-      <c r="K7" s="6">
+      <c r="M7" s="6">
         <v>20</v>
       </c>
-      <c r="L7" s="6">
+      <c r="N7" s="6">
         <v>11</v>
       </c>
-      <c r="M7" s="6">
+      <c r="O7" s="6">
         <v>11</v>
       </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="6">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="6">
         <v>1</v>
       </c>
-      <c r="R7" s="6">
+      <c r="T7" s="6">
         <v>10</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="U7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="X7" s="4"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
@@ -1877,31 +1935,33 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-    </row>
-    <row r="8" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+    </row>
+    <row r="8" spans="1:36" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
         <v>433</v>
       </c>
-      <c r="K8" s="4">
+      <c r="M8" s="4">
         <v>302</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1909,59 +1969,61 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="U8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W8" s="6">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7" t="s">
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" s="8" t="s">
+      <c r="X8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Z8" s="10" t="s">
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
+      <c r="AA8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-    </row>
-    <row r="9" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+    </row>
+    <row r="9" spans="1:36" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
         <v>491</v>
       </c>
-      <c r="K9" s="4">
+      <c r="M9" s="4">
         <v>358</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1970,54 +2032,56 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-      <c r="V9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
-    </row>
-    <row r="10" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
         <v>499</v>
       </c>
-      <c r="K10" s="4">
+      <c r="M10" s="4">
         <v>376</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -2026,35 +2090,37 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" s="6">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB10" s="13"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
-    </row>
-    <row r="11" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+    </row>
+    <row r="11" spans="1:36" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
@@ -2062,41 +2128,41 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="6">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
         <v>14</v>
       </c>
-      <c r="K11" s="6">
+      <c r="M11" s="6">
         <v>20</v>
       </c>
-      <c r="L11" s="6">
+      <c r="N11" s="6">
         <v>11</v>
       </c>
-      <c r="M11" s="6">
+      <c r="O11" s="6">
         <v>11</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="6">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="6">
         <v>2</v>
       </c>
-      <c r="R11" s="6">
+      <c r="T11" s="6">
         <v>10</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="U11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+      <c r="V11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="X11" s="4"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
@@ -2105,31 +2171,33 @@
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
-    </row>
-    <row r="12" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+    </row>
+    <row r="12" spans="1:36" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4">
         <v>825</v>
       </c>
-      <c r="K12" s="4">
+      <c r="M12" s="4">
         <v>182</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -2137,57 +2205,59 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="U12" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7" t="s">
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="Y12" s="8" t="s">
+      <c r="X12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
+      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB12" s="13"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
-    </row>
-    <row r="13" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>789</v>
       </c>
-      <c r="K13" s="4">
+      <c r="M13" s="4">
         <v>218</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2196,35 +2266,37 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB13" s="13"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
-    </row>
-    <row r="14" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4"/>
@@ -2232,41 +2304,41 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="6">
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>14</v>
       </c>
-      <c r="K14" s="6">
+      <c r="M14" s="6">
         <v>20</v>
       </c>
-      <c r="L14" s="6">
+      <c r="N14" s="6">
         <v>11</v>
       </c>
-      <c r="M14" s="6">
+      <c r="O14" s="6">
         <v>11</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="Q14" s="6">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="6">
         <v>3</v>
       </c>
-      <c r="R14" s="6">
+      <c r="T14" s="6">
         <v>10</v>
       </c>
-      <c r="S14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="U14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="X14" s="4"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
@@ -2275,31 +2347,33 @@
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
-    </row>
-    <row r="15" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>825</v>
       </c>
-      <c r="K15" s="4">
+      <c r="M15" s="4">
         <v>362</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2307,57 +2381,59 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="U15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y15" s="8" t="s">
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="X15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
+      <c r="Y15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB15" s="13"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
-    </row>
-    <row r="16" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>789</v>
       </c>
-      <c r="K16" s="4">
+      <c r="M16" s="4">
         <v>398</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -2366,35 +2442,37 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W16" s="6">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB16" s="13"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
-    </row>
-    <row r="17" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="4"/>
@@ -2402,41 +2480,41 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="6">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
         <v>14</v>
       </c>
-      <c r="K17" s="6">
+      <c r="M17" s="6">
         <v>20</v>
       </c>
-      <c r="L17" s="6">
+      <c r="N17" s="6">
         <v>11</v>
       </c>
-      <c r="M17" s="6">
+      <c r="O17" s="6">
         <v>11</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="6">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="6">
         <v>4</v>
       </c>
-      <c r="R17" s="6">
+      <c r="T17" s="6">
         <v>10</v>
       </c>
-      <c r="S17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="U17" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W17" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="X17" s="4"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
@@ -2445,31 +2523,33 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
-    </row>
-    <row r="18" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>1121</v>
       </c>
-      <c r="K18" s="4">
+      <c r="M18" s="4">
         <v>302</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
@@ -2477,57 +2557,59 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="U18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W18" s="6">
-        <v>0</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y18" s="8" t="s">
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
+      <c r="Y18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB18" s="13"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
-    </row>
-    <row r="19" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4">
         <v>1187</v>
       </c>
-      <c r="K19" s="4">
+      <c r="M19" s="4">
         <v>300</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
@@ -2536,35 +2618,37 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W19" s="6">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB19" s="13"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
-    </row>
-    <row r="20" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="4"/>
@@ -2572,41 +2656,41 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="6">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
         <v>14</v>
       </c>
-      <c r="K20" s="6">
+      <c r="M20" s="6">
         <v>20</v>
       </c>
-      <c r="L20" s="6">
+      <c r="N20" s="6">
         <v>11</v>
       </c>
-      <c r="M20" s="6">
+      <c r="O20" s="6">
         <v>11</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="6">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="6">
         <v>5</v>
       </c>
-      <c r="R20" s="6">
+      <c r="T20" s="6">
         <v>10</v>
       </c>
-      <c r="S20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
+      <c r="U20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="X20" s="4"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -2615,31 +2699,33 @@
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
-    </row>
-    <row r="21" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+    </row>
+    <row r="21" spans="1:36" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
         <v>1179</v>
       </c>
-      <c r="K21" s="4">
+      <c r="M21" s="4">
         <v>362</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -2647,57 +2733,59 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="W21" s="6">
-        <v>0</v>
-      </c>
-      <c r="X21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y21" s="8" t="s">
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
+      <c r="Y21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB21" s="13"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
-    </row>
-    <row r="22" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4">
         <v>1143</v>
       </c>
-      <c r="K22" s="4">
+      <c r="M22" s="4">
         <v>398</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
@@ -2706,35 +2794,37 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0</v>
-      </c>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB22" s="13"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
-    </row>
-    <row r="23" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+    </row>
+    <row r="23" spans="1:36" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="4"/>
@@ -2742,41 +2832,41 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="6">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
         <v>14</v>
       </c>
-      <c r="K23" s="6">
+      <c r="M23" s="6">
         <v>20</v>
       </c>
-      <c r="L23" s="6">
+      <c r="N23" s="6">
         <v>11</v>
       </c>
-      <c r="M23" s="6">
+      <c r="O23" s="6">
         <v>11</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="6">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="6">
         <v>6</v>
       </c>
-      <c r="R23" s="6">
+      <c r="T23" s="6">
         <v>10</v>
       </c>
-      <c r="S23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T23" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="U23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="X23" s="4"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
@@ -2785,31 +2875,33 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
-    </row>
-    <row r="24" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4">
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
         <v>509</v>
       </c>
-      <c r="K24" s="4">
+      <c r="M24" s="4">
         <v>315</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2817,40 +2909,42 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W24" s="6">
-        <v>0</v>
-      </c>
-      <c r="X24" s="7" t="s">
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="Y24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
+      <c r="X24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB24" s="13"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
-    </row>
-    <row r="25" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="4"/>
@@ -2858,41 +2952,41 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="6">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
         <v>5</v>
       </c>
-      <c r="K25" s="6">
+      <c r="M25" s="6">
         <v>23</v>
       </c>
-      <c r="L25" s="6">
+      <c r="N25" s="6">
         <v>15</v>
       </c>
-      <c r="M25" s="6">
+      <c r="O25" s="6">
         <v>12</v>
       </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="Q25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="R25" s="6">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" s="6">
         <v>10</v>
       </c>
-      <c r="S25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U25" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="U25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="X25" s="4"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
@@ -2901,31 +2995,33 @@
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
-    </row>
-    <row r="26" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+    </row>
+    <row r="26" spans="1:36" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4">
         <v>1077</v>
       </c>
-      <c r="K26" s="4">
+      <c r="M26" s="4">
         <v>195</v>
       </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2933,40 +3029,42 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
-      <c r="U26" s="9" t="s">
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="X26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA26" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="V26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W26" s="6">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
+      <c r="AB26" s="13"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
-    </row>
-    <row r="27" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+    </row>
+    <row r="27" spans="1:36" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="4"/>
@@ -2974,41 +3072,41 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="6">
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
         <v>5</v>
       </c>
-      <c r="K27" s="6">
+      <c r="M27" s="6">
         <v>23</v>
       </c>
-      <c r="L27" s="6">
+      <c r="N27" s="6">
         <v>15</v>
       </c>
-      <c r="M27" s="6">
+      <c r="O27" s="6">
         <v>12</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="R27" s="6">
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="T27" s="6">
         <v>10</v>
       </c>
-      <c r="S27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
+      <c r="U27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="X27" s="4"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
@@ -3017,31 +3115,33 @@
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
-    </row>
-    <row r="28" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+    </row>
+    <row r="28" spans="1:36" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
         <v>1077</v>
       </c>
-      <c r="K28" s="4">
+      <c r="M28" s="4">
         <v>315</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -3049,40 +3149,42 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W28" s="6">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB28" s="13"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
-    </row>
-    <row r="29" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+    </row>
+    <row r="29" spans="1:36" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="4"/>
@@ -3090,41 +3192,41 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="6">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6">
         <v>5</v>
       </c>
-      <c r="K29" s="6">
+      <c r="M29" s="6">
         <v>23</v>
       </c>
-      <c r="L29" s="6">
+      <c r="N29" s="6">
         <v>15</v>
       </c>
-      <c r="M29" s="6">
+      <c r="O29" s="6">
         <v>12</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
       <c r="P29" s="4"/>
-      <c r="Q29" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="R29" s="6">
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="T29" s="6">
         <v>10</v>
       </c>
-      <c r="S29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
+      <c r="U29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="X29" s="4"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
@@ -3133,31 +3235,33 @@
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
-    </row>
-    <row r="30" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+    </row>
+    <row r="30" spans="1:36" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4">
         <v>1077</v>
       </c>
-      <c r="K30" s="4">
+      <c r="M30" s="4">
         <v>375</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -3165,40 +3269,42 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="V30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W30" s="6">
-        <v>0</v>
-      </c>
-      <c r="X30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA30" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB30" s="13"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
-    </row>
-    <row r="31" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+    </row>
+    <row r="31" spans="1:36" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="4"/>
@@ -3206,41 +3312,41 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="6">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
         <v>5</v>
       </c>
-      <c r="K31" s="6">
+      <c r="M31" s="6">
         <v>23</v>
       </c>
-      <c r="L31" s="6">
+      <c r="N31" s="6">
         <v>15</v>
       </c>
-      <c r="M31" s="6">
+      <c r="O31" s="6">
         <v>12</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
       <c r="P31" s="4"/>
-      <c r="Q31" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="R31" s="6">
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="T31" s="6">
         <v>10</v>
       </c>
-      <c r="S31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U31" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
+      <c r="U31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="X31" s="4"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
@@ -3249,31 +3355,33 @@
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
-    </row>
-    <row r="32" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+    </row>
+    <row r="32" spans="1:36" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4">
         <v>1211</v>
       </c>
-      <c r="K32" s="4">
+      <c r="M32" s="4">
         <v>315</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -3281,40 +3389,42 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="V32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W32" s="6">
-        <v>0</v>
-      </c>
-      <c r="X32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y32" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB32" s="13"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
-    </row>
-    <row r="33" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+    </row>
+    <row r="33" spans="1:36" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="4"/>
@@ -3322,41 +3432,41 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="6">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
         <v>5</v>
       </c>
-      <c r="K33" s="6">
+      <c r="M33" s="6">
         <v>23</v>
       </c>
-      <c r="L33" s="6">
+      <c r="N33" s="6">
         <v>15</v>
       </c>
-      <c r="M33" s="6">
+      <c r="O33" s="6">
         <v>12</v>
       </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
       <c r="P33" s="4"/>
-      <c r="Q33" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="R33" s="6">
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="T33" s="6">
         <v>10</v>
       </c>
-      <c r="S33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U33" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
+      <c r="U33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="X33" s="4"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
@@ -3365,13 +3475,15 @@
       <c r="AF33" s="5"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
-    </row>
-    <row r="34" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+    </row>
+    <row r="34" spans="1:36" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3380,14 +3492,14 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="4">
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4">
         <v>304</v>
       </c>
-      <c r="K34" s="4">
+      <c r="M34" s="4">
         <v>551</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -3395,37 +3507,39 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="V34" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W34" s="14">
-        <v>0</v>
-      </c>
-      <c r="X34" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y34" s="16" t="s">
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
+      <c r="X34" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA34" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB34" s="13"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
-    </row>
-    <row r="35" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+    </row>
+    <row r="35" spans="1:36" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3434,14 +3548,14 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4">
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4">
         <v>1111</v>
       </c>
-      <c r="K35" s="4">
+      <c r="M35" s="4">
         <v>551</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
@@ -3449,55 +3563,57 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="U35" s="12" t="s">
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="X35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="V35" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W35" s="14">
-        <v>0</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y35" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
+      <c r="AA35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB35" s="13"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
-    </row>
-    <row r="36" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+    </row>
+    <row r="36" spans="1:36" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4">
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4">
         <v>508</v>
       </c>
-      <c r="K36" s="4">
+      <c r="M36" s="4">
         <v>64</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
@@ -3505,57 +3621,59 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="V36" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="W36" s="6">
-        <v>0</v>
-      </c>
-      <c r="X36" s="7" t="s">
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="Y36" s="8" t="s">
+      <c r="X36" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Z36" s="10" t="s">
+      <c r="Y36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
+      <c r="AA36" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB36" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
-    </row>
-    <row r="37" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+    </row>
+    <row r="37" spans="1:36" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4">
         <v>506</v>
       </c>
-      <c r="K37" s="4">
+      <c r="M37" s="4">
         <v>45</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -3564,50 +3682,52 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
-      <c r="V37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W37" s="6">
-        <v>0</v>
-      </c>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB37" s="10"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
-    </row>
-    <row r="38" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+    </row>
+    <row r="38" spans="1:36" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
         <v>540</v>
       </c>
-      <c r="K38" s="4">
+      <c r="M38" s="4">
         <v>45</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
@@ -3616,35 +3736,37 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
-      <c r="V38" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W38" s="6">
-        <v>0</v>
-      </c>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB38" s="13"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
-    </row>
-    <row r="39" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI38" s="5"/>
+      <c r="AJ38" s="5"/>
+    </row>
+    <row r="39" spans="1:36" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="4"/>
@@ -3652,41 +3774,41 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="6">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6">
         <v>14</v>
       </c>
-      <c r="K39" s="6">
+      <c r="M39" s="6">
         <v>20</v>
       </c>
-      <c r="L39" s="6">
+      <c r="N39" s="6">
         <v>11</v>
       </c>
-      <c r="M39" s="6">
+      <c r="O39" s="6">
         <v>11</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="6">
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="6">
         <v>21</v>
       </c>
-      <c r="R39" s="6">
+      <c r="T39" s="6">
         <v>10</v>
       </c>
-      <c r="S39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
+      <c r="U39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="X39" s="4"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
@@ -3695,31 +3817,33 @@
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
-    </row>
-    <row r="40" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+    </row>
+    <row r="40" spans="1:36" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4">
         <v>576</v>
       </c>
-      <c r="K40" s="4">
+      <c r="M40" s="4">
         <v>64</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
@@ -3727,55 +3851,57 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
-      <c r="U40" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="V40" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="W40" s="6">
-        <v>0</v>
-      </c>
-      <c r="X40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y40" s="8" t="s">
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X40" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
+      <c r="Y40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB40" s="13"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
-    </row>
-    <row r="41" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+    </row>
+    <row r="41" spans="1:36" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4">
         <v>574</v>
       </c>
-      <c r="K41" s="4">
+      <c r="M41" s="4">
         <v>45</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3784,50 +3910,52 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
-      <c r="V41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W41" s="6">
-        <v>0</v>
-      </c>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB41" s="13"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
-    </row>
-    <row r="42" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+    </row>
+    <row r="42" spans="1:36" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4">
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
         <v>608</v>
       </c>
-      <c r="K42" s="4">
+      <c r="M42" s="4">
         <v>45</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3836,35 +3964,37 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W42" s="6">
-        <v>0</v>
-      </c>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB42" s="13"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
-    </row>
-    <row r="43" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+    </row>
+    <row r="43" spans="1:36" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="4"/>
@@ -3872,41 +4002,41 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="6">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6">
         <v>14</v>
       </c>
-      <c r="K43" s="6">
+      <c r="M43" s="6">
         <v>20</v>
       </c>
-      <c r="L43" s="6">
+      <c r="N43" s="6">
         <v>11</v>
       </c>
-      <c r="M43" s="6">
+      <c r="O43" s="6">
         <v>11</v>
       </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
       <c r="P43" s="4"/>
-      <c r="Q43" s="6">
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="6">
         <v>22</v>
       </c>
-      <c r="R43" s="6">
+      <c r="T43" s="6">
         <v>10</v>
       </c>
-      <c r="S43" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="T43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U43" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
+      <c r="U43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="X43" s="4"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
@@ -3915,31 +4045,33 @@
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
-    </row>
-    <row r="44" spans="1:34" ht="25.5">
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+    </row>
+    <row r="44" spans="1:36" ht="25.5">
       <c r="A44" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>40</v>
+      <c r="D44" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="4">
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4">
         <v>54</v>
       </c>
-      <c r="K44" s="4">
+      <c r="M44" s="4">
         <v>64</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
@@ -3947,57 +4079,59 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="V44" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="W44" s="6">
-        <v>0</v>
-      </c>
-      <c r="X44" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y44" s="8" t="s">
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="Z44" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
+      <c r="X44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA44" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB44" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
-    </row>
-    <row r="45" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+    </row>
+    <row r="45" spans="1:36" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4">
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4">
         <v>69</v>
       </c>
-      <c r="K45" s="4">
+      <c r="M45" s="4">
         <v>31</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -4006,50 +4140,52 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
-      <c r="V45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W45" s="6">
-        <v>0</v>
-      </c>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB45" s="13"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
-    </row>
-    <row r="46" spans="1:34" ht="25.5">
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+    </row>
+    <row r="46" spans="1:36" ht="25.5">
       <c r="A46" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
-        <v>40</v>
+      <c r="D46" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4">
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4">
         <v>1347</v>
       </c>
-      <c r="K46" s="4">
+      <c r="M46" s="4">
         <v>64</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -4057,57 +4193,59 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
-      <c r="U46" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="V46" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="W46" s="6">
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="X46" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y46" s="6">
         <v>1</v>
       </c>
-      <c r="X46" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y46" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z46" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
+      <c r="Z46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB46" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
-    </row>
-    <row r="47" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+    </row>
+    <row r="47" spans="1:36" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4">
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4">
         <v>1345</v>
       </c>
-      <c r="K47" s="4">
+      <c r="M47" s="4">
         <v>45</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -4116,50 +4254,52 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
-      <c r="V47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W47" s="6">
-        <v>0</v>
-      </c>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB47" s="13"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
-    </row>
-    <row r="48" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+    </row>
+    <row r="48" spans="1:36" ht="15.75" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4">
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4">
         <v>1379</v>
       </c>
-      <c r="K48" s="4">
+      <c r="M48" s="4">
         <v>45</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -4168,50 +4308,52 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
-      <c r="V48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="W48" s="6">
-        <v>0</v>
-      </c>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB48" s="13"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
-    </row>
-    <row r="49" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+    </row>
+    <row r="49" spans="1:36" ht="15.75" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4">
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4">
         <v>47</v>
       </c>
-      <c r="K49" s="4">
+      <c r="M49" s="4">
         <v>325</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
@@ -4220,52 +4362,54 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
-      <c r="V49" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W49" s="6">
-        <v>0</v>
-      </c>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z49" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB49" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
-    </row>
-    <row r="50" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+    </row>
+    <row r="50" spans="1:36" ht="15.75" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="4">
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4">
         <v>77</v>
       </c>
-      <c r="K50" s="4">
+      <c r="M50" s="4">
         <v>325</v>
       </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -4274,50 +4418,52 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
-      <c r="V50" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W50" s="6">
-        <v>0</v>
-      </c>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB50" s="13"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
-    </row>
-    <row r="51" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+    </row>
+    <row r="51" spans="1:36" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="4">
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4">
         <v>47</v>
       </c>
-      <c r="K51" s="4">
+      <c r="M51" s="4">
         <v>325</v>
       </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -4326,50 +4472,52 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
-      <c r="V51" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W51" s="6">
-        <v>0</v>
-      </c>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB51" s="13"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
-    </row>
-    <row r="52" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+    </row>
+    <row r="52" spans="1:36" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="4">
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4">
         <v>69</v>
       </c>
-      <c r="K52" s="4">
+      <c r="M52" s="4">
         <v>365</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
@@ -4378,52 +4526,54 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
-      <c r="V52" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W52" s="14">
-        <v>0</v>
-      </c>
-      <c r="X52" s="15"/>
-      <c r="Y52" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z52" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB52" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
-    </row>
-    <row r="53" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+    </row>
+    <row r="53" spans="1:36" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="4">
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4">
         <v>102</v>
       </c>
-      <c r="K53" s="4">
+      <c r="M53" s="4">
         <v>325</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
@@ -4432,50 +4582,52 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
-      <c r="V53" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W53" s="6">
-        <v>0</v>
-      </c>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y53" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB53" s="13"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
-    </row>
-    <row r="54" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+    </row>
+    <row r="54" spans="1:36" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="4">
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4">
         <v>102</v>
       </c>
-      <c r="K54" s="4">
+      <c r="M54" s="4">
         <v>385</v>
       </c>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
@@ -4484,50 +4636,52 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
-      <c r="V54" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W54" s="6">
-        <v>0</v>
-      </c>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z54" s="13"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y54" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB54" s="13"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
-    </row>
-    <row r="55" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+    </row>
+    <row r="55" spans="1:36" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="4">
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4">
         <v>131</v>
       </c>
-      <c r="K55" s="4">
+      <c r="M55" s="4">
         <v>325</v>
       </c>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
@@ -4536,50 +4690,52 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
-      <c r="V55" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W55" s="6">
-        <v>0</v>
-      </c>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y55" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB55" s="13"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
-    </row>
-    <row r="56" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+    </row>
+    <row r="56" spans="1:36" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4">
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4">
         <v>213</v>
       </c>
-      <c r="K56" s="4">
+      <c r="M56" s="4">
         <v>325</v>
       </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
@@ -4588,50 +4744,52 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
-      <c r="V56" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W56" s="6">
-        <v>0</v>
-      </c>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y56" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB56" s="13"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
-    </row>
-    <row r="57" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+    </row>
+    <row r="57" spans="1:36" ht="15.75" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4">
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4">
         <v>131</v>
       </c>
-      <c r="K57" s="4">
+      <c r="M57" s="4">
         <v>385</v>
       </c>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
@@ -4640,50 +4798,52 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
-      <c r="V57" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W57" s="6">
-        <v>0</v>
-      </c>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y57" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB57" s="13"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
-    </row>
-    <row r="58" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+    </row>
+    <row r="58" spans="1:36" ht="15.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="4">
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4">
         <v>213</v>
       </c>
-      <c r="K58" s="4">
+      <c r="M58" s="4">
         <v>385</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
@@ -4692,50 +4852,52 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
-      <c r="V58" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W58" s="6">
-        <v>0</v>
-      </c>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y58" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB58" s="13"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
-    </row>
-    <row r="59" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+    </row>
+    <row r="59" spans="1:36" ht="15.75" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="4">
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4">
         <v>242</v>
       </c>
-      <c r="K59" s="4">
+      <c r="M59" s="4">
         <v>325</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
@@ -4744,50 +4906,52 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
-      <c r="V59" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W59" s="6">
-        <v>0</v>
-      </c>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z59" s="13"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y59" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB59" s="13"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
-    </row>
-    <row r="60" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+    </row>
+    <row r="60" spans="1:36" ht="15.75" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="4">
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4">
         <v>242</v>
       </c>
-      <c r="K60" s="4">
+      <c r="M60" s="4">
         <v>385</v>
       </c>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
@@ -4796,50 +4960,52 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
-      <c r="V60" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W60" s="6">
-        <v>0</v>
-      </c>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z60" s="13"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y60" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB60" s="13"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
-    </row>
-    <row r="61" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+    </row>
+    <row r="61" spans="1:36" ht="15.75" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="4">
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4">
         <v>267</v>
       </c>
-      <c r="K61" s="4">
+      <c r="M61" s="4">
         <v>325</v>
       </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
@@ -4848,50 +5014,52 @@
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
-      <c r="V61" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W61" s="6">
-        <v>0</v>
-      </c>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y61" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB61" s="13"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AF61" s="5"/>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
-    </row>
-    <row r="62" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+    </row>
+    <row r="62" spans="1:36" ht="15.75" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="4">
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4">
         <v>297</v>
       </c>
-      <c r="K62" s="4">
+      <c r="M62" s="4">
         <v>325</v>
       </c>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
@@ -4900,50 +5068,52 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
-      <c r="V62" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W62" s="6">
-        <v>0</v>
-      </c>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z62" s="13"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y62" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB62" s="13"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
-    </row>
-    <row r="63" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+    </row>
+    <row r="63" spans="1:36" ht="15.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="4">
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4">
         <v>279</v>
       </c>
-      <c r="K63" s="4">
+      <c r="M63" s="4">
         <v>365</v>
       </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -4952,52 +5122,54 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
-      <c r="V63" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W63" s="14">
-        <v>0</v>
-      </c>
-      <c r="X63" s="15"/>
-      <c r="Y63" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z63" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="5"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y63" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="15"/>
+      <c r="AA63" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB63" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
-    </row>
-    <row r="64" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+    </row>
+    <row r="64" spans="1:36" ht="15.75" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="4">
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4">
         <v>297</v>
       </c>
-      <c r="K64" s="4">
+      <c r="M64" s="4">
         <v>325</v>
       </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
@@ -5006,50 +5178,52 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
-      <c r="V64" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W64" s="6">
-        <v>0</v>
-      </c>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y64" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB64" s="13"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
-    </row>
-    <row r="65" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+    </row>
+    <row r="65" spans="1:36" ht="15.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="4">
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4">
         <v>322</v>
       </c>
-      <c r="K65" s="4">
+      <c r="M65" s="4">
         <v>325</v>
       </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
@@ -5058,50 +5232,52 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
-      <c r="V65" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W65" s="6">
-        <v>0</v>
-      </c>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z65" s="13"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="5"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y65" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB65" s="13"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
-    </row>
-    <row r="66" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+    </row>
+    <row r="66" spans="1:36" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4">
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4">
         <v>352</v>
       </c>
-      <c r="K66" s="4">
+      <c r="M66" s="4">
         <v>325</v>
       </c>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
@@ -5110,50 +5286,52 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
-      <c r="V66" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W66" s="6">
-        <v>0</v>
-      </c>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z66" s="13"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB66" s="13"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
-    </row>
-    <row r="67" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+    </row>
+    <row r="67" spans="1:36" ht="15.75" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="4">
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4">
         <v>412</v>
       </c>
-      <c r="K67" s="4">
+      <c r="M67" s="4">
         <v>325</v>
       </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
@@ -5162,50 +5340,52 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
-      <c r="V67" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W67" s="6">
-        <v>0</v>
-      </c>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z67" s="13"/>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y67" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB67" s="13"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
-    </row>
-    <row r="68" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+    </row>
+    <row r="68" spans="1:36" ht="15.75" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="4">
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4">
         <v>353</v>
       </c>
-      <c r="K68" s="4">
+      <c r="M68" s="4">
         <v>302</v>
       </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
@@ -5214,52 +5394,54 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
-      <c r="V68" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W68" s="14">
-        <v>0</v>
-      </c>
-      <c r="X68" s="15"/>
-      <c r="Y68" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z68" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="5"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB68" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
-    </row>
-    <row r="69" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+    </row>
+    <row r="69" spans="1:36" ht="15.75" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4">
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4">
         <v>353</v>
       </c>
-      <c r="K69" s="4">
+      <c r="M69" s="4">
         <v>344</v>
       </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
@@ -5268,52 +5450,54 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
-      <c r="V69" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W69" s="14">
-        <v>0</v>
-      </c>
-      <c r="X69" s="15"/>
-      <c r="Y69" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z69" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y69" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB69" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
-    </row>
-    <row r="70" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+    </row>
+    <row r="70" spans="1:36" ht="15.75" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="4">
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4">
         <v>413</v>
       </c>
-      <c r="K70" s="4">
+      <c r="M70" s="4">
         <v>302</v>
       </c>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
@@ -5322,52 +5506,54 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
-      <c r="V70" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W70" s="14">
-        <v>0</v>
-      </c>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z70" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y70" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB70" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
-    </row>
-    <row r="71" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+    </row>
+    <row r="71" spans="1:36" ht="15.75" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="4">
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4">
         <v>413</v>
       </c>
-      <c r="K71" s="4">
+      <c r="M71" s="4">
         <v>344</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
@@ -5376,52 +5562,54 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
-      <c r="V71" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W71" s="14">
-        <v>0</v>
-      </c>
-      <c r="X71" s="15"/>
-      <c r="Y71" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z71" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB71" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
-    </row>
-    <row r="72" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+    </row>
+    <row r="72" spans="1:36" ht="15.75" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="4">
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4">
         <v>490</v>
       </c>
-      <c r="K72" s="4">
+      <c r="M72" s="4">
         <v>325</v>
       </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
@@ -5430,50 +5618,52 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
-      <c r="V72" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W72" s="6">
-        <v>0</v>
-      </c>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z72" s="13"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y72" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB72" s="13"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
-    </row>
-    <row r="73" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+    </row>
+    <row r="73" spans="1:36" ht="15.75" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="4">
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4">
         <v>542</v>
       </c>
-      <c r="K73" s="4">
+      <c r="M73" s="4">
         <v>325</v>
       </c>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
@@ -5482,50 +5672,52 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
-      <c r="V73" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W73" s="6">
-        <v>0</v>
-      </c>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z73" s="13"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y73" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB73" s="13"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
-    </row>
-    <row r="74" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+    </row>
+    <row r="74" spans="1:36" ht="15.75" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="4">
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4">
         <v>570</v>
       </c>
-      <c r="K74" s="4">
+      <c r="M74" s="4">
         <v>325</v>
       </c>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
@@ -5534,50 +5726,52 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
-      <c r="V74" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W74" s="6">
-        <v>0</v>
-      </c>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z74" s="13"/>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="5"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y74" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB74" s="13"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
-    </row>
-    <row r="75" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+    </row>
+    <row r="75" spans="1:36" ht="15.75" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="4">
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4">
         <v>612</v>
       </c>
-      <c r="K75" s="4">
+      <c r="M75" s="4">
         <v>325</v>
       </c>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
@@ -5586,50 +5780,52 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
-      <c r="V75" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W75" s="6">
-        <v>0</v>
-      </c>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z75" s="13"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y75" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB75" s="13"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
-    </row>
-    <row r="76" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+    </row>
+    <row r="76" spans="1:36" ht="15.75" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="4">
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4">
         <v>570</v>
       </c>
-      <c r="K76" s="4">
+      <c r="M76" s="4">
         <v>325</v>
       </c>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
@@ -5638,50 +5834,52 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
-      <c r="V76" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W76" s="6">
-        <v>0</v>
-      </c>
-      <c r="X76" s="7"/>
-      <c r="Y76" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z76" s="13"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y76" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB76" s="13"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
-    </row>
-    <row r="77" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+    </row>
+    <row r="77" spans="1:36" ht="15.75" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="4">
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4">
         <v>594</v>
       </c>
-      <c r="K77" s="4">
+      <c r="M77" s="4">
         <v>343</v>
       </c>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
@@ -5690,52 +5888,54 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
-      <c r="V77" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W77" s="14">
-        <v>0</v>
-      </c>
-      <c r="X77" s="15"/>
-      <c r="Y77" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z77" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y77" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB77" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
-    </row>
-    <row r="78" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+    </row>
+    <row r="78" spans="1:36" ht="15.75" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="4">
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4">
         <v>636</v>
       </c>
-      <c r="K78" s="4">
+      <c r="M78" s="4">
         <v>385</v>
       </c>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
@@ -5744,50 +5944,52 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
-      <c r="V78" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W78" s="6">
-        <v>0</v>
-      </c>
-      <c r="X78" s="7"/>
-      <c r="Y78" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z78" s="13"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y78" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB78" s="13"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
-    </row>
-    <row r="79" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="5"/>
+    </row>
+    <row r="79" spans="1:36" ht="15.75" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="4">
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4">
         <v>716</v>
       </c>
-      <c r="K79" s="4">
+      <c r="M79" s="4">
         <v>385</v>
       </c>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
@@ -5796,50 +5998,52 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
-      <c r="V79" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W79" s="6">
-        <v>0</v>
-      </c>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z79" s="13"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y79" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB79" s="13"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
-    </row>
-    <row r="80" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="5"/>
+    </row>
+    <row r="80" spans="1:36" ht="15.75" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="4">
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4">
         <v>796</v>
       </c>
-      <c r="K80" s="4">
+      <c r="M80" s="4">
         <v>385</v>
       </c>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
@@ -5848,50 +6052,52 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
-      <c r="V80" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W80" s="6">
-        <v>0</v>
-      </c>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z80" s="13"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y80" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB80" s="13"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
-    </row>
-    <row r="81" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5"/>
+    </row>
+    <row r="81" spans="1:36" ht="15.75" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="4">
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4">
         <v>568</v>
       </c>
-      <c r="K81" s="4">
+      <c r="M81" s="4">
         <v>383</v>
       </c>
-      <c r="L81" s="4"/>
-      <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
@@ -5900,50 +6106,52 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
-      <c r="V81" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W81" s="14">
-        <v>0</v>
-      </c>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z81" s="10"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y81" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="15"/>
+      <c r="AA81" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB81" s="10"/>
       <c r="AC81" s="5"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
-    </row>
-    <row r="82" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI81" s="5"/>
+      <c r="AJ81" s="5"/>
+    </row>
+    <row r="82" spans="1:36" ht="15.75" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="4">
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4">
         <v>614</v>
       </c>
-      <c r="K82" s="4">
+      <c r="M82" s="4">
         <v>363</v>
       </c>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
@@ -5952,52 +6160,54 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
-      <c r="V82" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W82" s="14">
-        <v>0</v>
-      </c>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z82" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y82" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="15"/>
+      <c r="AA82" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB82" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
-    </row>
-    <row r="83" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5"/>
+    </row>
+    <row r="83" spans="1:36" ht="15.75" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="4">
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4">
         <v>636</v>
       </c>
-      <c r="K83" s="4">
+      <c r="M83" s="4">
         <v>385</v>
       </c>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
@@ -6006,50 +6216,52 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
-      <c r="V83" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W83" s="6">
-        <v>0</v>
-      </c>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z83" s="13"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y83" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB83" s="13"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
-    </row>
-    <row r="84" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI83" s="5"/>
+      <c r="AJ83" s="5"/>
+    </row>
+    <row r="84" spans="1:36" ht="15.75" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="4">
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4">
         <v>716</v>
       </c>
-      <c r="K84" s="4">
+      <c r="M84" s="4">
         <v>385</v>
       </c>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -6058,50 +6270,52 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
-      <c r="V84" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W84" s="6">
-        <v>0</v>
-      </c>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z84" s="13"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y84" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB84" s="13"/>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
-    </row>
-    <row r="85" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI84" s="5"/>
+      <c r="AJ84" s="5"/>
+    </row>
+    <row r="85" spans="1:36" ht="15.75" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="4">
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4">
         <v>796</v>
       </c>
-      <c r="K85" s="4">
+      <c r="M85" s="4">
         <v>385</v>
       </c>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
@@ -6110,50 +6324,52 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
-      <c r="V85" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W85" s="6">
-        <v>0</v>
-      </c>
-      <c r="X85" s="7"/>
-      <c r="Y85" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z85" s="13"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y85" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB85" s="13"/>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
-    </row>
-    <row r="86" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI85" s="5"/>
+      <c r="AJ85" s="5"/>
+    </row>
+    <row r="86" spans="1:36" ht="15.75" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="4">
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4">
         <v>640</v>
       </c>
-      <c r="K86" s="4">
+      <c r="M86" s="4">
         <v>325</v>
       </c>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -6162,50 +6378,52 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
-      <c r="V86" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W86" s="6">
-        <v>0</v>
-      </c>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z86" s="13"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y86" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB86" s="13"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
-    </row>
-    <row r="87" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI86" s="5"/>
+      <c r="AJ86" s="5"/>
+    </row>
+    <row r="87" spans="1:36" ht="15.75" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="4">
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4">
         <v>718</v>
       </c>
-      <c r="K87" s="4">
+      <c r="M87" s="4">
         <v>325</v>
       </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -6214,50 +6432,52 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
-      <c r="V87" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W87" s="6">
-        <v>0</v>
-      </c>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z87" s="13"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y87" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB87" s="13"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
-    </row>
-    <row r="88" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI87" s="5"/>
+      <c r="AJ87" s="5"/>
+    </row>
+    <row r="88" spans="1:36" ht="15.75" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="4">
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4">
         <v>796</v>
       </c>
-      <c r="K88" s="4">
+      <c r="M88" s="4">
         <v>325</v>
       </c>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
@@ -6266,50 +6486,52 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
-      <c r="V88" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W88" s="6">
-        <v>0</v>
-      </c>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z88" s="13"/>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y88" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB88" s="13"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
       <c r="AG88" s="5"/>
       <c r="AH88" s="5"/>
-    </row>
-    <row r="89" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI88" s="5"/>
+      <c r="AJ88" s="5"/>
+    </row>
+    <row r="89" spans="1:36" ht="15.75" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="4">
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4">
         <v>640</v>
       </c>
-      <c r="K89" s="4">
+      <c r="M89" s="4">
         <v>325</v>
       </c>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
@@ -6318,50 +6540,52 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
-      <c r="V89" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W89" s="6">
-        <v>0</v>
-      </c>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z89" s="13"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y89" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB89" s="13"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
-    </row>
-    <row r="90" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="5"/>
+    </row>
+    <row r="90" spans="1:36" ht="15.75" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="4">
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4">
         <v>689</v>
       </c>
-      <c r="K90" s="4">
+      <c r="M90" s="4">
         <v>278</v>
       </c>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
@@ -6370,52 +6594,54 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
-      <c r="V90" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W90" s="14">
-        <v>0</v>
-      </c>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z90" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="5"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y90" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="15"/>
+      <c r="AA90" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB90" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
-    </row>
-    <row r="91" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+    </row>
+    <row r="91" spans="1:36" ht="15.75" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="4">
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4">
         <v>738</v>
       </c>
-      <c r="K91" s="4">
+      <c r="M91" s="4">
         <v>229</v>
       </c>
-      <c r="L91" s="4"/>
-      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
@@ -6424,52 +6650,54 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
-      <c r="V91" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W91" s="14">
-        <v>0</v>
-      </c>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z91" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="5"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y91" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB91" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
-    </row>
-    <row r="92" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI91" s="5"/>
+      <c r="AJ91" s="5"/>
+    </row>
+    <row r="92" spans="1:36" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="4">
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4">
         <v>796</v>
       </c>
-      <c r="K92" s="4">
+      <c r="M92" s="4">
         <v>205</v>
       </c>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
@@ -6478,50 +6706,52 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
-      <c r="V92" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W92" s="6">
-        <v>0</v>
-      </c>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z92" s="13"/>
-      <c r="AA92" s="5"/>
-      <c r="AB92" s="5"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB92" s="13"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
-    </row>
-    <row r="93" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI92" s="5"/>
+      <c r="AJ92" s="5"/>
+    </row>
+    <row r="93" spans="1:36" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="4">
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4">
         <v>865</v>
       </c>
-      <c r="K93" s="4">
+      <c r="M93" s="4">
         <v>205</v>
       </c>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
@@ -6530,50 +6760,52 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
-      <c r="V93" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W93" s="6">
-        <v>0</v>
-      </c>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z93" s="13"/>
-      <c r="AA93" s="5"/>
-      <c r="AB93" s="5"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y93" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB93" s="13"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
-    </row>
-    <row r="94" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI93" s="5"/>
+      <c r="AJ93" s="5"/>
+    </row>
+    <row r="94" spans="1:36" ht="15.75" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="4">
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4">
         <v>1109</v>
       </c>
-      <c r="K94" s="4">
+      <c r="M94" s="4">
         <v>205</v>
       </c>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
@@ -6582,50 +6814,52 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
-      <c r="V94" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W94" s="6">
-        <v>0</v>
-      </c>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z94" s="13"/>
-      <c r="AA94" s="5"/>
-      <c r="AB94" s="5"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y94" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB94" s="13"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
-    </row>
-    <row r="95" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI94" s="5"/>
+      <c r="AJ94" s="5"/>
+    </row>
+    <row r="95" spans="1:36" ht="15.75" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="4">
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4">
         <v>865</v>
       </c>
-      <c r="K95" s="4">
+      <c r="M95" s="4">
         <v>325</v>
       </c>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
@@ -6634,50 +6868,52 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
-      <c r="V95" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W95" s="6">
-        <v>0</v>
-      </c>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z95" s="13"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="5"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y95" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB95" s="13"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
-    </row>
-    <row r="96" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI95" s="5"/>
+      <c r="AJ95" s="5"/>
+    </row>
+    <row r="96" spans="1:36" ht="15.75" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="4">
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4">
         <v>1109</v>
       </c>
-      <c r="K96" s="4">
+      <c r="M96" s="4">
         <v>325</v>
       </c>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
@@ -6686,50 +6922,52 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
-      <c r="V96" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W96" s="6">
-        <v>0</v>
-      </c>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z96" s="13"/>
-      <c r="AA96" s="5"/>
-      <c r="AB96" s="5"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y96" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB96" s="13"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
-    </row>
-    <row r="97" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI96" s="5"/>
+      <c r="AJ96" s="5"/>
+    </row>
+    <row r="97" spans="1:36" ht="15.75" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="4">
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4">
         <v>865</v>
       </c>
-      <c r="K97" s="4">
+      <c r="M97" s="4">
         <v>385</v>
       </c>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
@@ -6738,50 +6976,52 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
-      <c r="V97" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W97" s="6">
-        <v>0</v>
-      </c>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z97" s="13"/>
-      <c r="AA97" s="5"/>
-      <c r="AB97" s="5"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y97" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB97" s="13"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
-    </row>
-    <row r="98" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI97" s="5"/>
+      <c r="AJ97" s="5"/>
+    </row>
+    <row r="98" spans="1:36" ht="15.75" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="4">
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4">
         <v>1109</v>
       </c>
-      <c r="K98" s="4">
+      <c r="M98" s="4">
         <v>385</v>
       </c>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
@@ -6790,50 +7030,52 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
-      <c r="V98" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W98" s="6">
-        <v>0</v>
-      </c>
-      <c r="X98" s="7"/>
-      <c r="Y98" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z98" s="13"/>
-      <c r="AA98" s="5"/>
-      <c r="AB98" s="5"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y98" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB98" s="13"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
-    </row>
-    <row r="99" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+    </row>
+    <row r="99" spans="1:36" ht="15.75" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="4">
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4">
         <v>1191</v>
       </c>
-      <c r="K99" s="4">
+      <c r="M99" s="4">
         <v>325</v>
       </c>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
@@ -6842,50 +7084,52 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
-      <c r="V99" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W99" s="6">
-        <v>0</v>
-      </c>
-      <c r="X99" s="7"/>
-      <c r="Y99" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z99" s="13"/>
-      <c r="AA99" s="5"/>
-      <c r="AB99" s="5"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y99" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB99" s="13"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
-    </row>
-    <row r="100" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI99" s="5"/>
+      <c r="AJ99" s="5"/>
+    </row>
+    <row r="100" spans="1:36" ht="15.75" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="4">
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4">
         <v>1245</v>
       </c>
-      <c r="K100" s="4">
+      <c r="M100" s="4">
         <v>325</v>
       </c>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
@@ -6894,50 +7138,52 @@
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
-      <c r="V100" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W100" s="6">
-        <v>0</v>
-      </c>
-      <c r="X100" s="7"/>
-      <c r="Y100" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z100" s="13"/>
-      <c r="AA100" s="5"/>
-      <c r="AB100" s="5"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y100" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB100" s="13"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
-    </row>
-    <row r="101" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI100" s="5"/>
+      <c r="AJ100" s="5"/>
+    </row>
+    <row r="101" spans="1:36" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="4">
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4">
         <v>1242</v>
       </c>
-      <c r="K101" s="4">
+      <c r="M101" s="4">
         <v>385</v>
       </c>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
@@ -6946,50 +7192,52 @@
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
-      <c r="V101" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W101" s="6">
-        <v>0</v>
-      </c>
-      <c r="X101" s="7"/>
-      <c r="Y101" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z101" s="13"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y101" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB101" s="13"/>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
-    </row>
-    <row r="102" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI101" s="5"/>
+      <c r="AJ101" s="5"/>
+    </row>
+    <row r="102" spans="1:36" ht="15.75" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
-      <c r="J102" s="4">
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4">
         <v>1287</v>
       </c>
-      <c r="K102" s="4">
+      <c r="M102" s="4">
         <v>385</v>
       </c>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
@@ -6998,50 +7246,52 @@
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
-      <c r="V102" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W102" s="6">
-        <v>0</v>
-      </c>
-      <c r="X102" s="7"/>
-      <c r="Y102" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z102" s="13"/>
-      <c r="AA102" s="5"/>
-      <c r="AB102" s="5"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y102" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB102" s="13"/>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
-    </row>
-    <row r="103" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI102" s="5"/>
+      <c r="AJ102" s="5"/>
+    </row>
+    <row r="103" spans="1:36" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="4">
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4">
         <v>1317</v>
       </c>
-      <c r="K103" s="4">
+      <c r="M103" s="4">
         <v>385</v>
       </c>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
@@ -7050,50 +7300,52 @@
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
-      <c r="V103" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W103" s="6">
-        <v>0</v>
-      </c>
-      <c r="X103" s="7"/>
-      <c r="Y103" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z103" s="13"/>
-      <c r="AA103" s="5"/>
-      <c r="AB103" s="5"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y103" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB103" s="13"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
-    </row>
-    <row r="104" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI103" s="5"/>
+      <c r="AJ103" s="5"/>
+    </row>
+    <row r="104" spans="1:36" ht="15.75" customHeight="1">
       <c r="A104" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
-      <c r="J104" s="4">
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4">
         <v>1347</v>
       </c>
-      <c r="K104" s="4">
+      <c r="M104" s="4">
         <v>385</v>
       </c>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
@@ -7102,50 +7354,52 @@
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
-      <c r="V104" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="W104" s="6">
-        <v>0</v>
-      </c>
-      <c r="X104" s="7"/>
-      <c r="Y104" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z104" s="13"/>
-      <c r="AA104" s="5"/>
-      <c r="AB104" s="5"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y104" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB104" s="13"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
-    </row>
-    <row r="105" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
+    </row>
+    <row r="105" spans="1:36" ht="15.75" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
-      <c r="J105" s="4">
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4">
         <v>1377</v>
       </c>
-      <c r="K105" s="4">
+      <c r="M105" s="4">
         <v>385</v>
       </c>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
@@ -7154,50 +7408,52 @@
       <c r="S105" s="4"/>
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
-      <c r="V105" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="W105" s="14">
-        <v>0</v>
-      </c>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z105" s="13"/>
-      <c r="AA105" s="5"/>
-      <c r="AB105" s="5"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y105" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="15"/>
+      <c r="AA105" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB105" s="13"/>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
-    </row>
-    <row r="106" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI105" s="5"/>
+      <c r="AJ105" s="5"/>
+    </row>
+    <row r="106" spans="1:36" ht="15.75" customHeight="1">
       <c r="A106" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="4">
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4">
         <v>152</v>
       </c>
-      <c r="K106" s="4">
+      <c r="M106" s="4">
         <v>45</v>
       </c>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4"/>
@@ -7206,50 +7462,52 @@
       <c r="S106" s="4"/>
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
-      <c r="V106" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W106" s="14">
-        <v>0</v>
-      </c>
-      <c r="X106" s="15"/>
-      <c r="Y106" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z106" s="13"/>
-      <c r="AA106" s="5"/>
-      <c r="AB106" s="5"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y106" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="15"/>
+      <c r="AA106" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB106" s="13"/>
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
-    </row>
-    <row r="107" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI106" s="5"/>
+      <c r="AJ106" s="5"/>
+    </row>
+    <row r="107" spans="1:36" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
-      <c r="J107" s="4">
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4">
         <v>200</v>
       </c>
-      <c r="K107" s="4">
+      <c r="M107" s="4">
         <v>45</v>
       </c>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
@@ -7258,50 +7516,52 @@
       <c r="S107" s="4"/>
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
-      <c r="V107" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W107" s="14">
-        <v>0</v>
-      </c>
-      <c r="X107" s="15"/>
-      <c r="Y107" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="5"/>
-      <c r="AB107" s="5"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y107" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="15"/>
+      <c r="AA107" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB107" s="13"/>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
       <c r="AG107" s="5"/>
       <c r="AH107" s="5"/>
-    </row>
-    <row r="108" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI107" s="5"/>
+      <c r="AJ107" s="5"/>
+    </row>
+    <row r="108" spans="1:36" ht="15.75" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
-      <c r="J108" s="4">
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4">
         <v>696</v>
       </c>
-      <c r="K108" s="4">
+      <c r="M108" s="4">
         <v>567</v>
       </c>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
@@ -7310,50 +7570,52 @@
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
-      <c r="V108" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W108" s="14">
-        <v>0</v>
-      </c>
-      <c r="X108" s="15"/>
-      <c r="Y108" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z108" s="13"/>
-      <c r="AA108" s="5"/>
-      <c r="AB108" s="5"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y108" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="15"/>
+      <c r="AA108" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB108" s="13"/>
       <c r="AC108" s="5"/>
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
       <c r="AG108" s="5"/>
       <c r="AH108" s="5"/>
-    </row>
-    <row r="109" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI108" s="5"/>
+      <c r="AJ108" s="5"/>
+    </row>
+    <row r="109" spans="1:36" ht="15.75" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
-      <c r="J109" s="4">
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4">
         <v>734</v>
       </c>
-      <c r="K109" s="4">
+      <c r="M109" s="4">
         <v>567</v>
       </c>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4"/>
@@ -7362,50 +7624,52 @@
       <c r="S109" s="4"/>
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
-      <c r="V109" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="W109" s="14">
-        <v>0</v>
-      </c>
-      <c r="X109" s="15"/>
-      <c r="Y109" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z109" s="10"/>
-      <c r="AA109" s="5"/>
-      <c r="AB109" s="5"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y109" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="15"/>
+      <c r="AA109" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB109" s="10"/>
       <c r="AC109" s="5"/>
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
       <c r="AG109" s="5"/>
       <c r="AH109" s="5"/>
-    </row>
-    <row r="110" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI109" s="5"/>
+      <c r="AJ109" s="5"/>
+    </row>
+    <row r="110" spans="1:36" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
-      <c r="J110" s="4">
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4">
         <v>112</v>
       </c>
-      <c r="K110" s="4">
+      <c r="M110" s="4">
         <v>201</v>
       </c>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4"/>
@@ -7413,47 +7677,49 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
-      <c r="U110" s="12"/>
+      <c r="U110" s="4"/>
       <c r="V110" s="4"/>
-      <c r="W110" s="4"/>
+      <c r="W110" s="12"/>
       <c r="X110" s="4"/>
-      <c r="Y110" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z110" s="13"/>
-      <c r="AA110" s="5"/>
-      <c r="AB110" s="5"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB110" s="13"/>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
       <c r="AG110" s="5"/>
       <c r="AH110" s="5"/>
-    </row>
-    <row r="111" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI110" s="5"/>
+      <c r="AJ110" s="5"/>
+    </row>
+    <row r="111" spans="1:36" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="4">
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4">
         <v>112</v>
       </c>
-      <c r="K111" s="4">
+      <c r="M111" s="4">
         <v>247</v>
       </c>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4"/>
@@ -7461,47 +7727,49 @@
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
-      <c r="U111" s="12"/>
+      <c r="U111" s="4"/>
       <c r="V111" s="4"/>
-      <c r="W111" s="4"/>
+      <c r="W111" s="12"/>
       <c r="X111" s="4"/>
-      <c r="Y111" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z111" s="13"/>
-      <c r="AA111" s="5"/>
-      <c r="AB111" s="5"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB111" s="13"/>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
       <c r="AG111" s="5"/>
       <c r="AH111" s="5"/>
-    </row>
-    <row r="112" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI111" s="5"/>
+      <c r="AJ111" s="5"/>
+    </row>
+    <row r="112" spans="1:36" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
-      <c r="J112" s="4">
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4">
         <v>262</v>
       </c>
-      <c r="K112" s="4">
+      <c r="M112" s="4">
         <v>201</v>
       </c>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
@@ -7509,47 +7777,49 @@
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
-      <c r="U112" s="12"/>
+      <c r="U112" s="4"/>
       <c r="V112" s="4"/>
-      <c r="W112" s="4"/>
+      <c r="W112" s="12"/>
       <c r="X112" s="4"/>
-      <c r="Y112" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z112" s="13"/>
-      <c r="AA112" s="5"/>
-      <c r="AB112" s="5"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB112" s="13"/>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
-    </row>
-    <row r="113" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI112" s="5"/>
+      <c r="AJ112" s="5"/>
+    </row>
+    <row r="113" spans="1:36" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
-      <c r="J113" s="4">
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4">
         <v>412</v>
       </c>
-      <c r="K113" s="4">
+      <c r="M113" s="4">
         <v>201</v>
       </c>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
@@ -7557,47 +7827,49 @@
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
-      <c r="U113" s="12"/>
+      <c r="U113" s="4"/>
       <c r="V113" s="4"/>
-      <c r="W113" s="4"/>
+      <c r="W113" s="12"/>
       <c r="X113" s="4"/>
-      <c r="Y113" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z113" s="13"/>
-      <c r="AA113" s="5"/>
-      <c r="AB113" s="5"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB113" s="13"/>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
       <c r="AG113" s="5"/>
       <c r="AH113" s="5"/>
-    </row>
-    <row r="114" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI113" s="5"/>
+      <c r="AJ113" s="5"/>
+    </row>
+    <row r="114" spans="1:36" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
-      <c r="J114" s="4">
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4">
         <v>927</v>
       </c>
-      <c r="K114" s="4">
+      <c r="M114" s="4">
         <v>194</v>
       </c>
-      <c r="L114" s="4"/>
-      <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="4"/>
@@ -7605,47 +7877,49 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
       <c r="T114" s="4"/>
-      <c r="U114" s="12"/>
+      <c r="U114" s="4"/>
       <c r="V114" s="4"/>
-      <c r="W114" s="4"/>
+      <c r="W114" s="12"/>
       <c r="X114" s="4"/>
-      <c r="Y114" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z114" s="13"/>
-      <c r="AA114" s="5"/>
-      <c r="AB114" s="5"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB114" s="13"/>
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
       <c r="AG114" s="5"/>
       <c r="AH114" s="5"/>
-    </row>
-    <row r="115" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI114" s="5"/>
+      <c r="AJ114" s="5"/>
+    </row>
+    <row r="115" spans="1:36" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="4">
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4">
         <v>927</v>
       </c>
-      <c r="K115" s="4">
+      <c r="M115" s="4">
         <v>314</v>
       </c>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4"/>
@@ -7653,47 +7927,49 @@
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
-      <c r="U115" s="12"/>
+      <c r="U115" s="4"/>
       <c r="V115" s="4"/>
-      <c r="W115" s="4"/>
+      <c r="W115" s="12"/>
       <c r="X115" s="4"/>
-      <c r="Y115" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z115" s="13"/>
-      <c r="AA115" s="5"/>
-      <c r="AB115" s="5"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+      <c r="AA115" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB115" s="13"/>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
       <c r="AG115" s="5"/>
       <c r="AH115" s="5"/>
-    </row>
-    <row r="116" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI115" s="5"/>
+      <c r="AJ115" s="5"/>
+    </row>
+    <row r="116" spans="1:36" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="4">
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4">
         <v>927</v>
       </c>
-      <c r="K116" s="4">
+      <c r="M116" s="4">
         <v>374</v>
       </c>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="4"/>
@@ -7701,47 +7977,49 @@
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
-      <c r="U116" s="12"/>
+      <c r="U116" s="4"/>
       <c r="V116" s="4"/>
-      <c r="W116" s="4"/>
+      <c r="W116" s="12"/>
       <c r="X116" s="4"/>
-      <c r="Y116" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z116" s="13"/>
-      <c r="AA116" s="5"/>
-      <c r="AB116" s="5"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+      <c r="AA116" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB116" s="13"/>
       <c r="AC116" s="5"/>
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
       <c r="AG116" s="5"/>
       <c r="AH116" s="5"/>
-    </row>
-    <row r="117" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI116" s="5"/>
+      <c r="AJ116" s="5"/>
+    </row>
+    <row r="117" spans="1:36" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="4">
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4">
         <v>1135</v>
       </c>
-      <c r="K117" s="4">
+      <c r="M117" s="4">
         <v>441</v>
       </c>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="4"/>
@@ -7749,47 +8027,49 @@
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
       <c r="T117" s="4"/>
-      <c r="U117" s="12"/>
+      <c r="U117" s="4"/>
       <c r="V117" s="4"/>
-      <c r="W117" s="4"/>
+      <c r="W117" s="12"/>
       <c r="X117" s="4"/>
-      <c r="Y117" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z117" s="13"/>
-      <c r="AA117" s="5"/>
-      <c r="AB117" s="5"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+      <c r="AA117" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB117" s="13"/>
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
       <c r="AG117" s="5"/>
       <c r="AH117" s="5"/>
-    </row>
-    <row r="118" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI117" s="5"/>
+      <c r="AJ117" s="5"/>
+    </row>
+    <row r="118" spans="1:36" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="4">
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4">
         <v>1285</v>
       </c>
-      <c r="K118" s="4">
+      <c r="M118" s="4">
         <v>441</v>
       </c>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
@@ -7797,24 +8077,26 @@
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
-      <c r="U118" s="12"/>
+      <c r="U118" s="4"/>
       <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
+      <c r="W118" s="12"/>
       <c r="X118" s="4"/>
-      <c r="Y118" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z118" s="13"/>
-      <c r="AA118" s="5"/>
-      <c r="AB118" s="5"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB118" s="13"/>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
       <c r="AF118" s="5"/>
       <c r="AG118" s="5"/>
       <c r="AH118" s="5"/>
-    </row>
-    <row r="119" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI118" s="5"/>
+      <c r="AJ118" s="5"/>
+    </row>
+    <row r="119" spans="1:36" ht="15.75" customHeight="1">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7839,8 +8121,8 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
-      <c r="Y119" s="5"/>
-      <c r="Z119" s="5"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
       <c r="AA119" s="5"/>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
@@ -7849,8 +8131,10 @@
       <c r="AF119" s="5"/>
       <c r="AG119" s="5"/>
       <c r="AH119" s="5"/>
-    </row>
-    <row r="120" spans="1:34" ht="15.75" customHeight="1">
+      <c r="AI119" s="5"/>
+      <c r="AJ119" s="5"/>
+    </row>
+    <row r="120" spans="1:36" ht="15.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7875,8 +8159,8 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
-      <c r="Y120" s="5"/>
-      <c r="Z120" s="5"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
       <c r="AC120" s="5"/>
@@ -7885,6 +8169,8 @@
       <c r="AF120" s="5"/>
       <c r="AG120" s="5"/>
       <c r="AH120" s="5"/>
+      <c r="AI120" s="5"/>
+      <c r="AJ120" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -7892,7 +8178,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
@@ -7900,6 +8186,12 @@
           <xm:sqref>A2:A120</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>入力規則!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K120</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -7916,69 +8208,93 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>216</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>219</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>79</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="18" t="s">
-        <v>199</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>

--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE7CEAE-014C-4C0A-A629-D99361525EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E877D43-4C4A-4E00-A79B-CC3682532CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="4410" windowWidth="24000" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7005" yWindow="3990" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH61_日野森駅_UIList" sheetId="1" r:id="rId1"/>

--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E877D43-4C4A-4E00-A79B-CC3682532CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A85E17-50C1-47CB-B3C7-199AEF934589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="3990" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="4380" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH61_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="265">
   <si>
     <t>Type</t>
   </si>
@@ -609,6 +609,9 @@
     <t>物理てこ</t>
   </si>
   <si>
+    <t>TH61_1</t>
+  </si>
+  <si>
     <t>-1,1</t>
   </si>
   <si>
@@ -636,6 +639,9 @@
     <t>2R</t>
   </si>
   <si>
+    <t>TH61_2</t>
+  </si>
+  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -654,7 +660,7 @@
     <t>信号機表示灯</t>
   </si>
   <si>
-    <t>2RA</t>
+    <t>日野森上り場内2RA</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/G.png</t>
@@ -666,7 +672,7 @@
     <t>2RB_G</t>
   </si>
   <si>
-    <t>2RB</t>
+    <t>日野森上り場内2RB</t>
   </si>
   <si>
     <t>2R_Label</t>
@@ -675,6 +681,9 @@
     <t>3L</t>
   </si>
   <si>
+    <t>TH61_3</t>
+  </si>
+  <si>
     <t>-1,0</t>
   </si>
   <si>
@@ -687,33 +696,54 @@
     <t>3L_G</t>
   </si>
   <si>
+    <t>日野森下り出発3L</t>
+  </si>
+  <si>
     <t>3L_Label</t>
   </si>
   <si>
     <t>4L</t>
   </si>
   <si>
+    <t>TH61_4</t>
+  </si>
+  <si>
     <t>4L_G</t>
   </si>
   <si>
+    <t>日野森下り出発4L</t>
+  </si>
+  <si>
     <t>4L_Label</t>
   </si>
   <si>
     <t>5R</t>
   </si>
   <si>
+    <t>TH61_5</t>
+  </si>
+  <si>
     <t>5R_G</t>
   </si>
   <si>
+    <t>日野森上り出発5R</t>
+  </si>
+  <si>
     <t>5R_Label</t>
   </si>
   <si>
     <t>6L</t>
   </si>
   <si>
+    <t>TH61_6</t>
+  </si>
+  <si>
     <t>6L_G</t>
   </si>
   <si>
+    <t>日野森下り場内6L</t>
+  </si>
+  <si>
     <t>6L_Label</t>
   </si>
   <si>
@@ -726,6 +756,9 @@
     <t>着点ボタン</t>
   </si>
   <si>
+    <t>TH61_TP</t>
+  </si>
+  <si>
     <t>Image/Button/ArrivalButton_Base.png</t>
   </si>
   <si>
@@ -738,24 +771,36 @@
     <t>A</t>
   </si>
   <si>
+    <t>TH61_AP</t>
+  </si>
+  <si>
     <t>A_Label</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>TH61_BP</t>
+  </si>
+  <si>
     <t>B_Label</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>TH61_CP</t>
+  </si>
+  <si>
     <t>C_Label</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
+    <t>TH61_SP</t>
+  </si>
+  <si>
     <t>S_Label</t>
   </si>
   <si>
@@ -771,6 +816,12 @@
     <t>警報下り接近</t>
   </si>
   <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>TH61_21</t>
+  </si>
+  <si>
     <t>P21</t>
   </si>
   <si>
@@ -786,34 +837,52 @@
     <t>転てつ器単独てこはNCR</t>
   </si>
   <si>
-    <t>P21_PG</t>
+    <t>W21_PG</t>
   </si>
   <si>
     <t>転てつ器表示灯</t>
   </si>
   <si>
+    <t>TH61_W21</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Image/Light/N.png,Image/Light/PG.png</t>
   </si>
   <si>
-    <t>P21_PY</t>
+    <t>W21_PY</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
   <si>
     <t>Image/Light/N.png,Image/Light/PY.png</t>
   </si>
   <si>
-    <t>P21_Label</t>
+    <t>W21_Label</t>
+  </si>
+  <si>
+    <t>W22</t>
+  </si>
+  <si>
+    <t>TH61_22</t>
   </si>
   <si>
     <t>P22</t>
   </si>
   <si>
-    <t>P22_PG</t>
-  </si>
-  <si>
-    <t>P22_PY</t>
-  </si>
-  <si>
-    <t>P22_Label</t>
+    <t>W22_PG</t>
+  </si>
+  <si>
+    <t>TH61_W22</t>
+  </si>
+  <si>
+    <t>W22_PY</t>
+  </si>
+  <si>
+    <t>W22_Label</t>
   </si>
   <si>
     <t>KeyImage</t>
@@ -861,12 +930,18 @@
     <t>駅扱切換_PG</t>
   </si>
   <si>
-    <t>TH62_21T_P21N_1</t>
+    <t>TH62_21T_W21N_1</t>
   </si>
   <si>
     <t>軌道回路表示灯</t>
   </si>
   <si>
+    <t>TH62_21T</t>
+  </si>
+  <si>
+    <t>TH62_W21</t>
+  </si>
+  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -876,13 +951,13 @@
     <t>0度※以下0度省略</t>
   </si>
   <si>
-    <t>TH62_21T_P21N_2</t>
-  </si>
-  <si>
-    <t>TH62_21T_P21R_1</t>
-  </si>
-  <si>
-    <t>TH62_21T_P21R_2</t>
+    <t>TH62_21T_W21N_2</t>
+  </si>
+  <si>
+    <t>TH62_21T_W21R_1</t>
+  </si>
+  <si>
+    <t>TH62_21T_W21R_2</t>
   </si>
   <si>
     <t>Image/Light/112N.png,Image/Light/112Y.png,Image/Light/112R.png</t>
@@ -894,34 +969,55 @@
     <t>TH62_12LT_1</t>
   </si>
   <si>
+    <t>TH62_12LT</t>
+  </si>
+  <si>
     <t>TH62_13LT_1</t>
   </si>
   <si>
+    <t>TH62_13LT</t>
+  </si>
+  <si>
     <t>TH62_12RT_1</t>
   </si>
   <si>
+    <t>TH62_12RT</t>
+  </si>
+  <si>
     <t>TH62_12RT_2</t>
   </si>
   <si>
     <t>TH62_15LT_1</t>
   </si>
   <si>
+    <t>TH62_15LT</t>
+  </si>
+  <si>
     <t>TH62_15LT_2</t>
   </si>
   <si>
     <t>TH62_14RT_1</t>
   </si>
   <si>
+    <t>TH62_14RT</t>
+  </si>
+  <si>
     <t>TH62_15RT_1</t>
   </si>
   <si>
-    <t>TH62_22T_P22N_1</t>
-  </si>
-  <si>
-    <t>TH62_22T_P22N_2</t>
-  </si>
-  <si>
-    <t>TH62_22T_P22R_1</t>
+    <t>TH62_22T_W22N_1</t>
+  </si>
+  <si>
+    <t>TH62_22T</t>
+  </si>
+  <si>
+    <t>TH62_W22</t>
+  </si>
+  <si>
+    <t>TH62_22T_W22N_2</t>
+  </si>
+  <si>
+    <t>TH62_22T_W22R_1</t>
   </si>
   <si>
     <t>Image/Light/68N.png,Image/Light/68Y.png,Image/Light/68R.png</t>
@@ -930,18 +1026,24 @@
     <t>68度</t>
   </si>
   <si>
-    <t>TH62_22T_P22R_2</t>
+    <t>TH62_22T_W22R_2</t>
   </si>
   <si>
     <t>TH1T_1</t>
   </si>
   <si>
+    <t>TH1T</t>
+  </si>
+  <si>
     <t>TH2T_1</t>
   </si>
   <si>
     <t>方向てこ表示灯</t>
   </si>
   <si>
+    <t>TH2T</t>
+  </si>
+  <si>
     <t>TH2T_2</t>
   </si>
   <si>
@@ -972,28 +1074,37 @@
     <t>TH61_2RT_1</t>
   </si>
   <si>
+    <t>TH61_2RT</t>
+  </si>
+  <si>
     <t>TH61_2RT_2</t>
   </si>
   <si>
-    <t>TH61_21イT_P21イN_1</t>
-  </si>
-  <si>
-    <t>TH61_21イT_P21イN_2</t>
-  </si>
-  <si>
-    <t>TH61_21イT_P21イR_1</t>
-  </si>
-  <si>
-    <t>TH61_21イT_P21イR_2</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロN_1</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロN_2</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロN_3</t>
+    <t>TH61_21イT_W21イN_1</t>
+  </si>
+  <si>
+    <t>TH61_21イT</t>
+  </si>
+  <si>
+    <t>TH61_21イT_W21イN_2</t>
+  </si>
+  <si>
+    <t>TH61_21イT_W21イR_1</t>
+  </si>
+  <si>
+    <t>TH61_21イT_W21イR_2</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロN_1</t>
+  </si>
+  <si>
+    <t>TH61_21ロT</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロN_2</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロN_3</t>
   </si>
   <si>
     <t>21EM_R</t>
@@ -1005,78 +1116,108 @@
     <t>Image/Light/N.png,Image/Light/R.png</t>
   </si>
   <si>
-    <t>TH61_21ロT_P21ロR_1</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロR_2</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロR_3</t>
-  </si>
-  <si>
-    <t>TH61_21ロT_P21ロR_4</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22N_1</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22N_2</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22N_3</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22R_1</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22R_2</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22R_3</t>
-  </si>
-  <si>
-    <t>TH61_22T_P22R_4</t>
+    <t>TH61_21ロT_W21ロR_1</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロR_2</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロR_3</t>
+  </si>
+  <si>
+    <t>TH61_21ロT_W21ロR_4</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22N_1</t>
+  </si>
+  <si>
+    <t>TH61_22T</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22N_2</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22N_3</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22R_1</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22R_2</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22R_3</t>
+  </si>
+  <si>
+    <t>TH61_22T_W22R_4</t>
   </si>
   <si>
     <t>TH61_2RAT_1</t>
   </si>
   <si>
+    <t>TH61_2RAT</t>
+  </si>
+  <si>
     <t>TH61_2RAT_2</t>
   </si>
   <si>
     <t>TH61_2RBT_1</t>
   </si>
   <si>
+    <t>TH61_2RBT</t>
+  </si>
+  <si>
     <t>TH61_2RBT_2</t>
   </si>
   <si>
     <t>TH61_6LT_1</t>
   </si>
   <si>
+    <t>TH61_6LT</t>
+  </si>
+  <si>
     <t>TH61_6LT_2</t>
   </si>
   <si>
     <t>TH61_5RT_1</t>
   </si>
   <si>
+    <t>TH61_5RT</t>
+  </si>
+  <si>
     <t>TH61_5RT_2</t>
   </si>
   <si>
     <t>237T_1</t>
   </si>
   <si>
+    <t>下り237T</t>
+  </si>
+  <si>
     <t>241T_1</t>
   </si>
   <si>
+    <t>下り241T</t>
+  </si>
+  <si>
     <t>245T_1</t>
   </si>
   <si>
+    <t>下り245T</t>
+  </si>
+  <si>
     <t>249T_1</t>
   </si>
   <si>
+    <t>下り249T</t>
+  </si>
+  <si>
     <t>TH59_12LT_1</t>
   </si>
   <si>
+    <t>TH59_12LT</t>
+  </si>
+  <si>
     <t>停電_R</t>
   </si>
   <si>
@@ -1128,16 +1269,10 @@
     <t>Button</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1261,6 +1396,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1509,7 +1647,9 @@
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="25" width="15.140625" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="25" width="15.140625" customWidth="1"/>
     <col min="26" max="26" width="37.5703125" customWidth="1"/>
     <col min="27" max="27" width="100.140625" customWidth="1"/>
     <col min="28" max="28" width="62.5703125" customWidth="1"/>
@@ -1775,7 +1915,7 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1827,7 +1967,9 @@
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1853,19 +1995,19 @@
         <v>41</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y6" s="6">
         <v>-1</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
@@ -1878,10 +2020,10 @@
     </row>
     <row r="7" spans="1:36" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>41</v>
@@ -1916,10 +2058,10 @@
         <v>10</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W7" s="11" t="s">
         <v>41</v>
@@ -1943,13 +2085,15 @@
         <v>40</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1972,22 +2116,22 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y8" s="6">
         <v>0</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
@@ -2003,14 +2147,14 @@
         <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -2035,17 +2179,17 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y9" s="6">
         <v>0</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -2061,14 +2205,14 @@
         <v>31</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -2093,16 +2237,16 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y10" s="6">
         <v>0</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB10" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="AB10" s="14"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
@@ -2114,13 +2258,13 @@
     </row>
     <row r="11" spans="1:36" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4"/>
@@ -2152,13 +2296,13 @@
         <v>10</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -2179,13 +2323,15 @@
         <v>40</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2208,21 +2354,21 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Y12" s="6">
         <v>0</v>
       </c>
       <c r="Z12" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB12" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="AB12" s="14"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
@@ -2237,14 +2383,14 @@
         <v>31</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -2269,16 +2415,16 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y13" s="6">
         <v>0</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB13" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="AB13" s="14"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
@@ -2290,13 +2436,13 @@
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4"/>
@@ -2328,13 +2474,13 @@
         <v>10</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -2355,13 +2501,15 @@
         <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2384,21 +2532,21 @@
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="X15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB15" s="13"/>
+      <c r="AB15" s="14"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
@@ -2413,14 +2561,14 @@
         <v>31</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -2445,16 +2593,16 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y16" s="6">
         <v>0</v>
       </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB16" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="AB16" s="14"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
@@ -2466,13 +2614,13 @@
     </row>
     <row r="17" spans="1:36" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="4"/>
@@ -2504,13 +2652,13 @@
         <v>10</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
@@ -2531,13 +2679,15 @@
         <v>40</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2560,21 +2710,21 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y18" s="6">
         <v>0</v>
       </c>
       <c r="Z18" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB18" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="AB18" s="14"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
@@ -2589,14 +2739,14 @@
         <v>31</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2621,16 +2771,16 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y19" s="6">
         <v>0</v>
       </c>
       <c r="Z19" s="7"/>
       <c r="AA19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB19" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="AB19" s="14"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
@@ -2642,13 +2792,13 @@
     </row>
     <row r="20" spans="1:36" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="4"/>
@@ -2680,13 +2830,13 @@
         <v>10</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W20" s="11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -2707,13 +2857,15 @@
         <v>40</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2736,21 +2888,21 @@
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Y21" s="6">
         <v>0</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB21" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="AB21" s="14"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
@@ -2765,14 +2917,14 @@
         <v>31</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>76</v>
+        <v>59</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2797,16 +2949,16 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y22" s="6">
         <v>0</v>
       </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB22" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="AB22" s="14"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
@@ -2818,13 +2970,13 @@
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="4"/>
@@ -2856,13 +3008,13 @@
         <v>10</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -2880,16 +3032,18 @@
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2912,21 +3066,21 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y24" s="6">
         <v>0</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB24" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="AB24" s="14"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
@@ -2938,13 +3092,13 @@
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="4"/>
@@ -2970,19 +3124,19 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="T25" s="6">
         <v>10</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
@@ -3000,16 +3154,18 @@
     </row>
     <row r="26" spans="1:36" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -3032,21 +3188,21 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="9" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="X26" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y26" s="6">
         <v>0</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB26" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="AB26" s="14"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
@@ -3058,16 +3214,16 @@
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="11"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -3090,19 +3246,19 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="T27" s="6">
         <v>10</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W27" s="11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
@@ -3120,16 +3276,18 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -3152,21 +3310,21 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="X28" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y28" s="6">
         <v>0</v>
       </c>
       <c r="Z28" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB28" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="AB28" s="14"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
@@ -3178,16 +3336,16 @@
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="11"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3210,19 +3368,19 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="T29" s="6">
         <v>10</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W29" s="11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
@@ -3240,16 +3398,18 @@
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -3272,21 +3432,21 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="X30" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y30" s="6">
         <v>0</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB30" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="AB30" s="14"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
@@ -3298,16 +3458,16 @@
     </row>
     <row r="31" spans="1:36" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="11"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -3330,19 +3490,19 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="11" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="T31" s="6">
         <v>10</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W31" s="11" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
@@ -3360,16 +3520,18 @@
     </row>
     <row r="32" spans="1:36" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -3392,21 +3554,21 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y32" s="6">
         <v>0</v>
       </c>
       <c r="Z32" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AA32" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB32" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="AB32" s="14"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
@@ -3418,16 +3580,16 @@
     </row>
     <row r="33" spans="1:36" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="11"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3450,19 +3612,19 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="11" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="T33" s="6">
         <v>10</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W33" s="11" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
@@ -3480,10 +3642,10 @@
     </row>
     <row r="34" spans="1:36" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -3510,21 +3672,21 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="X34" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y34" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA34" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB34" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="X34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y34" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA34" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB34" s="14"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
@@ -3536,10 +3698,10 @@
     </row>
     <row r="35" spans="1:36" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -3566,21 +3728,21 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="X35" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y35" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA35" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB35" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA35" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB35" s="14"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
@@ -3595,13 +3757,15 @@
         <v>40</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -3624,22 +3788,22 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="9" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="X36" s="6" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="Y36" s="6">
         <v>0</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AA36" s="8" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AB36" s="10" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
@@ -3655,15 +3819,19 @@
         <v>31</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -3685,14 +3853,14 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y37" s="6">
         <v>0</v>
       </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="8" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="AB37" s="10"/>
       <c r="AC37" s="5"/>
@@ -3709,15 +3877,19 @@
         <v>31</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -3739,16 +3911,16 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y38" s="6">
         <v>0</v>
       </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB38" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="AB38" s="14"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
@@ -3760,13 +3932,13 @@
     </row>
     <row r="39" spans="1:36" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>97</v>
+        <v>127</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="4"/>
@@ -3798,13 +3970,13 @@
         <v>10</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W39" s="11" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
@@ -3825,13 +3997,15 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -3854,21 +4028,21 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="9" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="X40" s="6" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="Y40" s="6">
         <v>0</v>
       </c>
       <c r="Z40" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AA40" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB40" s="13"/>
+        <v>117</v>
+      </c>
+      <c r="AB40" s="14"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
@@ -3883,15 +4057,19 @@
         <v>31</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -3913,16 +4091,16 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y41" s="6">
         <v>0</v>
       </c>
       <c r="Z41" s="7"/>
       <c r="AA41" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB41" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="AB41" s="14"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
@@ -3937,15 +4115,19 @@
         <v>31</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3967,16 +4149,16 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y42" s="6">
         <v>0</v>
       </c>
       <c r="Z42" s="7"/>
       <c r="AA42" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB42" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="AB42" s="14"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
@@ -3988,13 +4170,13 @@
     </row>
     <row r="43" spans="1:36" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>108</v>
+        <v>134</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="4"/>
@@ -4026,13 +4208,13 @@
         <v>10</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V43" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="W43" s="11" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
@@ -4050,14 +4232,14 @@
     </row>
     <row r="44" spans="1:36" ht="25.5">
       <c r="A44" s="4" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="17" t="s">
-        <v>114</v>
+      <c r="D44" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -4082,22 +4264,22 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="9" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="Y44" s="6">
         <v>0</v>
       </c>
       <c r="Z44" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA44" s="8" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
@@ -4113,11 +4295,11 @@
         <v>31</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -4143,16 +4325,16 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y45" s="6">
         <v>0</v>
       </c>
       <c r="Z45" s="7"/>
       <c r="AA45" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB45" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="AB45" s="14"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
@@ -4164,14 +4346,14 @@
     </row>
     <row r="46" spans="1:36" ht="25.5">
       <c r="A46" s="4" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="17" t="s">
-        <v>114</v>
+      <c r="D46" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -4196,22 +4378,22 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="9" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="X46" s="6" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="Y46" s="6">
         <v>1</v>
       </c>
       <c r="Z46" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA46" s="8" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="AB46" s="10" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
@@ -4227,11 +4409,11 @@
         <v>31</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="17" t="s">
-        <v>125</v>
+      <c r="D47" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -4257,16 +4439,16 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y47" s="6">
         <v>0</v>
       </c>
       <c r="Z47" s="7"/>
       <c r="AA47" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB47" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="AB47" s="14"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
@@ -4281,11 +4463,11 @@
         <v>31</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="17" t="s">
-        <v>125</v>
+      <c r="D48" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -4311,16 +4493,16 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y48" s="6">
         <v>0</v>
       </c>
       <c r="Z48" s="7"/>
       <c r="AA48" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB48" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="AB48" s="14"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
@@ -4335,15 +4517,21 @@
         <v>31</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -4365,17 +4553,17 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y49" s="6">
         <v>0</v>
       </c>
       <c r="Z49" s="7"/>
       <c r="AA49" s="8" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="AB49" s="10" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
@@ -4391,15 +4579,21 @@
         <v>31</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -4421,16 +4615,16 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y50" s="6">
         <v>0</v>
       </c>
       <c r="Z50" s="7"/>
       <c r="AA50" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB50" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB50" s="14"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
@@ -4445,15 +4639,21 @@
         <v>31</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -4475,16 +4675,16 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y51" s="6">
         <v>0</v>
       </c>
       <c r="Z51" s="7"/>
       <c r="AA51" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB51" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB51" s="14"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
@@ -4499,15 +4699,21 @@
         <v>31</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -4528,18 +4734,18 @@
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
-      <c r="X52" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y52" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="15"/>
-      <c r="AA52" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB52" s="13" t="s">
-        <v>136</v>
+      <c r="X52" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y52" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB52" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -4555,13 +4761,15 @@
         <v>31</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4585,16 +4793,16 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y53" s="6">
         <v>0</v>
       </c>
       <c r="Z53" s="7"/>
       <c r="AA53" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB53" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB53" s="14"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
@@ -4609,13 +4817,15 @@
         <v>31</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4639,16 +4849,16 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y54" s="6">
         <v>0</v>
       </c>
       <c r="Z54" s="7"/>
       <c r="AA54" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB54" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB54" s="14"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
@@ -4663,13 +4873,15 @@
         <v>31</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -4693,16 +4905,16 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y55" s="6">
         <v>0</v>
       </c>
       <c r="Z55" s="7"/>
       <c r="AA55" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB55" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB55" s="14"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
@@ -4717,13 +4929,15 @@
         <v>31</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4747,16 +4961,16 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y56" s="6">
         <v>0</v>
       </c>
       <c r="Z56" s="7"/>
       <c r="AA56" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB56" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB56" s="14"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
@@ -4771,13 +4985,15 @@
         <v>31</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -4801,16 +5017,16 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y57" s="6">
         <v>0</v>
       </c>
       <c r="Z57" s="7"/>
       <c r="AA57" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB57" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB57" s="14"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
@@ -4825,13 +5041,15 @@
         <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -4855,16 +5073,16 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y58" s="6">
         <v>0</v>
       </c>
       <c r="Z58" s="7"/>
       <c r="AA58" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB58" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB58" s="14"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
@@ -4879,13 +5097,15 @@
         <v>31</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -4909,16 +5129,16 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y59" s="6">
         <v>0</v>
       </c>
       <c r="Z59" s="7"/>
       <c r="AA59" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB59" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB59" s="14"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
@@ -4933,13 +5153,15 @@
         <v>31</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -4963,16 +5185,16 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y60" s="6">
         <v>0</v>
       </c>
       <c r="Z60" s="7"/>
       <c r="AA60" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB60" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB60" s="14"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
@@ -4987,15 +5209,21 @@
         <v>31</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -5017,16 +5245,16 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y61" s="6">
         <v>0</v>
       </c>
       <c r="Z61" s="7"/>
       <c r="AA61" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB61" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB61" s="14"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
@@ -5041,15 +5269,21 @@
         <v>31</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -5071,16 +5305,16 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y62" s="6">
         <v>0</v>
       </c>
       <c r="Z62" s="7"/>
       <c r="AA62" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB62" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB62" s="14"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
@@ -5095,15 +5329,21 @@
         <v>31</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -5124,18 +5364,18 @@
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
-      <c r="X63" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y63" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="15"/>
-      <c r="AA63" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB63" s="13" t="s">
-        <v>149</v>
+      <c r="X63" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y63" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB63" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -5151,15 +5391,21 @@
         <v>31</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
@@ -5181,16 +5427,16 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y64" s="6">
         <v>0</v>
       </c>
       <c r="Z64" s="7"/>
       <c r="AA64" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB64" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB64" s="14"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
@@ -5205,13 +5451,15 @@
         <v>31</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>184</v>
+      </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -5235,16 +5483,16 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y65" s="6">
         <v>0</v>
       </c>
       <c r="Z65" s="7"/>
       <c r="AA65" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB65" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB65" s="14"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
@@ -5259,13 +5507,15 @@
         <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E66" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -5289,16 +5539,16 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y66" s="6">
         <v>0</v>
       </c>
       <c r="Z66" s="7"/>
       <c r="AA66" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB66" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB66" s="14"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
@@ -5313,13 +5563,15 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -5343,16 +5595,16 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y67" s="6">
         <v>0</v>
       </c>
       <c r="Z67" s="7"/>
       <c r="AA67" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB67" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB67" s="14"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
@@ -5367,13 +5619,15 @@
         <v>31</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E68" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -5396,18 +5650,18 @@
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
-      <c r="X68" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y68" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="15"/>
-      <c r="AA68" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB68" s="13" t="s">
-        <v>157</v>
+      <c r="X68" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y68" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB68" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5423,13 +5677,15 @@
         <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E69" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -5452,18 +5708,18 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="X69" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y69" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="15"/>
-      <c r="AA69" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB69" s="13" t="s">
-        <v>160</v>
+      <c r="X69" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y69" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB69" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
@@ -5479,13 +5735,15 @@
         <v>31</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E70" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -5508,18 +5766,18 @@
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
-      <c r="X70" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y70" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="15"/>
-      <c r="AA70" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB70" s="13" t="s">
-        <v>160</v>
+      <c r="X70" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y70" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB70" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -5535,13 +5793,15 @@
         <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E71" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -5564,18 +5824,18 @@
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
-      <c r="X71" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y71" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z71" s="15"/>
-      <c r="AA71" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB71" s="13" t="s">
-        <v>157</v>
+      <c r="X71" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y71" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB71" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
@@ -5591,13 +5851,15 @@
         <v>31</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -5621,16 +5883,16 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y72" s="6">
         <v>0</v>
       </c>
       <c r="Z72" s="7"/>
       <c r="AA72" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB72" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB72" s="14"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
@@ -5645,13 +5907,15 @@
         <v>31</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E73" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>198</v>
+      </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -5675,16 +5939,16 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y73" s="6">
         <v>0</v>
       </c>
       <c r="Z73" s="7"/>
       <c r="AA73" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB73" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB73" s="14"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
@@ -5699,15 +5963,21 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -5729,16 +5999,16 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y74" s="6">
         <v>0</v>
       </c>
       <c r="Z74" s="7"/>
       <c r="AA74" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB74" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB74" s="14"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
@@ -5753,15 +6023,21 @@
         <v>31</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -5783,16 +6059,16 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y75" s="6">
         <v>0</v>
       </c>
       <c r="Z75" s="7"/>
       <c r="AA75" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB75" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB75" s="14"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
@@ -5807,15 +6083,21 @@
         <v>31</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -5837,16 +6119,16 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y76" s="6">
         <v>0</v>
       </c>
       <c r="Z76" s="7"/>
       <c r="AA76" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB76" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB76" s="14"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
@@ -5861,15 +6143,21 @@
         <v>31</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -5890,18 +6178,18 @@
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
-      <c r="X77" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y77" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z77" s="15"/>
-      <c r="AA77" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB77" s="13" t="s">
-        <v>160</v>
+      <c r="X77" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y77" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="16"/>
+      <c r="AA77" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB77" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
@@ -5917,15 +6205,21 @@
         <v>31</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -5947,16 +6241,16 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y78" s="6">
         <v>0</v>
       </c>
       <c r="Z78" s="7"/>
       <c r="AA78" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB78" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB78" s="14"/>
       <c r="AC78" s="5"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
@@ -5971,15 +6265,21 @@
         <v>31</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -6001,16 +6301,16 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y79" s="6">
         <v>0</v>
       </c>
       <c r="Z79" s="7"/>
       <c r="AA79" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB79" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB79" s="14"/>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
@@ -6025,15 +6325,21 @@
         <v>31</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6055,16 +6361,16 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y80" s="6">
         <v>0</v>
       </c>
       <c r="Z80" s="7"/>
       <c r="AA80" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB80" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB80" s="14"/>
       <c r="AC80" s="5"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
@@ -6079,11 +6385,11 @@
         <v>31</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -6108,15 +6414,15 @@
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
-      <c r="X81" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y81" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="15"/>
-      <c r="AA81" s="16" t="s">
-        <v>174</v>
+      <c r="X81" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y81" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="16"/>
+      <c r="AA81" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="AB81" s="10"/>
       <c r="AC81" s="5"/>
@@ -6133,15 +6439,21 @@
         <v>31</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6162,18 +6474,18 @@
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
-      <c r="X82" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y82" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="15"/>
-      <c r="AA82" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB82" s="13" t="s">
-        <v>160</v>
+      <c r="X82" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y82" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="16"/>
+      <c r="AA82" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB82" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
@@ -6189,15 +6501,21 @@
         <v>31</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -6219,16 +6537,16 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y83" s="6">
         <v>0</v>
       </c>
       <c r="Z83" s="7"/>
       <c r="AA83" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB83" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB83" s="14"/>
       <c r="AC83" s="5"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
@@ -6243,15 +6561,21 @@
         <v>31</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -6273,16 +6597,16 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y84" s="6">
         <v>0</v>
       </c>
       <c r="Z84" s="7"/>
       <c r="AA84" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB84" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB84" s="14"/>
       <c r="AC84" s="5"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
@@ -6297,15 +6621,21 @@
         <v>31</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
@@ -6327,16 +6657,16 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y85" s="6">
         <v>0</v>
       </c>
       <c r="Z85" s="7"/>
       <c r="AA85" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB85" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB85" s="14"/>
       <c r="AC85" s="5"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
@@ -6351,15 +6681,21 @@
         <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
@@ -6381,16 +6717,16 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y86" s="6">
         <v>0</v>
       </c>
       <c r="Z86" s="7"/>
       <c r="AA86" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB86" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB86" s="14"/>
       <c r="AC86" s="5"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
@@ -6405,15 +6741,21 @@
         <v>31</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
@@ -6435,16 +6777,16 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y87" s="6">
         <v>0</v>
       </c>
       <c r="Z87" s="7"/>
       <c r="AA87" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB87" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB87" s="14"/>
       <c r="AC87" s="5"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
@@ -6459,15 +6801,21 @@
         <v>31</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
@@ -6489,16 +6837,16 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y88" s="6">
         <v>0</v>
       </c>
       <c r="Z88" s="7"/>
       <c r="AA88" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB88" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB88" s="14"/>
       <c r="AC88" s="5"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
@@ -6513,15 +6861,21 @@
         <v>31</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
@@ -6543,16 +6897,16 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y89" s="6">
         <v>0</v>
       </c>
       <c r="Z89" s="7"/>
       <c r="AA89" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB89" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB89" s="14"/>
       <c r="AC89" s="5"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
@@ -6567,15 +6921,21 @@
         <v>31</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -6596,18 +6956,18 @@
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
-      <c r="X90" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y90" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z90" s="15"/>
-      <c r="AA90" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB90" s="13" t="s">
-        <v>157</v>
+      <c r="X90" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y90" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="16"/>
+      <c r="AA90" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB90" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
@@ -6623,15 +6983,21 @@
         <v>31</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
@@ -6652,18 +7018,18 @@
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
-      <c r="X91" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y91" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="15"/>
-      <c r="AA91" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB91" s="13" t="s">
-        <v>157</v>
+      <c r="X91" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y91" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="16"/>
+      <c r="AA91" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB91" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
@@ -6679,15 +7045,21 @@
         <v>31</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
@@ -6709,16 +7081,16 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y92" s="6">
         <v>0</v>
       </c>
       <c r="Z92" s="7"/>
       <c r="AA92" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB92" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB92" s="14"/>
       <c r="AC92" s="5"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
@@ -6733,13 +7105,15 @@
         <v>31</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E93" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -6763,16 +7137,16 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y93" s="6">
         <v>0</v>
       </c>
       <c r="Z93" s="7"/>
       <c r="AA93" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB93" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB93" s="14"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
@@ -6787,13 +7161,15 @@
         <v>31</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E94" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>225</v>
+      </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -6817,16 +7193,16 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y94" s="6">
         <v>0</v>
       </c>
       <c r="Z94" s="7"/>
       <c r="AA94" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB94" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB94" s="14"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
@@ -6841,13 +7217,15 @@
         <v>31</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E95" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -6871,16 +7249,16 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y95" s="6">
         <v>0</v>
       </c>
       <c r="Z95" s="7"/>
       <c r="AA95" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB95" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB95" s="14"/>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
@@ -6895,13 +7273,15 @@
         <v>31</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E96" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -6925,16 +7305,16 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y96" s="6">
         <v>0</v>
       </c>
       <c r="Z96" s="7"/>
       <c r="AA96" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB96" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB96" s="14"/>
       <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
@@ -6949,13 +7329,15 @@
         <v>31</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E97" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>231</v>
+      </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -6979,16 +7361,16 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y97" s="6">
         <v>0</v>
       </c>
       <c r="Z97" s="7"/>
       <c r="AA97" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB97" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB97" s="14"/>
       <c r="AC97" s="5"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
@@ -7003,13 +7385,15 @@
         <v>31</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E98" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>231</v>
+      </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -7033,16 +7417,16 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y98" s="6">
         <v>0</v>
       </c>
       <c r="Z98" s="7"/>
       <c r="AA98" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB98" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB98" s="14"/>
       <c r="AC98" s="5"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
@@ -7057,13 +7441,15 @@
         <v>31</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E99" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -7087,16 +7473,16 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y99" s="6">
         <v>0</v>
       </c>
       <c r="Z99" s="7"/>
       <c r="AA99" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB99" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB99" s="14"/>
       <c r="AC99" s="5"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
@@ -7111,13 +7497,15 @@
         <v>31</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>234</v>
+      </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -7141,16 +7529,16 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y100" s="6">
         <v>0</v>
       </c>
       <c r="Z100" s="7"/>
       <c r="AA100" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB100" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB100" s="14"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
@@ -7165,13 +7553,15 @@
         <v>31</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>237</v>
+      </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -7195,16 +7585,16 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y101" s="6">
         <v>0</v>
       </c>
       <c r="Z101" s="7"/>
       <c r="AA101" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB101" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB101" s="14"/>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
@@ -7219,13 +7609,15 @@
         <v>31</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>239</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -7249,16 +7641,16 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y102" s="6">
         <v>0</v>
       </c>
       <c r="Z102" s="7"/>
       <c r="AA102" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB102" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB102" s="14"/>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
@@ -7273,13 +7665,15 @@
         <v>31</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E103" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>241</v>
+      </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -7303,16 +7697,16 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y103" s="6">
         <v>0</v>
       </c>
       <c r="Z103" s="7"/>
       <c r="AA103" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB103" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB103" s="14"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
@@ -7327,13 +7721,15 @@
         <v>31</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E104" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>243</v>
+      </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -7357,16 +7753,16 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="6" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="Y104" s="6">
         <v>0</v>
       </c>
       <c r="Z104" s="7"/>
       <c r="AA104" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB104" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="AB104" s="14"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
@@ -7381,13 +7777,15 @@
         <v>31</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E105" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -7410,17 +7808,17 @@
       <c r="U105" s="4"/>
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
-      <c r="X105" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y105" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z105" s="15"/>
-      <c r="AA105" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB105" s="13"/>
+      <c r="X105" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y105" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="16"/>
+      <c r="AA105" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB105" s="14"/>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
@@ -7435,11 +7833,11 @@
         <v>31</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -7464,17 +7862,17 @@
       <c r="U106" s="4"/>
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
-      <c r="X106" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y106" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="15"/>
-      <c r="AA106" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB106" s="13"/>
+      <c r="X106" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y106" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="16"/>
+      <c r="AA106" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB106" s="14"/>
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
@@ -7489,11 +7887,11 @@
         <v>31</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -7518,17 +7916,17 @@
       <c r="U107" s="4"/>
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
-      <c r="X107" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y107" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z107" s="15"/>
-      <c r="AA107" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB107" s="13"/>
+      <c r="X107" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y107" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="16"/>
+      <c r="AA107" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB107" s="14"/>
       <c r="AC107" s="5"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
@@ -7543,11 +7941,11 @@
         <v>31</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -7572,17 +7970,17 @@
       <c r="U108" s="4"/>
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
-      <c r="X108" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y108" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="15"/>
-      <c r="AA108" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB108" s="13"/>
+      <c r="X108" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y108" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="16"/>
+      <c r="AA108" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB108" s="14"/>
       <c r="AC108" s="5"/>
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
@@ -7597,11 +7995,11 @@
         <v>31</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -7626,15 +8024,15 @@
       <c r="U109" s="4"/>
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
-      <c r="X109" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y109" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="15"/>
-      <c r="AA109" s="16" t="s">
-        <v>174</v>
+      <c r="X109" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y109" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="16"/>
+      <c r="AA109" s="17" t="s">
+        <v>211</v>
       </c>
       <c r="AB109" s="10"/>
       <c r="AC109" s="5"/>
@@ -7648,14 +8046,14 @@
     </row>
     <row r="110" spans="1:36" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="C110" s="4"/>
-      <c r="D110" s="17" t="s">
-        <v>205</v>
+      <c r="D110" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -7684,9 +8082,9 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
       <c r="AA110" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB110" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="AB110" s="14"/>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
@@ -7698,14 +8096,14 @@
     </row>
     <row r="111" spans="1:36" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="C111" s="4"/>
-      <c r="D111" s="17" t="s">
-        <v>205</v>
+      <c r="D111" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -7734,9 +8132,9 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB111" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="AB111" s="14"/>
       <c r="AC111" s="5"/>
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
@@ -7748,14 +8146,14 @@
     </row>
     <row r="112" spans="1:36" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="C112" s="4"/>
-      <c r="D112" s="17" t="s">
-        <v>205</v>
+      <c r="D112" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -7784,9 +8182,9 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB112" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="AB112" s="14"/>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
@@ -7798,14 +8196,14 @@
     </row>
     <row r="113" spans="1:36" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="C113" s="4"/>
-      <c r="D113" s="17" t="s">
-        <v>205</v>
+      <c r="D113" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -7834,9 +8232,9 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB113" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="AB113" s="14"/>
       <c r="AC113" s="5"/>
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
@@ -7848,14 +8246,14 @@
     </row>
     <row r="114" spans="1:36" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="C114" s="4"/>
-      <c r="D114" s="17" t="s">
-        <v>205</v>
+      <c r="D114" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -7884,9 +8282,9 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB114" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="AB114" s="14"/>
       <c r="AC114" s="5"/>
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
@@ -7898,14 +8296,14 @@
     </row>
     <row r="115" spans="1:36" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="C115" s="4"/>
-      <c r="D115" s="17" t="s">
-        <v>205</v>
+      <c r="D115" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -7934,9 +8332,9 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB115" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="AB115" s="14"/>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
@@ -7948,14 +8346,14 @@
     </row>
     <row r="116" spans="1:36" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="C116" s="4"/>
-      <c r="D116" s="17" t="s">
-        <v>205</v>
+      <c r="D116" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -7984,9 +8382,9 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
       <c r="AA116" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB116" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="AB116" s="14"/>
       <c r="AC116" s="5"/>
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
@@ -7998,14 +8396,14 @@
     </row>
     <row r="117" spans="1:36" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="C117" s="4"/>
-      <c r="D117" s="17" t="s">
-        <v>205</v>
+      <c r="D117" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -8034,9 +8432,9 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
       <c r="AA117" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB117" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="AB117" s="14"/>
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
@@ -8048,14 +8446,14 @@
     </row>
     <row r="118" spans="1:36" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="C118" s="4"/>
-      <c r="D118" s="17" t="s">
-        <v>205</v>
+      <c r="D118" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -8084,9 +8482,9 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
       <c r="AA118" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB118" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="AB118" s="14"/>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
@@ -8215,83 +8613,83 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>217</v>
+      <c r="A1" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>216</v>
+      <c r="A2" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>219</v>
+      <c r="A3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="18" t="s">
-        <v>112</v>
+      <c r="A8" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="18" t="s">
-        <v>79</v>
+      <c r="A9" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="18" t="s">
-        <v>203</v>
+      <c r="A10" s="19" t="s">
+        <v>250</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A85E17-50C1-47CB-B3C7-199AEF934589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5D8200-C579-4E33-821E-021984793276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="4380" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="4785" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH61_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>配置する画像の種類を選択</t>
@@ -46,6 +47,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>シート内で重複しない名称を指定</t>
@@ -59,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>親となる画像がある場合に指定
@@ -74,6 +77,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>サーバー側分類</t>
@@ -87,6 +91,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>サーバー側名称</t>
@@ -100,6 +105,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">制御条件に含む転てつ器名称（省略可）
@@ -114,6 +120,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器状態
@@ -128,6 +135,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">制御条件に含む転てつ器名称（省略可）
@@ -142,6 +150,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器状態
@@ -156,6 +165,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む方向てこの名称（省略可）</t>
@@ -169,6 +179,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む方向てこ状態
@@ -183,6 +194,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>X座標（幅方向）を指定する</t>
@@ -196,6 +208,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Y座標（高さ方向）を指定する</t>
@@ -209,6 +222,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の幅を指定（省略可）
@@ -223,6 +237,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の高さを指定（省略可）
@@ -237,6 +252,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の回転角度を指定する（省略可）</t>
@@ -250,6 +266,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>回転させる中心点を指定する
@@ -264,6 +281,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>回転させる中心点を指定する
@@ -278,6 +296,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>表示したい文字列を指定
@@ -295,6 +314,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>表示したい文字列のサイズを指定
@@ -312,6 +332,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>背景色を指定
@@ -329,6 +350,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>文字色を指定
@@ -346,6 +368,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>マウスクリック動作を行う場合に設定
@@ -360,6 +383,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Base画像以外の差分用数値（カンマ区切り）
@@ -392,6 +416,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>ImagePattenの中から表示する画像番号を指定</t>
@@ -405,6 +430,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>読み込むBase画像の相対パスを記入
@@ -434,6 +460,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>読み込む画像の相対パスを記入
@@ -466,6 +493,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>備考欄
@@ -478,7 +506,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="268">
   <si>
     <t>Type</t>
   </si>
@@ -894,6 +922,9 @@
     <t>物理鍵てこ</t>
   </si>
   <si>
+    <t>TH61_98</t>
+  </si>
+  <si>
     <t>0,1,10,11</t>
   </si>
   <si>
@@ -912,6 +943,9 @@
     <t>駅扱切換</t>
   </si>
   <si>
+    <t>TH61_81</t>
+  </si>
+  <si>
     <t>-1,1,-11,11</t>
   </si>
   <si>
@@ -1003,6 +1037,9 @@
   </si>
   <si>
     <t>TH62_15RT_1</t>
+  </si>
+  <si>
+    <t>TH62_15RT</t>
   </si>
   <si>
     <t>TH62_22T_W22N_1</t>
@@ -1279,7 +1316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1332,6 +1369,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1640,7 +1684,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4241,7 +4285,9 @@
       <c r="D44" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -4267,7 +4313,7 @@
         <v>136</v>
       </c>
       <c r="X44" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Y44" s="6">
         <v>0</v>
@@ -4276,10 +4322,10 @@
         <v>55</v>
       </c>
       <c r="AA44" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AB44" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
@@ -4295,13 +4341,15 @@
         <v>31</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -4349,13 +4397,15 @@
         <v>135</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -4378,10 +4428,10 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X46" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y46" s="6">
         <v>1</v>
@@ -4390,10 +4440,10 @@
         <v>45</v>
       </c>
       <c r="AA46" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AB46" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
@@ -4409,13 +4459,15 @@
         <v>31</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -4463,13 +4515,15 @@
         <v>31</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -4517,17 +4571,17 @@
         <v>31</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>122</v>
@@ -4553,17 +4607,17 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y49" s="6">
         <v>0</v>
       </c>
       <c r="Z49" s="7"/>
       <c r="AA49" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB49" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
@@ -4579,17 +4633,17 @@
         <v>31</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>122</v>
@@ -4615,14 +4669,14 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y50" s="6">
         <v>0</v>
       </c>
       <c r="Z50" s="7"/>
       <c r="AA50" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB50" s="14"/>
       <c r="AC50" s="5"/>
@@ -4639,17 +4693,17 @@
         <v>31</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>125</v>
@@ -4675,14 +4729,14 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y51" s="6">
         <v>0</v>
       </c>
       <c r="Z51" s="7"/>
       <c r="AA51" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB51" s="14"/>
       <c r="AC51" s="5"/>
@@ -4699,17 +4753,17 @@
         <v>31</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>125</v>
@@ -4735,17 +4789,17 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y52" s="15">
         <v>0</v>
       </c>
       <c r="Z52" s="16"/>
       <c r="AA52" s="17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AB52" s="14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -4761,14 +4815,14 @@
         <v>31</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -4793,14 +4847,14 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y53" s="6">
         <v>0</v>
       </c>
       <c r="Z53" s="7"/>
       <c r="AA53" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB53" s="14"/>
       <c r="AC53" s="5"/>
@@ -4817,14 +4871,14 @@
         <v>31</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -4849,14 +4903,14 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y54" s="6">
         <v>0</v>
       </c>
       <c r="Z54" s="7"/>
       <c r="AA54" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB54" s="14"/>
       <c r="AC54" s="5"/>
@@ -4873,14 +4927,14 @@
         <v>31</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -4905,14 +4959,14 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y55" s="6">
         <v>0</v>
       </c>
       <c r="Z55" s="7"/>
       <c r="AA55" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB55" s="14"/>
       <c r="AC55" s="5"/>
@@ -4929,14 +4983,14 @@
         <v>31</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -4961,14 +5015,14 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y56" s="6">
         <v>0</v>
       </c>
       <c r="Z56" s="7"/>
       <c r="AA56" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB56" s="14"/>
       <c r="AC56" s="5"/>
@@ -4985,14 +5039,14 @@
         <v>31</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -5017,14 +5071,14 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y57" s="6">
         <v>0</v>
       </c>
       <c r="Z57" s="7"/>
       <c r="AA57" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB57" s="14"/>
       <c r="AC57" s="5"/>
@@ -5041,14 +5095,14 @@
         <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -5073,14 +5127,14 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y58" s="6">
         <v>0</v>
       </c>
       <c r="Z58" s="7"/>
       <c r="AA58" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB58" s="14"/>
       <c r="AC58" s="5"/>
@@ -5097,14 +5151,14 @@
         <v>31</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -5129,14 +5183,14 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y59" s="6">
         <v>0</v>
       </c>
       <c r="Z59" s="7"/>
       <c r="AA59" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB59" s="14"/>
       <c r="AC59" s="5"/>
@@ -5153,14 +5207,14 @@
         <v>31</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -5185,14 +5239,14 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y60" s="6">
         <v>0</v>
       </c>
       <c r="Z60" s="7"/>
       <c r="AA60" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB60" s="14"/>
       <c r="AC60" s="5"/>
@@ -5209,17 +5263,17 @@
         <v>31</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>122</v>
@@ -5245,14 +5299,14 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y61" s="6">
         <v>0</v>
       </c>
       <c r="Z61" s="7"/>
       <c r="AA61" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB61" s="14"/>
       <c r="AC61" s="5"/>
@@ -5269,17 +5323,17 @@
         <v>31</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>122</v>
@@ -5305,14 +5359,14 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y62" s="6">
         <v>0</v>
       </c>
       <c r="Z62" s="7"/>
       <c r="AA62" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB62" s="14"/>
       <c r="AC62" s="5"/>
@@ -5329,17 +5383,17 @@
         <v>31</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>125</v>
@@ -5365,17 +5419,17 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y63" s="15">
         <v>0</v>
       </c>
       <c r="Z63" s="16"/>
       <c r="AA63" s="17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AB63" s="14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -5391,17 +5445,17 @@
         <v>31</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>125</v>
@@ -5427,14 +5481,14 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y64" s="6">
         <v>0</v>
       </c>
       <c r="Z64" s="7"/>
       <c r="AA64" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB64" s="14"/>
       <c r="AC64" s="5"/>
@@ -5451,14 +5505,14 @@
         <v>31</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -5483,14 +5537,14 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y65" s="6">
         <v>0</v>
       </c>
       <c r="Z65" s="7"/>
       <c r="AA65" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB65" s="14"/>
       <c r="AC65" s="5"/>
@@ -5507,14 +5561,14 @@
         <v>31</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -5539,14 +5593,14 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y66" s="6">
         <v>0</v>
       </c>
       <c r="Z66" s="7"/>
       <c r="AA66" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB66" s="14"/>
       <c r="AC66" s="5"/>
@@ -5563,14 +5617,14 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -5595,14 +5649,14 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y67" s="6">
         <v>0</v>
       </c>
       <c r="Z67" s="7"/>
       <c r="AA67" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB67" s="14"/>
       <c r="AC67" s="5"/>
@@ -5619,14 +5673,14 @@
         <v>31</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -5651,17 +5705,17 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y68" s="15">
         <v>0</v>
       </c>
       <c r="Z68" s="16"/>
       <c r="AA68" s="17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AB68" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5677,14 +5731,14 @@
         <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -5709,17 +5763,17 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y69" s="15">
         <v>0</v>
       </c>
       <c r="Z69" s="16"/>
       <c r="AA69" s="17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AB69" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
@@ -5735,14 +5789,14 @@
         <v>31</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E70" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -5767,17 +5821,17 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y70" s="15">
         <v>0</v>
       </c>
       <c r="Z70" s="16"/>
       <c r="AA70" s="17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AB70" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -5793,14 +5847,14 @@
         <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -5825,17 +5879,17 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y71" s="15">
         <v>0</v>
       </c>
       <c r="Z71" s="16"/>
       <c r="AA71" s="17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AB71" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
@@ -5851,14 +5905,14 @@
         <v>31</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -5883,14 +5937,14 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y72" s="6">
         <v>0</v>
       </c>
       <c r="Z72" s="7"/>
       <c r="AA72" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB72" s="14"/>
       <c r="AC72" s="5"/>
@@ -5907,14 +5961,14 @@
         <v>31</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -5939,14 +5993,14 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y73" s="6">
         <v>0</v>
       </c>
       <c r="Z73" s="7"/>
       <c r="AA73" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB73" s="14"/>
       <c r="AC73" s="5"/>
@@ -5963,14 +6017,14 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>121</v>
@@ -5999,14 +6053,14 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y74" s="6">
         <v>0</v>
       </c>
       <c r="Z74" s="7"/>
       <c r="AA74" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB74" s="14"/>
       <c r="AC74" s="5"/>
@@ -6023,14 +6077,14 @@
         <v>31</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>121</v>
@@ -6059,14 +6113,14 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y75" s="6">
         <v>0</v>
       </c>
       <c r="Z75" s="7"/>
       <c r="AA75" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB75" s="14"/>
       <c r="AC75" s="5"/>
@@ -6083,14 +6137,14 @@
         <v>31</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>121</v>
@@ -6119,14 +6173,14 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y76" s="6">
         <v>0</v>
       </c>
       <c r="Z76" s="7"/>
       <c r="AA76" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB76" s="14"/>
       <c r="AC76" s="5"/>
@@ -6143,14 +6197,14 @@
         <v>31</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>121</v>
@@ -6179,17 +6233,17 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y77" s="15">
         <v>0</v>
       </c>
       <c r="Z77" s="16"/>
       <c r="AA77" s="17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AB77" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
@@ -6205,14 +6259,14 @@
         <v>31</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>121</v>
@@ -6241,14 +6295,14 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y78" s="6">
         <v>0</v>
       </c>
       <c r="Z78" s="7"/>
       <c r="AA78" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB78" s="14"/>
       <c r="AC78" s="5"/>
@@ -6265,14 +6319,14 @@
         <v>31</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>121</v>
@@ -6301,14 +6355,14 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y79" s="6">
         <v>0</v>
       </c>
       <c r="Z79" s="7"/>
       <c r="AA79" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB79" s="14"/>
       <c r="AC79" s="5"/>
@@ -6325,14 +6379,14 @@
         <v>31</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>121</v>
@@ -6361,14 +6415,14 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y80" s="6">
         <v>0</v>
       </c>
       <c r="Z80" s="7"/>
       <c r="AA80" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB80" s="14"/>
       <c r="AC80" s="5"/>
@@ -6385,11 +6439,11 @@
         <v>31</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -6422,7 +6476,7 @@
       </c>
       <c r="Z81" s="16"/>
       <c r="AA81" s="17" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AB81" s="10"/>
       <c r="AC81" s="5"/>
@@ -6439,14 +6493,14 @@
         <v>31</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>121</v>
@@ -6475,17 +6529,17 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y82" s="15">
         <v>0</v>
       </c>
       <c r="Z82" s="16"/>
       <c r="AA82" s="17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AB82" s="14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
@@ -6501,14 +6555,14 @@
         <v>31</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>121</v>
@@ -6537,14 +6591,14 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y83" s="6">
         <v>0</v>
       </c>
       <c r="Z83" s="7"/>
       <c r="AA83" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB83" s="14"/>
       <c r="AC83" s="5"/>
@@ -6561,14 +6615,14 @@
         <v>31</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>121</v>
@@ -6597,14 +6651,14 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y84" s="6">
         <v>0</v>
       </c>
       <c r="Z84" s="7"/>
       <c r="AA84" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB84" s="14"/>
       <c r="AC84" s="5"/>
@@ -6621,14 +6675,14 @@
         <v>31</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>121</v>
@@ -6657,14 +6711,14 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y85" s="6">
         <v>0</v>
       </c>
       <c r="Z85" s="7"/>
       <c r="AA85" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB85" s="14"/>
       <c r="AC85" s="5"/>
@@ -6681,14 +6735,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>132</v>
@@ -6717,14 +6771,14 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y86" s="6">
         <v>0</v>
       </c>
       <c r="Z86" s="7"/>
       <c r="AA86" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB86" s="14"/>
       <c r="AC86" s="5"/>
@@ -6741,14 +6795,14 @@
         <v>31</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>132</v>
@@ -6777,14 +6831,14 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y87" s="6">
         <v>0</v>
       </c>
       <c r="Z87" s="7"/>
       <c r="AA87" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB87" s="14"/>
       <c r="AC87" s="5"/>
@@ -6801,14 +6855,14 @@
         <v>31</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>132</v>
@@ -6837,14 +6891,14 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y88" s="6">
         <v>0</v>
       </c>
       <c r="Z88" s="7"/>
       <c r="AA88" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB88" s="14"/>
       <c r="AC88" s="5"/>
@@ -6861,14 +6915,14 @@
         <v>31</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>132</v>
@@ -6897,14 +6951,14 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y89" s="6">
         <v>0</v>
       </c>
       <c r="Z89" s="7"/>
       <c r="AA89" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB89" s="14"/>
       <c r="AC89" s="5"/>
@@ -6921,14 +6975,14 @@
         <v>31</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>132</v>
@@ -6957,17 +7011,17 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y90" s="15">
         <v>0</v>
       </c>
       <c r="Z90" s="16"/>
       <c r="AA90" s="17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AB90" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
@@ -6983,14 +7037,14 @@
         <v>31</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>132</v>
@@ -7019,17 +7073,17 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y91" s="15">
         <v>0</v>
       </c>
       <c r="Z91" s="16"/>
       <c r="AA91" s="17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AB91" s="14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
@@ -7045,14 +7099,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>132</v>
@@ -7081,14 +7135,14 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y92" s="6">
         <v>0</v>
       </c>
       <c r="Z92" s="7"/>
       <c r="AA92" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB92" s="14"/>
       <c r="AC92" s="5"/>
@@ -7105,14 +7159,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7137,14 +7191,14 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y93" s="6">
         <v>0</v>
       </c>
       <c r="Z93" s="7"/>
       <c r="AA93" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB93" s="14"/>
       <c r="AC93" s="5"/>
@@ -7161,14 +7215,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7193,14 +7247,14 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y94" s="6">
         <v>0</v>
       </c>
       <c r="Z94" s="7"/>
       <c r="AA94" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB94" s="14"/>
       <c r="AC94" s="5"/>
@@ -7217,14 +7271,14 @@
         <v>31</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7249,14 +7303,14 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y95" s="6">
         <v>0</v>
       </c>
       <c r="Z95" s="7"/>
       <c r="AA95" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB95" s="14"/>
       <c r="AC95" s="5"/>
@@ -7273,14 +7327,14 @@
         <v>31</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7305,14 +7359,14 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y96" s="6">
         <v>0</v>
       </c>
       <c r="Z96" s="7"/>
       <c r="AA96" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB96" s="14"/>
       <c r="AC96" s="5"/>
@@ -7329,14 +7383,14 @@
         <v>31</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -7361,14 +7415,14 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y97" s="6">
         <v>0</v>
       </c>
       <c r="Z97" s="7"/>
       <c r="AA97" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB97" s="14"/>
       <c r="AC97" s="5"/>
@@ -7385,14 +7439,14 @@
         <v>31</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -7417,14 +7471,14 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y98" s="6">
         <v>0</v>
       </c>
       <c r="Z98" s="7"/>
       <c r="AA98" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB98" s="14"/>
       <c r="AC98" s="5"/>
@@ -7441,14 +7495,14 @@
         <v>31</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -7473,14 +7527,14 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y99" s="6">
         <v>0</v>
       </c>
       <c r="Z99" s="7"/>
       <c r="AA99" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB99" s="14"/>
       <c r="AC99" s="5"/>
@@ -7497,14 +7551,14 @@
         <v>31</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -7529,14 +7583,14 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y100" s="6">
         <v>0</v>
       </c>
       <c r="Z100" s="7"/>
       <c r="AA100" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB100" s="14"/>
       <c r="AC100" s="5"/>
@@ -7553,14 +7607,14 @@
         <v>31</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -7585,14 +7639,14 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y101" s="6">
         <v>0</v>
       </c>
       <c r="Z101" s="7"/>
       <c r="AA101" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB101" s="14"/>
       <c r="AC101" s="5"/>
@@ -7609,14 +7663,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -7641,14 +7695,14 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y102" s="6">
         <v>0</v>
       </c>
       <c r="Z102" s="7"/>
       <c r="AA102" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB102" s="14"/>
       <c r="AC102" s="5"/>
@@ -7665,14 +7719,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -7697,14 +7751,14 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y103" s="6">
         <v>0</v>
       </c>
       <c r="Z103" s="7"/>
       <c r="AA103" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB103" s="14"/>
       <c r="AC103" s="5"/>
@@ -7721,14 +7775,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -7753,14 +7807,14 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y104" s="6">
         <v>0</v>
       </c>
       <c r="Z104" s="7"/>
       <c r="AA104" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB104" s="14"/>
       <c r="AC104" s="5"/>
@@ -7777,14 +7831,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -7809,14 +7863,14 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Y105" s="15">
         <v>0</v>
       </c>
       <c r="Z105" s="16"/>
       <c r="AA105" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB105" s="14"/>
       <c r="AC105" s="5"/>
@@ -7833,11 +7887,11 @@
         <v>31</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -7870,7 +7924,7 @@
       </c>
       <c r="Z106" s="16"/>
       <c r="AA106" s="17" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AB106" s="14"/>
       <c r="AC106" s="5"/>
@@ -7887,11 +7941,11 @@
         <v>31</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -7924,7 +7978,7 @@
       </c>
       <c r="Z107" s="16"/>
       <c r="AA107" s="17" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AB107" s="14"/>
       <c r="AC107" s="5"/>
@@ -7941,11 +7995,11 @@
         <v>31</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -7978,7 +8032,7 @@
       </c>
       <c r="Z108" s="16"/>
       <c r="AA108" s="17" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AB108" s="14"/>
       <c r="AC108" s="5"/>
@@ -7995,11 +8049,11 @@
         <v>31</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -8032,7 +8086,7 @@
       </c>
       <c r="Z109" s="16"/>
       <c r="AA109" s="17" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AB109" s="10"/>
       <c r="AC109" s="5"/>
@@ -8046,14 +8100,14 @@
     </row>
     <row r="110" spans="1:36" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -8082,7 +8136,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
       <c r="AA110" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB110" s="14"/>
       <c r="AC110" s="5"/>
@@ -8096,14 +8150,14 @@
     </row>
     <row r="111" spans="1:36" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -8132,7 +8186,7 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB111" s="14"/>
       <c r="AC111" s="5"/>
@@ -8146,14 +8200,14 @@
     </row>
     <row r="112" spans="1:36" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -8182,7 +8236,7 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB112" s="14"/>
       <c r="AC112" s="5"/>
@@ -8196,14 +8250,14 @@
     </row>
     <row r="113" spans="1:36" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -8232,7 +8286,7 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB113" s="14"/>
       <c r="AC113" s="5"/>
@@ -8246,14 +8300,14 @@
     </row>
     <row r="114" spans="1:36" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -8282,7 +8336,7 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB114" s="14"/>
       <c r="AC114" s="5"/>
@@ -8296,14 +8350,14 @@
     </row>
     <row r="115" spans="1:36" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -8332,7 +8386,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB115" s="14"/>
       <c r="AC115" s="5"/>
@@ -8346,14 +8400,14 @@
     </row>
     <row r="116" spans="1:36" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -8382,7 +8436,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
       <c r="AA116" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB116" s="14"/>
       <c r="AC116" s="5"/>
@@ -8396,14 +8450,14 @@
     </row>
     <row r="117" spans="1:36" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -8432,7 +8486,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
       <c r="AA117" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB117" s="14"/>
       <c r="AC117" s="5"/>
@@ -8446,14 +8500,14 @@
     </row>
     <row r="118" spans="1:36" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="18" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -8482,7 +8536,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
       <c r="AA118" s="5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AB118" s="14"/>
       <c r="AC118" s="5"/>
@@ -8614,18 +8668,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>125</v>
@@ -8689,7 +8743,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5D8200-C579-4E33-821E-021984793276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F271542-75CD-4AF7-B326-722D25DFF5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="4785" windowWidth="23970" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="4860" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH61_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>配置する画像の種類を選択</t>
@@ -47,7 +46,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>シート内で重複しない名称を指定</t>
@@ -61,7 +59,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>親となる画像がある場合に指定
@@ -77,7 +74,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>サーバー側分類</t>
@@ -91,7 +87,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>サーバー側名称</t>
@@ -105,7 +100,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">制御条件に含む転てつ器名称（省略可）
@@ -120,7 +114,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器状態
@@ -135,7 +128,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">制御条件に含む転てつ器名称（省略可）
@@ -150,7 +142,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む転てつ器状態
@@ -165,7 +156,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む方向てこの名称（省略可）</t>
@@ -179,7 +169,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>制御条件に含む方向てこ状態
@@ -194,7 +183,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>X座標（幅方向）を指定する</t>
@@ -208,7 +196,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Y座標（高さ方向）を指定する</t>
@@ -222,7 +209,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の幅を指定（省略可）
@@ -237,7 +223,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の高さを指定（省略可）
@@ -252,7 +237,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>画像の回転角度を指定する（省略可）</t>
@@ -266,7 +250,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>回転させる中心点を指定する
@@ -281,7 +264,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>回転させる中心点を指定する
@@ -296,7 +278,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>表示したい文字列を指定
@@ -314,7 +295,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>表示したい文字列のサイズを指定
@@ -332,7 +312,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>背景色を指定
@@ -350,7 +329,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>文字色を指定
@@ -368,7 +346,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>マウスクリック動作を行う場合に設定
@@ -383,7 +360,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>Base画像以外の差分用数値（カンマ区切り）
@@ -416,7 +392,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>ImagePattenの中から表示する画像番号を指定</t>
@@ -430,7 +405,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>読み込むBase画像の相対パスを記入
@@ -460,7 +434,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>読み込む画像の相対パスを記入
@@ -493,7 +466,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
-            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>備考欄
@@ -506,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="281">
   <si>
     <t>Type</t>
   </si>
@@ -1087,6 +1059,9 @@
     <t>TH2T_1L_1</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Image/Light/45N.png,Image/Light/45Y.png,Image/Light/45R.png</t>
   </si>
   <si>
@@ -1258,15 +1233,27 @@
     <t>停電_R</t>
   </si>
   <si>
+    <t>TH61_PWR-FAILURE</t>
+  </si>
+  <si>
     <t>CTC故障_R</t>
   </si>
   <si>
+    <t>TH61_CTC-FAILURE</t>
+  </si>
+  <si>
     <t>鎖錠60秒_R</t>
   </si>
   <si>
+    <t>TH61_60TEK</t>
+  </si>
+  <si>
     <t>鎖錠30秒_R</t>
   </si>
   <si>
+    <t>TH61_30TEK</t>
+  </si>
+  <si>
     <t>Retsuban</t>
   </si>
   <si>
@@ -1276,37 +1263,61 @@
     <t>列車番号</t>
   </si>
   <si>
+    <t>TH62_TTC_Track1</t>
+  </si>
+  <si>
     <t>Image/Retsuban/Retsuban-Window.png</t>
   </si>
   <si>
     <t>列番高見沢2番線</t>
   </si>
   <si>
+    <t>TH62_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番日野森上り第2接近</t>
   </si>
   <si>
+    <t>TH61_TTC_Up2</t>
+  </si>
+  <si>
     <t>列番日野森上り第1接近</t>
   </si>
   <si>
+    <t>TH61_TTC_Up1</t>
+  </si>
+  <si>
     <t>列番日野森1番線</t>
   </si>
   <si>
+    <t>TH61_TTC_Track1</t>
+  </si>
+  <si>
     <t>列番日野森2番線</t>
   </si>
   <si>
+    <t>TH61_TTC_Track2</t>
+  </si>
+  <si>
     <t>列番日野森3番線</t>
   </si>
   <si>
+    <t>TH61_TTC_Track3</t>
+  </si>
+  <si>
     <t>列番日野森下り第1接近</t>
   </si>
   <si>
+    <t>TH61_TTC_Down1</t>
+  </si>
+  <si>
     <t>列番日野森下り第2接近</t>
   </si>
   <si>
+    <t>TH61_TTC_Down2</t>
+  </si>
+  <si>
     <t>Button</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>Label</t>
@@ -1316,7 +1327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1369,13 +1380,6 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1684,7 +1688,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5574,8 +5578,12 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
+      <c r="J66" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="L66" s="4">
         <v>352</v>
       </c>
@@ -5630,8 +5638,12 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
+      <c r="J67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="L67" s="4">
         <v>412</v>
       </c>
@@ -5686,8 +5698,12 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
+      <c r="J68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="L68" s="4">
         <v>353</v>
       </c>
@@ -5712,10 +5728,10 @@
       </c>
       <c r="Z68" s="16"/>
       <c r="AA68" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB68" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5731,7 +5747,7 @@
         <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
@@ -5744,8 +5760,12 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
+      <c r="J69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="L69" s="4">
         <v>353</v>
       </c>
@@ -5770,10 +5790,10 @@
       </c>
       <c r="Z69" s="16"/>
       <c r="AA69" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB69" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
@@ -5789,7 +5809,7 @@
         <v>31</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
@@ -5802,8 +5822,12 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="J70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="L70" s="4">
         <v>413</v>
       </c>
@@ -5828,10 +5852,10 @@
       </c>
       <c r="Z70" s="16"/>
       <c r="AA70" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB70" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -5847,7 +5871,7 @@
         <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
@@ -5860,8 +5884,12 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
+      <c r="J71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="L71" s="4">
         <v>413</v>
       </c>
@@ -5886,10 +5914,10 @@
       </c>
       <c r="Z71" s="16"/>
       <c r="AA71" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB71" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
@@ -5905,14 +5933,14 @@
         <v>31</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -5961,14 +5989,14 @@
         <v>31</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6017,14 +6045,14 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>121</v>
@@ -6077,14 +6105,14 @@
         <v>31</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>121</v>
@@ -6137,14 +6165,14 @@
         <v>31</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>121</v>
@@ -6197,14 +6225,14 @@
         <v>31</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>121</v>
@@ -6240,10 +6268,10 @@
       </c>
       <c r="Z77" s="16"/>
       <c r="AA77" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB77" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
@@ -6259,14 +6287,14 @@
         <v>31</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>121</v>
@@ -6319,14 +6347,14 @@
         <v>31</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>121</v>
@@ -6379,14 +6407,14 @@
         <v>31</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>121</v>
@@ -6439,11 +6467,11 @@
         <v>31</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -6476,7 +6504,7 @@
       </c>
       <c r="Z81" s="16"/>
       <c r="AA81" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB81" s="10"/>
       <c r="AC81" s="5"/>
@@ -6493,14 +6521,14 @@
         <v>31</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>121</v>
@@ -6536,10 +6564,10 @@
       </c>
       <c r="Z82" s="16"/>
       <c r="AA82" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB82" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
@@ -6555,14 +6583,14 @@
         <v>31</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>121</v>
@@ -6615,14 +6643,14 @@
         <v>31</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>121</v>
@@ -6675,14 +6703,14 @@
         <v>31</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>121</v>
@@ -6735,14 +6763,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>132</v>
@@ -6795,14 +6823,14 @@
         <v>31</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>132</v>
@@ -6855,14 +6883,14 @@
         <v>31</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>132</v>
@@ -6915,14 +6943,14 @@
         <v>31</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>132</v>
@@ -6975,14 +7003,14 @@
         <v>31</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>132</v>
@@ -7018,10 +7046,10 @@
       </c>
       <c r="Z90" s="16"/>
       <c r="AA90" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB90" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
@@ -7037,14 +7065,14 @@
         <v>31</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>132</v>
@@ -7080,10 +7108,10 @@
       </c>
       <c r="Z91" s="16"/>
       <c r="AA91" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB91" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
@@ -7099,14 +7127,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>132</v>
@@ -7159,14 +7187,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7215,14 +7243,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7271,14 +7299,14 @@
         <v>31</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7327,14 +7355,14 @@
         <v>31</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7383,14 +7411,14 @@
         <v>31</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -7439,14 +7467,14 @@
         <v>31</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -7495,14 +7523,14 @@
         <v>31</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -7551,14 +7579,14 @@
         <v>31</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -7607,14 +7635,14 @@
         <v>31</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -7663,14 +7691,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -7719,14 +7747,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -7775,14 +7803,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -7831,14 +7859,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -7887,13 +7915,15 @@
         <v>31</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E106" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>251</v>
+      </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -7924,7 +7954,7 @@
       </c>
       <c r="Z106" s="16"/>
       <c r="AA106" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB106" s="14"/>
       <c r="AC106" s="5"/>
@@ -7941,13 +7971,15 @@
         <v>31</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E107" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>253</v>
+      </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -7978,7 +8010,7 @@
       </c>
       <c r="Z107" s="16"/>
       <c r="AA107" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB107" s="14"/>
       <c r="AC107" s="5"/>
@@ -7995,13 +8027,15 @@
         <v>31</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>255</v>
+      </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -8032,7 +8066,7 @@
       </c>
       <c r="Z108" s="16"/>
       <c r="AA108" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB108" s="14"/>
       <c r="AC108" s="5"/>
@@ -8049,13 +8083,15 @@
         <v>31</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E109" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>257</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -8086,7 +8122,7 @@
       </c>
       <c r="Z109" s="16"/>
       <c r="AA109" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AB109" s="10"/>
       <c r="AC109" s="5"/>
@@ -8100,16 +8136,18 @@
     </row>
     <row r="110" spans="1:36" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E110" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>261</v>
+      </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -8136,7 +8174,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
       <c r="AA110" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AB110" s="14"/>
       <c r="AC110" s="5"/>
@@ -8150,16 +8188,18 @@
     </row>
     <row r="111" spans="1:36" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E111" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>264</v>
+      </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -8186,7 +8226,7 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AB111" s="14"/>
       <c r="AC111" s="5"/>
@@ -8200,16 +8240,18 @@
     </row>
     <row r="112" spans="1:36" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E112" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="E112" s="19" t="s">
+        <v>266</v>
+      </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -8236,7 +8278,7 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AB112" s="14"/>
       <c r="AC112" s="5"/>
@@ -8250,16 +8292,18 @@
     </row>
     <row r="113" spans="1:36" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E113" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>268</v>
+      </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -8286,7 +8330,7 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AB113" s="14"/>
       <c r="AC113" s="5"/>
@@ -8300,16 +8344,18 @@
     </row>
     <row r="114" spans="1:36" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E114" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>270</v>
+      </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -8336,7 +8382,7 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AB114" s="14"/>
       <c r="AC114" s="5"/>
@@ -8350,16 +8396,18 @@
     </row>
     <row r="115" spans="1:36" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E115" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>272</v>
+      </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -8386,7 +8434,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AB115" s="14"/>
       <c r="AC115" s="5"/>
@@ -8400,16 +8448,18 @@
     </row>
     <row r="116" spans="1:36" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E116" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -8436,7 +8486,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
       <c r="AA116" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AB116" s="14"/>
       <c r="AC116" s="5"/>
@@ -8450,16 +8500,18 @@
     </row>
     <row r="117" spans="1:36" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E117" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>276</v>
+      </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -8486,7 +8538,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
       <c r="AA117" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AB117" s="14"/>
       <c r="AC117" s="5"/>
@@ -8500,16 +8552,18 @@
     </row>
     <row r="118" spans="1:36" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E118" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>278</v>
+      </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -8536,7 +8590,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
       <c r="AA118" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AB118" s="14"/>
       <c r="AC118" s="5"/>
@@ -8668,18 +8722,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>125</v>
@@ -8743,7 +8797,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F271542-75CD-4AF7-B326-722D25DFF5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6EBAE0-8142-429E-A936-41DF6F34F6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="4860" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="3435" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH61_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="282">
   <si>
     <t>Type</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>TH2T</t>
+  </si>
+  <si>
+    <t>TH61_1F</t>
   </si>
   <si>
     <t>TH2T_2</t>
@@ -5579,7 +5582,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>122</v>
@@ -5625,7 +5628,7 @@
         <v>31</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
@@ -5639,7 +5642,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>122</v>
@@ -5685,7 +5688,7 @@
         <v>31</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
@@ -5699,10 +5702,10 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L68" s="4">
         <v>353</v>
@@ -5728,10 +5731,10 @@
       </c>
       <c r="Z68" s="16"/>
       <c r="AA68" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB68" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -5747,7 +5750,7 @@
         <v>31</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
@@ -5761,10 +5764,10 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L69" s="4">
         <v>353</v>
@@ -5790,10 +5793,10 @@
       </c>
       <c r="Z69" s="16"/>
       <c r="AA69" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AB69" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
@@ -5809,7 +5812,7 @@
         <v>31</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
@@ -5823,7 +5826,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>125</v>
@@ -5852,10 +5855,10 @@
       </c>
       <c r="Z70" s="16"/>
       <c r="AA70" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AB70" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -5871,7 +5874,7 @@
         <v>31</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
@@ -5885,7 +5888,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>125</v>
@@ -5914,10 +5917,10 @@
       </c>
       <c r="Z71" s="16"/>
       <c r="AA71" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB71" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
@@ -5933,14 +5936,14 @@
         <v>31</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -5989,14 +5992,14 @@
         <v>31</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -6045,14 +6048,14 @@
         <v>31</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>121</v>
@@ -6105,14 +6108,14 @@
         <v>31</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>121</v>
@@ -6165,14 +6168,14 @@
         <v>31</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>121</v>
@@ -6225,14 +6228,14 @@
         <v>31</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>121</v>
@@ -6268,10 +6271,10 @@
       </c>
       <c r="Z77" s="16"/>
       <c r="AA77" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AB77" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
@@ -6287,14 +6290,14 @@
         <v>31</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>121</v>
@@ -6347,14 +6350,14 @@
         <v>31</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>121</v>
@@ -6407,14 +6410,14 @@
         <v>31</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>121</v>
@@ -6467,11 +6470,11 @@
         <v>31</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -6504,7 +6507,7 @@
       </c>
       <c r="Z81" s="16"/>
       <c r="AA81" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB81" s="10"/>
       <c r="AC81" s="5"/>
@@ -6521,14 +6524,14 @@
         <v>31</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>121</v>
@@ -6564,10 +6567,10 @@
       </c>
       <c r="Z82" s="16"/>
       <c r="AA82" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AB82" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
@@ -6583,14 +6586,14 @@
         <v>31</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>121</v>
@@ -6643,14 +6646,14 @@
         <v>31</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>121</v>
@@ -6703,14 +6706,14 @@
         <v>31</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>121</v>
@@ -6763,14 +6766,14 @@
         <v>31</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>132</v>
@@ -6823,14 +6826,14 @@
         <v>31</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>132</v>
@@ -6883,14 +6886,14 @@
         <v>31</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>132</v>
@@ -6943,14 +6946,14 @@
         <v>31</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>132</v>
@@ -7003,14 +7006,14 @@
         <v>31</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>132</v>
@@ -7046,10 +7049,10 @@
       </c>
       <c r="Z90" s="16"/>
       <c r="AA90" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB90" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC90" s="5"/>
       <c r="AD90" s="5"/>
@@ -7065,14 +7068,14 @@
         <v>31</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>132</v>
@@ -7108,10 +7111,10 @@
       </c>
       <c r="Z91" s="16"/>
       <c r="AA91" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB91" s="14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AC91" s="5"/>
       <c r="AD91" s="5"/>
@@ -7127,14 +7130,14 @@
         <v>31</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>132</v>
@@ -7187,14 +7190,14 @@
         <v>31</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7243,14 +7246,14 @@
         <v>31</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7299,14 +7302,14 @@
         <v>31</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7355,14 +7358,14 @@
         <v>31</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7411,14 +7414,14 @@
         <v>31</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -7467,14 +7470,14 @@
         <v>31</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -7523,14 +7526,14 @@
         <v>31</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -7579,14 +7582,14 @@
         <v>31</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -7635,14 +7638,14 @@
         <v>31</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -7691,14 +7694,14 @@
         <v>31</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -7747,14 +7750,14 @@
         <v>31</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E103" s="13" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -7803,14 +7806,14 @@
         <v>31</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E104" s="13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -7859,14 +7862,14 @@
         <v>31</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -7915,14 +7918,14 @@
         <v>31</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -7954,7 +7957,7 @@
       </c>
       <c r="Z106" s="16"/>
       <c r="AA106" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB106" s="14"/>
       <c r="AC106" s="5"/>
@@ -7971,14 +7974,14 @@
         <v>31</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -8010,7 +8013,7 @@
       </c>
       <c r="Z107" s="16"/>
       <c r="AA107" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB107" s="14"/>
       <c r="AC107" s="5"/>
@@ -8027,14 +8030,14 @@
         <v>31</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -8066,7 +8069,7 @@
       </c>
       <c r="Z108" s="16"/>
       <c r="AA108" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB108" s="14"/>
       <c r="AC108" s="5"/>
@@ -8083,14 +8086,14 @@
         <v>31</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -8122,7 +8125,7 @@
       </c>
       <c r="Z109" s="16"/>
       <c r="AA109" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB109" s="10"/>
       <c r="AC109" s="5"/>
@@ -8136,17 +8139,17 @@
     </row>
     <row r="110" spans="1:36" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8174,7 +8177,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
       <c r="AA110" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB110" s="14"/>
       <c r="AC110" s="5"/>
@@ -8188,17 +8191,17 @@
     </row>
     <row r="111" spans="1:36" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -8226,7 +8229,7 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB111" s="14"/>
       <c r="AC111" s="5"/>
@@ -8240,17 +8243,17 @@
     </row>
     <row r="112" spans="1:36" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -8278,7 +8281,7 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB112" s="14"/>
       <c r="AC112" s="5"/>
@@ -8292,17 +8295,17 @@
     </row>
     <row r="113" spans="1:36" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -8330,7 +8333,7 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB113" s="14"/>
       <c r="AC113" s="5"/>
@@ -8344,17 +8347,17 @@
     </row>
     <row r="114" spans="1:36" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -8382,7 +8385,7 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB114" s="14"/>
       <c r="AC114" s="5"/>
@@ -8396,17 +8399,17 @@
     </row>
     <row r="115" spans="1:36" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -8434,7 +8437,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB115" s="14"/>
       <c r="AC115" s="5"/>
@@ -8448,17 +8451,17 @@
     </row>
     <row r="116" spans="1:36" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -8486,7 +8489,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
       <c r="AA116" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB116" s="14"/>
       <c r="AC116" s="5"/>
@@ -8500,17 +8503,17 @@
     </row>
     <row r="117" spans="1:36" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -8538,7 +8541,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
       <c r="AA117" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB117" s="14"/>
       <c r="AC117" s="5"/>
@@ -8552,17 +8555,17 @@
     </row>
     <row r="118" spans="1:36" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -8590,7 +8593,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
       <c r="AA118" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AB118" s="14"/>
       <c r="AC118" s="5"/>
@@ -8722,18 +8725,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>125</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
+++ b/exe/TSV/Excel/TH61_Hinomori_UIList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hotma\Desktop\TrainCrewツール\TatehamaInterlockingConsole\exe\TSV\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6EBAE0-8142-429E-A936-41DF6F34F6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D1E141-CFD9-4FC3-80C9-D44693FDE8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="3435" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="5085" windowWidth="23955" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TH61_日野森駅_UIList" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="284">
   <si>
     <t>Type</t>
   </si>
@@ -1231,6 +1231,12 @@
   </si>
   <si>
     <t>TH59_12LT</t>
+  </si>
+  <si>
+    <t>転てつ不良_R</t>
+  </si>
+  <si>
+    <t>TH61_W-FAILURE</t>
   </si>
   <si>
     <t>停電_R</t>
@@ -1685,7 +1691,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ120"/>
+  <dimension ref="A1:AJ121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -7934,7 +7940,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="M106" s="4">
         <v>45</v>
@@ -7990,7 +7996,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="M107" s="4">
         <v>45</v>
@@ -8046,10 +8052,10 @@
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4">
-        <v>696</v>
+        <v>278</v>
       </c>
       <c r="M108" s="4">
-        <v>567</v>
+        <v>45</v>
       </c>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -8102,7 +8108,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4">
-        <v>734</v>
+        <v>696</v>
       </c>
       <c r="M109" s="4">
         <v>567</v>
@@ -8127,7 +8133,7 @@
       <c r="AA109" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="AB109" s="10"/>
+      <c r="AB109" s="14"/>
       <c r="AC109" s="5"/>
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
@@ -8139,17 +8145,17 @@
     </row>
     <row r="110" spans="1:36" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="C110" s="4"/>
+      <c r="D110" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E110" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -8158,10 +8164,10 @@
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4">
-        <v>112</v>
+        <v>734</v>
       </c>
       <c r="M110" s="4">
-        <v>201</v>
+        <v>567</v>
       </c>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -8172,14 +8178,18 @@
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110" s="4"/>
-      <c r="W110" s="12"/>
-      <c r="X110" s="4"/>
-      <c r="Y110" s="4"/>
-      <c r="Z110" s="4"/>
-      <c r="AA110" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB110" s="14"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y110" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="16"/>
+      <c r="AA110" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB110" s="10"/>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
@@ -8191,17 +8201,17 @@
     </row>
     <row r="111" spans="1:36" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -8213,7 +8223,7 @@
         <v>112</v>
       </c>
       <c r="M111" s="4">
-        <v>247</v>
+        <v>201</v>
       </c>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -8229,7 +8239,7 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB111" s="14"/>
       <c r="AC111" s="5"/>
@@ -8243,14 +8253,14 @@
     </row>
     <row r="112" spans="1:36" ht="15.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B112" s="12" t="s">
         <v>266</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E112" s="19" t="s">
         <v>267</v>
@@ -8262,10 +8272,10 @@
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="M112" s="4">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -8281,7 +8291,7 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB112" s="14"/>
       <c r="AC112" s="5"/>
@@ -8295,14 +8305,14 @@
     </row>
     <row r="113" spans="1:36" ht="15.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B113" s="12" t="s">
         <v>268</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E113" s="19" t="s">
         <v>269</v>
@@ -8314,7 +8324,7 @@
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4">
-        <v>412</v>
+        <v>262</v>
       </c>
       <c r="M113" s="4">
         <v>201</v>
@@ -8333,7 +8343,7 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB113" s="14"/>
       <c r="AC113" s="5"/>
@@ -8347,14 +8357,14 @@
     </row>
     <row r="114" spans="1:36" ht="15.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B114" s="12" t="s">
         <v>270</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>271</v>
@@ -8366,10 +8376,10 @@
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4">
-        <v>927</v>
+        <v>412</v>
       </c>
       <c r="M114" s="4">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -8385,7 +8395,7 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB114" s="14"/>
       <c r="AC114" s="5"/>
@@ -8399,14 +8409,14 @@
     </row>
     <row r="115" spans="1:36" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B115" s="12" t="s">
         <v>272</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E115" s="19" t="s">
         <v>273</v>
@@ -8421,7 +8431,7 @@
         <v>927</v>
       </c>
       <c r="M115" s="4">
-        <v>314</v>
+        <v>194</v>
       </c>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -8437,7 +8447,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB115" s="14"/>
       <c r="AC115" s="5"/>
@@ -8451,14 +8461,14 @@
     </row>
     <row r="116" spans="1:36" ht="15.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>274</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E116" s="19" t="s">
         <v>275</v>
@@ -8473,7 +8483,7 @@
         <v>927</v>
       </c>
       <c r="M116" s="4">
-        <v>374</v>
+        <v>314</v>
       </c>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -8489,7 +8499,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
       <c r="AA116" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB116" s="14"/>
       <c r="AC116" s="5"/>
@@ -8503,14 +8513,14 @@
     </row>
     <row r="117" spans="1:36" ht="15.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B117" s="12" t="s">
         <v>276</v>
       </c>
       <c r="C117" s="4"/>
       <c r="D117" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E117" s="19" t="s">
         <v>277</v>
@@ -8522,10 +8532,10 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4">
-        <v>1135</v>
+        <v>927</v>
       </c>
       <c r="M117" s="4">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -8541,7 +8551,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
       <c r="AA117" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB117" s="14"/>
       <c r="AC117" s="5"/>
@@ -8555,14 +8565,14 @@
     </row>
     <row r="118" spans="1:36" ht="15.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B118" s="12" t="s">
         <v>278</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E118" s="19" t="s">
         <v>279</v>
@@ -8574,7 +8584,7 @@
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4">
-        <v>1285</v>
+        <v>1135</v>
       </c>
       <c r="M118" s="4">
         <v>441</v>
@@ -8593,7 +8603,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
       <c r="AA118" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AB118" s="14"/>
       <c r="AC118" s="5"/>
@@ -8606,19 +8616,31 @@
       <c r="AJ118" s="5"/>
     </row>
     <row r="119" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="A119" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>280</v>
+      </c>
       <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
+      <c r="D119" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>281</v>
+      </c>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
+      <c r="L119" s="4">
+        <v>1285</v>
+      </c>
+      <c r="M119" s="4">
+        <v>441</v>
+      </c>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4"/>
@@ -8628,12 +8650,14 @@
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
-      <c r="W119" s="4"/>
+      <c r="W119" s="12"/>
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
-      <c r="AA119" s="5"/>
-      <c r="AB119" s="5"/>
+      <c r="AA119" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB119" s="14"/>
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
@@ -8681,6 +8705,44 @@
       <c r="AI120" s="5"/>
       <c r="AJ120" s="5"/>
     </row>
+    <row r="121" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="4"/>
+      <c r="AA121" s="5"/>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="5"/>
+      <c r="AF121" s="5"/>
+      <c r="AG121" s="5"/>
+      <c r="AH121" s="5"/>
+      <c r="AI121" s="5"/>
+      <c r="AJ121" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8692,19 +8754,19 @@
           <x14:formula1>
             <xm:f>入力規則!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A120</xm:sqref>
+          <xm:sqref>A2:A121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>入力規則!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K120</xm:sqref>
+          <xm:sqref>K2:K121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>入力規則!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G120 I2:I120</xm:sqref>
+          <xm:sqref>G2:G121 I2:I121</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8725,7 +8787,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>122</v>
@@ -8736,7 +8798,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>125</v>
@@ -8800,7 +8862,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
